--- a/Examples/Example.xlsx
+++ b/Examples/Example.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dener\Documents\WorkSpace\BactEXTRACT\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209595CB-CDEC-4AB0-8BAA-A659FE2FA2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD0B84E-B801-4A0A-81E3-F66FEDD61346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -121,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -419,333 +417,6 @@
   <si>
     <t>End:</t>
   </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>0 mM</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>50 uM</t>
-  </si>
-  <si>
-    <t>100 uM</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Column5</t>
-  </si>
-  <si>
-    <t>Column6</t>
-  </si>
-  <si>
-    <t>Column7</t>
-  </si>
-  <si>
-    <t>Column8</t>
-  </si>
-  <si>
-    <t>Column9</t>
-  </si>
-  <si>
-    <t>Column10</t>
-  </si>
-  <si>
-    <t>Column11</t>
-  </si>
-  <si>
-    <t>Column12</t>
-  </si>
-  <si>
-    <t>Column13</t>
-  </si>
-  <si>
-    <t>Column14</t>
-  </si>
-  <si>
-    <t>Column15</t>
-  </si>
-  <si>
-    <t>Column16</t>
-  </si>
-  <si>
-    <t>Column17</t>
-  </si>
-  <si>
-    <t>Column18</t>
-  </si>
-  <si>
-    <t>Column19</t>
-  </si>
-  <si>
-    <t>Column20</t>
-  </si>
-  <si>
-    <t>Column21</t>
-  </si>
-  <si>
-    <t>Column22</t>
-  </si>
-  <si>
-    <t>Column23</t>
-  </si>
-  <si>
-    <t>Column24</t>
-  </si>
-  <si>
-    <t>Column25</t>
-  </si>
-  <si>
-    <t>Column26</t>
-  </si>
-  <si>
-    <t>Column27</t>
-  </si>
-  <si>
-    <t>Column28</t>
-  </si>
-  <si>
-    <t>Column29</t>
-  </si>
-  <si>
-    <t>Column30</t>
-  </si>
-  <si>
-    <t>Column31</t>
-  </si>
-  <si>
-    <t>Column32</t>
-  </si>
-  <si>
-    <t>Column33</t>
-  </si>
-  <si>
-    <t>Column34</t>
-  </si>
-  <si>
-    <t>Column35</t>
-  </si>
-  <si>
-    <t>Column36</t>
-  </si>
-  <si>
-    <t>Column37</t>
-  </si>
-  <si>
-    <t>Column38</t>
-  </si>
-  <si>
-    <t>Column39</t>
-  </si>
-  <si>
-    <t>Column40</t>
-  </si>
-  <si>
-    <t>Column41</t>
-  </si>
-  <si>
-    <t>Column42</t>
-  </si>
-  <si>
-    <t>Column43</t>
-  </si>
-  <si>
-    <t>Column44</t>
-  </si>
-  <si>
-    <t>Column45</t>
-  </si>
-  <si>
-    <t>Column46</t>
-  </si>
-  <si>
-    <t>Column47</t>
-  </si>
-  <si>
-    <t>Column48</t>
-  </si>
-  <si>
-    <t>Column49</t>
-  </si>
-  <si>
-    <t>Column50</t>
-  </si>
-  <si>
-    <t>Column51</t>
-  </si>
-  <si>
-    <t>Column52</t>
-  </si>
-  <si>
-    <t>Column53</t>
-  </si>
-  <si>
-    <t>Column54</t>
-  </si>
-  <si>
-    <t>Column55</t>
-  </si>
-  <si>
-    <t>Column56</t>
-  </si>
-  <si>
-    <t>Column57</t>
-  </si>
-  <si>
-    <t>Column58</t>
-  </si>
-  <si>
-    <t>Column59</t>
-  </si>
-  <si>
-    <t>Column60</t>
-  </si>
-  <si>
-    <t>Column61</t>
-  </si>
-  <si>
-    <t>Column62</t>
-  </si>
-  <si>
-    <t>Column63</t>
-  </si>
-  <si>
-    <t>Column64</t>
-  </si>
-  <si>
-    <t>Column65</t>
-  </si>
-  <si>
-    <t>Column66</t>
-  </si>
-  <si>
-    <t>Column67</t>
-  </si>
-  <si>
-    <t>Column68</t>
-  </si>
-  <si>
-    <t>Column69</t>
-  </si>
-  <si>
-    <t>Column70</t>
-  </si>
-  <si>
-    <t>Column71</t>
-  </si>
-  <si>
-    <t>Column72</t>
-  </si>
-  <si>
-    <t>Column73</t>
-  </si>
-  <si>
-    <t>Column74</t>
-  </si>
-  <si>
-    <t>Column75</t>
-  </si>
-  <si>
-    <t>Column76</t>
-  </si>
-  <si>
-    <t>Column77</t>
-  </si>
-  <si>
-    <t>Column78</t>
-  </si>
-  <si>
-    <t>Column79</t>
-  </si>
-  <si>
-    <t>Column80</t>
-  </si>
-  <si>
-    <t>Column81</t>
-  </si>
-  <si>
-    <t>Column82</t>
-  </si>
-  <si>
-    <t>Column83</t>
-  </si>
-  <si>
-    <t>Column84</t>
-  </si>
-  <si>
-    <t>Column85</t>
-  </si>
-  <si>
-    <t>Column86</t>
-  </si>
-  <si>
-    <t>Column87</t>
-  </si>
-  <si>
-    <t>Column88</t>
-  </si>
-  <si>
-    <t>Column89</t>
-  </si>
-  <si>
-    <t>Column90</t>
-  </si>
-  <si>
-    <t>Column91</t>
-  </si>
-  <si>
-    <t>Column92</t>
-  </si>
-  <si>
-    <t>Column93</t>
-  </si>
-  <si>
-    <t>Column94</t>
-  </si>
-  <si>
-    <t>Column95</t>
-  </si>
-  <si>
-    <t>Column96</t>
-  </si>
-  <si>
-    <t>Column97</t>
-  </si>
-  <si>
-    <t>Column98</t>
-  </si>
 </sst>
 </file>
 
@@ -828,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -837,9 +508,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,116 +523,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{491800ED-136C-4C6F-81BD-5B446C080230}" name="Table1" displayName="Table1" ref="A1:CT25" totalsRowShown="0">
-  <autoFilter ref="A1:CT25" xr:uid="{491800ED-136C-4C6F-81BD-5B446C080230}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CT25">
-    <sortCondition ref="A1:A25"/>
-  </sortState>
-  <tableColumns count="98">
-    <tableColumn id="1" xr3:uid="{21AEEB29-BDA5-4D69-998B-E5F17AA97435}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{EB7642B8-12D5-459E-BB02-343E9DD81FB7}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{4FDCCD1C-C92D-4125-9595-D849BA57B72E}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{1D990068-5A63-49C8-B64D-608A7A1DE3F1}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{0489859F-E0D2-4887-A146-EC18BB19222A}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{DFF5D922-61D2-40CF-86EB-A5C047BEA553}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{2891FEE6-B8F8-4EF5-9003-C29FDD6987BB}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{80127212-5369-4EBD-8979-7E81FFCD26C9}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{F3C01EEE-D059-4D14-9E81-DF44BC82D441}" name="Column9"/>
-    <tableColumn id="10" xr3:uid="{1E58AA18-56A1-4A74-A657-2E61819D35A7}" name="Column10"/>
-    <tableColumn id="11" xr3:uid="{7B47765C-D0FF-427D-9030-EB10D379649C}" name="Column11"/>
-    <tableColumn id="12" xr3:uid="{0706145A-581F-433F-B725-52101C15FD91}" name="Column12"/>
-    <tableColumn id="13" xr3:uid="{374243F0-7F6D-4017-8137-636472343138}" name="Column13"/>
-    <tableColumn id="14" xr3:uid="{21A310A6-F9E1-4EFC-9B4F-84B304E43CC3}" name="Column14"/>
-    <tableColumn id="15" xr3:uid="{29E06C67-3EE7-469E-973A-281A42A28CD4}" name="Column15"/>
-    <tableColumn id="16" xr3:uid="{9D1DADA7-A1E1-4703-A7E4-254A5A1E2B49}" name="Column16"/>
-    <tableColumn id="17" xr3:uid="{9104FB0A-0D5B-4DE9-9E5D-B698AD3CB8B4}" name="Column17"/>
-    <tableColumn id="18" xr3:uid="{BD2FB664-6FBA-4098-8632-775191C68D57}" name="Column18"/>
-    <tableColumn id="19" xr3:uid="{67A2F997-DAB4-4B94-8E1C-8FC8F1500F32}" name="Column19"/>
-    <tableColumn id="20" xr3:uid="{6A12922F-1001-47D2-9A59-FD66317B8E60}" name="Column20"/>
-    <tableColumn id="21" xr3:uid="{E277A88C-089A-44DD-BBF0-94A85AA63AED}" name="Column21"/>
-    <tableColumn id="22" xr3:uid="{F63C1F3C-DEA1-44C5-A29A-7B2A02A07A6E}" name="Column22"/>
-    <tableColumn id="23" xr3:uid="{A9B8BF1A-AA3B-4D9A-BCC3-71BD16DF32A2}" name="Column23"/>
-    <tableColumn id="24" xr3:uid="{A2CB1CC8-4EF8-47EC-9219-9F635F362E5C}" name="Column24"/>
-    <tableColumn id="25" xr3:uid="{EF3AFB60-3F26-46C0-A6FC-E204929CA573}" name="Column25"/>
-    <tableColumn id="26" xr3:uid="{C2FC79FA-6759-4BBE-ADA8-A21A41947336}" name="Column26"/>
-    <tableColumn id="27" xr3:uid="{EF8C62F5-1C14-403A-967E-C2C75C7A442F}" name="Column27"/>
-    <tableColumn id="28" xr3:uid="{F1A89360-9BA3-449C-9A73-B96C2BD62636}" name="Column28"/>
-    <tableColumn id="29" xr3:uid="{76E110F6-67B6-47D1-A699-DA771F3967F6}" name="Column29"/>
-    <tableColumn id="30" xr3:uid="{47D39FEE-5432-4969-AAAF-9A67C5457D03}" name="Column30"/>
-    <tableColumn id="31" xr3:uid="{FD043521-FA64-4804-AD1B-66626C8E75A7}" name="Column31"/>
-    <tableColumn id="32" xr3:uid="{BF621D94-ED8B-4E24-BC34-E9B3C5DB2500}" name="Column32"/>
-    <tableColumn id="33" xr3:uid="{3BC6B86A-C4F2-415B-AFA6-D3F964426527}" name="Column33"/>
-    <tableColumn id="34" xr3:uid="{C362D01A-AD5C-4DE9-BC53-D9AD0F91D821}" name="Column34"/>
-    <tableColumn id="35" xr3:uid="{91B7D847-02C2-4DD6-948B-4C70A8DC4C41}" name="Column35"/>
-    <tableColumn id="36" xr3:uid="{07069C2E-85C6-44A7-80C9-45675785CA66}" name="Column36"/>
-    <tableColumn id="37" xr3:uid="{4821272B-B433-4DA4-9165-DFFBCD8B0C34}" name="Column37"/>
-    <tableColumn id="38" xr3:uid="{4E6D9F5E-9537-4D42-BC94-AAF5702030D5}" name="Column38"/>
-    <tableColumn id="39" xr3:uid="{7135FE04-9400-4F14-B4DE-550F85822249}" name="Column39"/>
-    <tableColumn id="40" xr3:uid="{FA433858-CAEB-4BDF-AA18-A2EE8AA75A98}" name="Column40"/>
-    <tableColumn id="41" xr3:uid="{84A73598-9390-4EF5-A439-3F93F41ADCE7}" name="Column41"/>
-    <tableColumn id="42" xr3:uid="{D941485D-5023-4853-91F2-3636744ECAC9}" name="Column42"/>
-    <tableColumn id="43" xr3:uid="{75B01F9A-1FB7-4DB9-A86A-D72A83646AB4}" name="Column43"/>
-    <tableColumn id="44" xr3:uid="{8493971C-FBB4-49FA-86C5-8CE6A1876BBA}" name="Column44"/>
-    <tableColumn id="45" xr3:uid="{11E26502-51A0-4E13-96BF-030FD404C354}" name="Column45"/>
-    <tableColumn id="46" xr3:uid="{6D997943-B514-47FA-BE3A-B0C76F163390}" name="Column46"/>
-    <tableColumn id="47" xr3:uid="{E5FDF41A-01D8-41E1-AE6F-F098F1B21043}" name="Column47"/>
-    <tableColumn id="48" xr3:uid="{DA571E3C-305A-456B-B7BF-3D2B5DC20D05}" name="Column48"/>
-    <tableColumn id="49" xr3:uid="{3F06C0A9-DAE1-4831-B491-1E37F798FE9B}" name="Column49"/>
-    <tableColumn id="50" xr3:uid="{A5077DFB-EA16-49C2-B825-401DD80FEAC6}" name="Column50"/>
-    <tableColumn id="51" xr3:uid="{C9AD428B-43F5-4093-929E-509395705C55}" name="Column51"/>
-    <tableColumn id="52" xr3:uid="{5220F423-E2FD-41CC-B209-237C82858712}" name="Column52"/>
-    <tableColumn id="53" xr3:uid="{B0044826-90D8-4024-B7D3-8A826ACEE48D}" name="Column53"/>
-    <tableColumn id="54" xr3:uid="{0BD39225-8E85-44E6-8842-7AFACCDF8AD7}" name="Column54"/>
-    <tableColumn id="55" xr3:uid="{B138A699-AF44-46BE-B59D-EBAFE6CF5621}" name="Column55"/>
-    <tableColumn id="56" xr3:uid="{F71BC44F-5F81-48C9-B1CD-03B454C898B4}" name="Column56"/>
-    <tableColumn id="57" xr3:uid="{F4E0FE25-1CF8-4682-809A-033153E00511}" name="Column57"/>
-    <tableColumn id="58" xr3:uid="{BF1B8F9B-4484-4815-BA56-34805A376DF1}" name="Column58"/>
-    <tableColumn id="59" xr3:uid="{E204E8AE-C2EF-4D66-BEE0-10DEB1849237}" name="Column59"/>
-    <tableColumn id="60" xr3:uid="{5EF21063-5FFE-4C04-8208-D50615149C05}" name="Column60"/>
-    <tableColumn id="61" xr3:uid="{2113DBB5-051F-4AC7-9E09-C5FCA13B4EAA}" name="Column61"/>
-    <tableColumn id="62" xr3:uid="{27CC695C-C11D-44CA-B3C5-39B24E9E651E}" name="Column62"/>
-    <tableColumn id="63" xr3:uid="{C8FA1F1D-2710-46F8-9FF2-1A3C310DEB91}" name="Column63"/>
-    <tableColumn id="64" xr3:uid="{FA7CE605-91A4-4ED5-BCC1-FE317D80014D}" name="Column64"/>
-    <tableColumn id="65" xr3:uid="{9FAA8EE6-FEBB-4AF1-9521-932536125AAD}" name="Column65"/>
-    <tableColumn id="66" xr3:uid="{1297D5F9-885D-4DAB-A603-CAF04F69D6FA}" name="Column66"/>
-    <tableColumn id="67" xr3:uid="{FEB68CFA-15CA-41F8-9C8F-96C8672C0292}" name="Column67"/>
-    <tableColumn id="68" xr3:uid="{FDA01E8C-C8FD-4B7A-A41E-D34021F8F4F7}" name="Column68"/>
-    <tableColumn id="69" xr3:uid="{ED1DCEC9-5B9E-4B46-9672-AD7B9EE64F7E}" name="Column69"/>
-    <tableColumn id="70" xr3:uid="{13BC5C42-9E8C-4937-B1C5-9681929A6570}" name="Column70"/>
-    <tableColumn id="71" xr3:uid="{B89850B8-8BA6-42CB-8354-9B77205A8517}" name="Column71"/>
-    <tableColumn id="72" xr3:uid="{31882515-7A79-4BE7-B1BC-537FBFDB9755}" name="Column72"/>
-    <tableColumn id="73" xr3:uid="{388271C0-23B0-462C-86D1-4F98B2E7985E}" name="Column73"/>
-    <tableColumn id="74" xr3:uid="{938910EC-3542-4B5F-B58D-6976CFBF0B9E}" name="Column74"/>
-    <tableColumn id="75" xr3:uid="{C42E495C-3102-4A19-A8B3-9555886B8C81}" name="Column75"/>
-    <tableColumn id="76" xr3:uid="{BDBDA667-AB81-406D-80A1-7A09365A6515}" name="Column76"/>
-    <tableColumn id="77" xr3:uid="{D9B8D684-F263-47E9-81CE-9C3941D7E8FD}" name="Column77"/>
-    <tableColumn id="78" xr3:uid="{C5A5D502-5FB4-4332-B842-E670C154319C}" name="Column78"/>
-    <tableColumn id="79" xr3:uid="{0A2F93EC-BCAA-4DD8-89AA-3275BD23B472}" name="Column79"/>
-    <tableColumn id="80" xr3:uid="{F792A2D2-E27D-44BC-85E7-B02C668CFE8A}" name="Column80"/>
-    <tableColumn id="81" xr3:uid="{4AF3B053-9ECA-4AFD-A641-0302982EF5F9}" name="Column81"/>
-    <tableColumn id="82" xr3:uid="{7FFBB5F3-D681-4B27-A402-AFEC47FA730A}" name="Column82"/>
-    <tableColumn id="83" xr3:uid="{D03D92AE-C6FC-41FF-92ED-79EE0DA3ED1E}" name="Column83"/>
-    <tableColumn id="84" xr3:uid="{884043BD-0EDA-4D50-811F-3156E0D6D8D8}" name="Column84"/>
-    <tableColumn id="85" xr3:uid="{B68E708C-2C5D-48CE-A431-E76FE46D4884}" name="Column85"/>
-    <tableColumn id="86" xr3:uid="{F5C69027-98B6-47AB-9511-ACFFDC03791E}" name="Column86"/>
-    <tableColumn id="87" xr3:uid="{E30AB945-1316-494F-995D-194F010F4CBB}" name="Column87"/>
-    <tableColumn id="88" xr3:uid="{5D9F7E46-E210-4F60-8BAD-9E73E68B4964}" name="Column88"/>
-    <tableColumn id="89" xr3:uid="{01F986BA-0175-464A-973B-D19D376A5FBA}" name="Column89"/>
-    <tableColumn id="90" xr3:uid="{D4C27C17-68DE-4E75-9753-E61A8C722D79}" name="Column90"/>
-    <tableColumn id="91" xr3:uid="{93ACE365-9945-4429-BAB8-E49D8E97EDDA}" name="Column91"/>
-    <tableColumn id="92" xr3:uid="{42E5A0DC-F996-4672-A261-C60ABCE52299}" name="Column92"/>
-    <tableColumn id="93" xr3:uid="{96320C34-E21C-4907-A5ED-A8654BAD65E8}" name="Column93"/>
-    <tableColumn id="94" xr3:uid="{7CF7E589-C3FB-4CDD-BC76-6573C40C4D00}" name="Column94"/>
-    <tableColumn id="95" xr3:uid="{94926D7C-0F92-46F5-87F0-EFEA4FC66388}" name="Column95"/>
-    <tableColumn id="96" xr3:uid="{AC7F97F3-46E3-4422-B7EA-5B36ADEE037F}" name="Column96"/>
-    <tableColumn id="97" xr3:uid="{CEE636F3-9CF6-4430-AB30-0FAF7821CB08}" name="Column97"/>
-    <tableColumn id="98" xr3:uid="{D367734C-A625-421F-8D44-4251791B157A}" name="Column98"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1232,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DG250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BR47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CH67" sqref="CH67"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37183,8378 +36741,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C7D223-48AD-4320-882E-CF385D3B6125}">
-  <dimension ref="A1:CT25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:CT25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="9" width="11" customWidth="1"/>
-    <col min="10" max="98" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R1" t="s">
-        <v>127</v>
-      </c>
-      <c r="S1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T1" t="s">
-        <v>129</v>
-      </c>
-      <c r="U1" t="s">
-        <v>130</v>
-      </c>
-      <c r="V1" t="s">
-        <v>131</v>
-      </c>
-      <c r="W1" t="s">
-        <v>132</v>
-      </c>
-      <c r="X1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>174</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>175</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>177</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>183</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>185</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>186</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>187</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>188</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>189</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>190</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>191</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>192</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>193</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>194</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>195</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>196</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>197</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>198</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>200</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>201</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>202</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>203</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>204</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>205</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>206</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>8.6104326054658703E-2</v>
-      </c>
-      <c r="C2">
-        <v>8.6412926020392494E-2</v>
-      </c>
-      <c r="D2">
-        <v>8.7493954340073204E-2</v>
-      </c>
-      <c r="E2">
-        <v>8.6741461248082505E-2</v>
-      </c>
-      <c r="F2">
-        <v>8.9221327026112393E-2</v>
-      </c>
-      <c r="G2">
-        <v>8.9184989965323494E-2</v>
-      </c>
-      <c r="H2">
-        <v>9.01452130414898E-2</v>
-      </c>
-      <c r="I2">
-        <v>9.0571043335218704E-2</v>
-      </c>
-      <c r="J2">
-        <v>9.19484467002738E-2</v>
-      </c>
-      <c r="K2">
-        <v>9.3689285601226094E-2</v>
-      </c>
-      <c r="L2">
-        <v>9.6867041347386898E-2</v>
-      </c>
-      <c r="M2">
-        <v>0.100324388550491</v>
-      </c>
-      <c r="N2">
-        <v>0.105911474119746</v>
-      </c>
-      <c r="O2">
-        <v>0.110784134094684</v>
-      </c>
-      <c r="P2">
-        <v>0.12171795942870101</v>
-      </c>
-      <c r="Q2">
-        <v>0.13096713020002301</v>
-      </c>
-      <c r="R2">
-        <v>0.145279072776172</v>
-      </c>
-      <c r="S2">
-        <v>0.16201702435412199</v>
-      </c>
-      <c r="T2">
-        <v>0.18310086426226199</v>
-      </c>
-      <c r="U2">
-        <v>0.212339527508139</v>
-      </c>
-      <c r="V2">
-        <v>0.250364421181135</v>
-      </c>
-      <c r="W2">
-        <v>0.291938546303668</v>
-      </c>
-      <c r="X2">
-        <v>0.32897792656767499</v>
-      </c>
-      <c r="Y2">
-        <v>0.37063643348492797</v>
-      </c>
-      <c r="Z2">
-        <v>0.43080127551348502</v>
-      </c>
-      <c r="AA2">
-        <v>0.49590472718515999</v>
-      </c>
-      <c r="AB2">
-        <v>0.57748960213693801</v>
-      </c>
-      <c r="AC2">
-        <v>0.61464961114587002</v>
-      </c>
-      <c r="AD2">
-        <v>0.62598740927507701</v>
-      </c>
-      <c r="AE2">
-        <v>0.61776655618221599</v>
-      </c>
-      <c r="AF2">
-        <v>0.63409656434105599</v>
-      </c>
-      <c r="AG2">
-        <v>0.64151907793204199</v>
-      </c>
-      <c r="AH2">
-        <v>0.64346412626362104</v>
-      </c>
-      <c r="AI2">
-        <v>0.65763277511419505</v>
-      </c>
-      <c r="AJ2">
-        <v>0.65548579679705399</v>
-      </c>
-      <c r="AK2">
-        <v>0.66416021052170404</v>
-      </c>
-      <c r="AL2">
-        <v>0.66664231046478895</v>
-      </c>
-      <c r="AM2">
-        <v>0.66397671051597296</v>
-      </c>
-      <c r="AN2">
-        <v>0.67147450778249196</v>
-      </c>
-      <c r="AO2">
-        <v>0.67057632977258197</v>
-      </c>
-      <c r="AP2">
-        <v>0.66567100614594499</v>
-      </c>
-      <c r="AQ2">
-        <v>0.67478888258851399</v>
-      </c>
-      <c r="AR2">
-        <v>0.66330299974265206</v>
-      </c>
-      <c r="AS2">
-        <v>0.67255820039518199</v>
-      </c>
-      <c r="AT2">
-        <v>0.67128115604957395</v>
-      </c>
-      <c r="AU2">
-        <v>0.67008663819543202</v>
-      </c>
-      <c r="AV2">
-        <v>0.66703978517223494</v>
-      </c>
-      <c r="AW2">
-        <v>0.666199534409747</v>
-      </c>
-      <c r="AX2">
-        <v>0.66188348965645305</v>
-      </c>
-      <c r="AY2">
-        <v>0.67020508771620801</v>
-      </c>
-      <c r="AZ2">
-        <v>0.66129001554728295</v>
-      </c>
-      <c r="BA2">
-        <v>0.67022034442260303</v>
-      </c>
-      <c r="BB2">
-        <v>0.66869316316530403</v>
-      </c>
-      <c r="BC2">
-        <v>0.66119622900199704</v>
-      </c>
-      <c r="BD2">
-        <v>0.66232082625483402</v>
-      </c>
-      <c r="BE2">
-        <v>0.66213328785536096</v>
-      </c>
-      <c r="BF2">
-        <v>0.65843991300608695</v>
-      </c>
-      <c r="BG2">
-        <v>0.65771537454069795</v>
-      </c>
-      <c r="BH2">
-        <v>0.65578909967505505</v>
-      </c>
-      <c r="BI2">
-        <v>0.65754598584690505</v>
-      </c>
-      <c r="BJ2">
-        <v>0.66460011882252201</v>
-      </c>
-      <c r="BK2">
-        <v>0.65591734723380002</v>
-      </c>
-      <c r="BL2">
-        <v>0.66221040200493497</v>
-      </c>
-      <c r="BM2">
-        <v>0.65560092524874602</v>
-      </c>
-      <c r="BN2">
-        <v>0.66216331748536295</v>
-      </c>
-      <c r="BO2">
-        <v>0.65917376608380296</v>
-      </c>
-      <c r="BP2">
-        <v>0.65923425284891302</v>
-      </c>
-      <c r="BQ2">
-        <v>0.657252039305674</v>
-      </c>
-      <c r="BR2">
-        <v>0.65245549530575497</v>
-      </c>
-      <c r="BS2">
-        <v>0.66364881706510204</v>
-      </c>
-      <c r="BT2">
-        <v>0.65153278605371001</v>
-      </c>
-      <c r="BU2">
-        <v>0.65403537023267599</v>
-      </c>
-      <c r="BV2">
-        <v>0.64819319185498103</v>
-      </c>
-      <c r="BW2">
-        <v>0.65285699858940305</v>
-      </c>
-      <c r="BX2">
-        <v>0.65300347643616197</v>
-      </c>
-      <c r="BY2">
-        <v>0.654563490208107</v>
-      </c>
-      <c r="BZ2">
-        <v>0.65594519404754403</v>
-      </c>
-      <c r="CA2">
-        <v>0.65163353721905903</v>
-      </c>
-      <c r="CB2">
-        <v>0.65388909221624703</v>
-      </c>
-      <c r="CC2">
-        <v>0.65724707525412096</v>
-      </c>
-      <c r="CD2">
-        <v>0.64614168362208502</v>
-      </c>
-      <c r="CE2">
-        <v>0.65218305550550304</v>
-      </c>
-      <c r="CF2">
-        <v>0.65039188744641496</v>
-      </c>
-      <c r="CG2">
-        <v>0.65395119675159796</v>
-      </c>
-      <c r="CH2">
-        <v>0.65064211157070695</v>
-      </c>
-      <c r="CI2">
-        <v>0.65585337204827698</v>
-      </c>
-      <c r="CJ2">
-        <v>0.651021794420092</v>
-      </c>
-      <c r="CK2">
-        <v>0.65280471587018396</v>
-      </c>
-      <c r="CL2">
-        <v>0.64935929065902498</v>
-      </c>
-      <c r="CM2">
-        <v>0.657045605994938</v>
-      </c>
-      <c r="CN2">
-        <v>0.65202281348167601</v>
-      </c>
-      <c r="CO2">
-        <v>0.65236559924416004</v>
-      </c>
-      <c r="CP2">
-        <v>0.65526610646434003</v>
-      </c>
-      <c r="CQ2">
-        <v>0.65799478366957398</v>
-      </c>
-      <c r="CR2">
-        <v>0.65212254819073601</v>
-      </c>
-      <c r="CS2">
-        <v>0.65307677303600897</v>
-      </c>
-      <c r="CT2">
-        <v>0.64668045115731798</v>
-      </c>
-    </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>8.619999885559082E-2</v>
-      </c>
-      <c r="C3">
-        <v>8.6300000548362732E-2</v>
-      </c>
-      <c r="D3">
-        <v>8.7300002574920654E-2</v>
-      </c>
-      <c r="E3">
-        <v>8.7499998509883881E-2</v>
-      </c>
-      <c r="F3">
-        <v>8.8500000536441803E-2</v>
-      </c>
-      <c r="G3">
-        <v>8.8699996471405029E-2</v>
-      </c>
-      <c r="H3">
-        <v>8.9299999177455902E-2</v>
-      </c>
-      <c r="I3">
-        <v>9.0300001204013824E-2</v>
-      </c>
-      <c r="J3">
-        <v>9.1899998486042023E-2</v>
-      </c>
-      <c r="K3">
-        <v>9.3800000846385956E-2</v>
-      </c>
-      <c r="L3">
-        <v>9.6900001168251038E-2</v>
-      </c>
-      <c r="M3">
-        <v>0.10050000250339508</v>
-      </c>
-      <c r="N3">
-        <v>0.10530000180006027</v>
-      </c>
-      <c r="O3">
-        <v>0.11180000007152557</v>
-      </c>
-      <c r="P3">
-        <v>0.12080000340938568</v>
-      </c>
-      <c r="Q3">
-        <v>0.13160000741481781</v>
-      </c>
-      <c r="R3">
-        <v>0.14540000259876251</v>
-      </c>
-      <c r="S3">
-        <v>0.16189999878406525</v>
-      </c>
-      <c r="T3">
-        <v>0.18410000205039978</v>
-      </c>
-      <c r="U3">
-        <v>0.21170000731945038</v>
-      </c>
-      <c r="V3">
-        <v>0.25049999356269836</v>
-      </c>
-      <c r="W3">
-        <v>0.28960001468658447</v>
-      </c>
-      <c r="X3">
-        <v>0.3262999951839447</v>
-      </c>
-      <c r="Y3">
-        <v>0.37119999527931213</v>
-      </c>
-      <c r="Z3">
-        <v>0.43450000882148743</v>
-      </c>
-      <c r="AA3">
-        <v>0.49619999527931213</v>
-      </c>
-      <c r="AB3">
-        <v>0.58179998397827148</v>
-      </c>
-      <c r="AC3">
-        <v>0.61549997329711914</v>
-      </c>
-      <c r="AD3">
-        <v>0.62000000476837158</v>
-      </c>
-      <c r="AE3">
-        <v>0.62389999628067017</v>
-      </c>
-      <c r="AF3">
-        <v>0.63080000877380371</v>
-      </c>
-      <c r="AG3">
-        <v>0.63840001821517944</v>
-      </c>
-      <c r="AH3">
-        <v>0.6470000147819519</v>
-      </c>
-      <c r="AI3">
-        <v>0.65380001068115234</v>
-      </c>
-      <c r="AJ3">
-        <v>0.65960001945495605</v>
-      </c>
-      <c r="AK3">
-        <v>0.66119998693466187</v>
-      </c>
-      <c r="AL3">
-        <v>0.66610002517700195</v>
-      </c>
-      <c r="AM3">
-        <v>0.66699999570846558</v>
-      </c>
-      <c r="AN3">
-        <v>0.66829997301101685</v>
-      </c>
-      <c r="AO3">
-        <v>0.66769999265670776</v>
-      </c>
-      <c r="AP3">
-        <v>0.66710001230239868</v>
-      </c>
-      <c r="AQ3">
-        <v>0.66850000619888306</v>
-      </c>
-      <c r="AR3">
-        <v>0.66759997606277466</v>
-      </c>
-      <c r="AS3">
-        <v>0.66850000619888306</v>
-      </c>
-      <c r="AT3">
-        <v>0.66769999265670776</v>
-      </c>
-      <c r="AU3">
-        <v>0.66820001602172852</v>
-      </c>
-      <c r="AV3">
-        <v>0.66960000991821289</v>
-      </c>
-      <c r="AW3">
-        <v>0.66699999570846558</v>
-      </c>
-      <c r="AX3">
-        <v>0.66729998588562012</v>
-      </c>
-      <c r="AY3">
-        <v>0.66619998216629028</v>
-      </c>
-      <c r="AZ3">
-        <v>0.66460001468658447</v>
-      </c>
-      <c r="BA3">
-        <v>0.66600000858306885</v>
-      </c>
-      <c r="BB3">
-        <v>0.66399997472763062</v>
-      </c>
-      <c r="BC3">
-        <v>0.66439998149871826</v>
-      </c>
-      <c r="BD3">
-        <v>0.66299998760223389</v>
-      </c>
-      <c r="BE3">
-        <v>0.66280001401901245</v>
-      </c>
-      <c r="BF3">
-        <v>0.66310000419616699</v>
-      </c>
-      <c r="BG3">
-        <v>0.6624000072479248</v>
-      </c>
-      <c r="BH3">
-        <v>0.6624000072479248</v>
-      </c>
-      <c r="BI3">
-        <v>0.66140002012252808</v>
-      </c>
-      <c r="BJ3">
-        <v>0.66019999980926514</v>
-      </c>
-      <c r="BK3">
-        <v>0.66060000658035278</v>
-      </c>
-      <c r="BL3">
-        <v>0.65960001945495605</v>
-      </c>
-      <c r="BM3">
-        <v>0.65979999303817749</v>
-      </c>
-      <c r="BN3">
-        <v>0.66049998998641968</v>
-      </c>
-      <c r="BO3">
-        <v>0.66049998998641968</v>
-      </c>
-      <c r="BP3">
-        <v>0.65810000896453857</v>
-      </c>
-      <c r="BQ3">
-        <v>0.65820002555847168</v>
-      </c>
-      <c r="BR3">
-        <v>0.6589999794960022</v>
-      </c>
-      <c r="BS3">
-        <v>0.65740001201629639</v>
-      </c>
-      <c r="BT3">
-        <v>0.65679997205734253</v>
-      </c>
-      <c r="BU3">
-        <v>0.65619999170303345</v>
-      </c>
-      <c r="BV3">
-        <v>0.65439999103546143</v>
-      </c>
-      <c r="BW3">
-        <v>0.65200001001358032</v>
-      </c>
-      <c r="BX3">
-        <v>0.65240001678466797</v>
-      </c>
-      <c r="BY3">
-        <v>0.65420001745223999</v>
-      </c>
-      <c r="BZ3">
-        <v>0.6534000039100647</v>
-      </c>
-      <c r="CA3">
-        <v>0.65219998359680176</v>
-      </c>
-      <c r="CB3">
-        <v>0.65119999647140503</v>
-      </c>
-      <c r="CC3">
-        <v>0.65079998970031738</v>
-      </c>
-      <c r="CD3">
-        <v>0.65140002965927124</v>
-      </c>
-      <c r="CE3">
-        <v>0.65160000324249268</v>
-      </c>
-      <c r="CF3">
-        <v>0.65230000019073486</v>
-      </c>
-      <c r="CG3">
-        <v>0.65090000629425049</v>
-      </c>
-      <c r="CH3">
-        <v>0.6502000093460083</v>
-      </c>
-      <c r="CI3">
-        <v>0.65240001678466797</v>
-      </c>
-      <c r="CJ3">
-        <v>0.65329998731613159</v>
-      </c>
-      <c r="CK3">
-        <v>0.65109997987747192</v>
-      </c>
-      <c r="CL3">
-        <v>0.6534000039100647</v>
-      </c>
-      <c r="CM3">
-        <v>0.6524999737739563</v>
-      </c>
-      <c r="CN3">
-        <v>0.65280002355575562</v>
-      </c>
-      <c r="CO3">
-        <v>0.65230000019073486</v>
-      </c>
-      <c r="CP3">
-        <v>0.65170001983642578</v>
-      </c>
-      <c r="CQ3">
-        <v>0.6525999903678894</v>
-      </c>
-      <c r="CR3">
-        <v>0.65130001306533813</v>
-      </c>
-      <c r="CS3">
-        <v>0.65149998664855957</v>
-      </c>
-      <c r="CT3">
-        <v>0.64999997615814209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>8.7300002574920654E-2</v>
-      </c>
-      <c r="C4">
-        <v>8.6900003254413605E-2</v>
-      </c>
-      <c r="D4">
-        <v>8.6999997496604919E-2</v>
-      </c>
-      <c r="E4">
-        <v>8.7300002574920654E-2</v>
-      </c>
-      <c r="F4">
-        <v>8.7700001895427704E-2</v>
-      </c>
-      <c r="G4">
-        <v>8.8500000536441803E-2</v>
-      </c>
-      <c r="H4">
-        <v>8.9000001549720764E-2</v>
-      </c>
-      <c r="I4">
-        <v>9.0300001204013824E-2</v>
-      </c>
-      <c r="J4">
-        <v>9.1600000858306885E-2</v>
-      </c>
-      <c r="K4">
-        <v>9.3400001525878906E-2</v>
-      </c>
-      <c r="L4">
-        <v>9.6100002527236938E-2</v>
-      </c>
-      <c r="M4">
-        <v>9.9299997091293335E-2</v>
-      </c>
-      <c r="N4">
-        <v>0.10419999808073044</v>
-      </c>
-      <c r="O4">
-        <v>0.11050000041723251</v>
-      </c>
-      <c r="P4">
-        <v>0.11900000274181366</v>
-      </c>
-      <c r="Q4">
-        <v>0.12989999353885651</v>
-      </c>
-      <c r="R4">
-        <v>0.14429999887943268</v>
-      </c>
-      <c r="S4">
-        <v>0.16019999980926514</v>
-      </c>
-      <c r="T4">
-        <v>0.18170000612735748</v>
-      </c>
-      <c r="U4">
-        <v>0.21189999580383301</v>
-      </c>
-      <c r="V4">
-        <v>0.24740000069141388</v>
-      </c>
-      <c r="W4">
-        <v>0.29129999876022339</v>
-      </c>
-      <c r="X4">
-        <v>0.33210000395774841</v>
-      </c>
-      <c r="Y4">
-        <v>0.38060000538825989</v>
-      </c>
-      <c r="Z4">
-        <v>0.43720000982284546</v>
-      </c>
-      <c r="AA4">
-        <v>0.50120002031326294</v>
-      </c>
-      <c r="AB4">
-        <v>0.57450002431869507</v>
-      </c>
-      <c r="AC4">
-        <v>0.64590001106262207</v>
-      </c>
-      <c r="AD4">
-        <v>0.66640001535415649</v>
-      </c>
-      <c r="AE4">
-        <v>0.66729998588562012</v>
-      </c>
-      <c r="AF4">
-        <v>0.67299997806549072</v>
-      </c>
-      <c r="AG4">
-        <v>0.67849999666213989</v>
-      </c>
-      <c r="AH4">
-        <v>0.68300002813339233</v>
-      </c>
-      <c r="AI4">
-        <v>0.68760001659393311</v>
-      </c>
-      <c r="AJ4">
-        <v>0.69019997119903564</v>
-      </c>
-      <c r="AK4">
-        <v>0.6930999755859375</v>
-      </c>
-      <c r="AL4">
-        <v>0.69590002298355103</v>
-      </c>
-      <c r="AM4">
-        <v>0.69569998979568481</v>
-      </c>
-      <c r="AN4">
-        <v>0.69929999113082886</v>
-      </c>
-      <c r="AO4">
-        <v>0.70090001821517944</v>
-      </c>
-      <c r="AP4">
-        <v>0.70349997282028198</v>
-      </c>
-      <c r="AQ4">
-        <v>0.70349997282028198</v>
-      </c>
-      <c r="AR4">
-        <v>0.70630002021789551</v>
-      </c>
-      <c r="AS4">
-        <v>0.70599997043609619</v>
-      </c>
-      <c r="AT4">
-        <v>0.7062000036239624</v>
-      </c>
-      <c r="AU4">
-        <v>0.70749998092651367</v>
-      </c>
-      <c r="AV4">
-        <v>0.70810002088546753</v>
-      </c>
-      <c r="AW4">
-        <v>0.70730000734329224</v>
-      </c>
-      <c r="AX4">
-        <v>0.70910000801086426</v>
-      </c>
-      <c r="AY4">
-        <v>0.70910000801086426</v>
-      </c>
-      <c r="AZ4">
-        <v>0.70889997482299805</v>
-      </c>
-      <c r="BA4">
-        <v>0.71060001850128174</v>
-      </c>
-      <c r="BB4">
-        <v>0.71119999885559082</v>
-      </c>
-      <c r="BC4">
-        <v>0.71139997243881226</v>
-      </c>
-      <c r="BD4">
-        <v>0.70880001783370972</v>
-      </c>
-      <c r="BE4">
-        <v>0.70999997854232788</v>
-      </c>
-      <c r="BF4">
-        <v>0.7093999981880188</v>
-      </c>
-      <c r="BG4">
-        <v>0.71050000190734863</v>
-      </c>
-      <c r="BH4">
-        <v>0.70880001783370972</v>
-      </c>
-      <c r="BI4">
-        <v>0.71060001850128174</v>
-      </c>
-      <c r="BJ4">
-        <v>0.70899999141693115</v>
-      </c>
-      <c r="BK4">
-        <v>0.7093999981880188</v>
-      </c>
-      <c r="BL4">
-        <v>0.71009999513626099</v>
-      </c>
-      <c r="BM4">
-        <v>0.71050000190734863</v>
-      </c>
-      <c r="BN4">
-        <v>0.70990002155303955</v>
-      </c>
-      <c r="BO4">
-        <v>0.70829999446868896</v>
-      </c>
-      <c r="BP4">
-        <v>0.70859998464584351</v>
-      </c>
-      <c r="BQ4">
-        <v>0.70770001411437988</v>
-      </c>
-      <c r="BR4">
-        <v>0.7093999981880188</v>
-      </c>
-      <c r="BS4">
-        <v>0.70779997110366821</v>
-      </c>
-      <c r="BT4">
-        <v>0.70840001106262207</v>
-      </c>
-      <c r="BU4">
-        <v>0.71009999513626099</v>
-      </c>
-      <c r="BV4">
-        <v>0.70440000295639038</v>
-      </c>
-      <c r="BW4">
-        <v>0.70690000057220459</v>
-      </c>
-      <c r="BX4">
-        <v>0.70730000734329224</v>
-      </c>
-      <c r="BY4">
-        <v>0.70590001344680786</v>
-      </c>
-      <c r="BZ4">
-        <v>0.70719999074935913</v>
-      </c>
-      <c r="CA4">
-        <v>0.70560002326965332</v>
-      </c>
-      <c r="CB4">
-        <v>0.70630002021789551</v>
-      </c>
-      <c r="CC4">
-        <v>0.70520001649856567</v>
-      </c>
-      <c r="CD4">
-        <v>0.70539999008178711</v>
-      </c>
-      <c r="CE4">
-        <v>0.70410001277923584</v>
-      </c>
-      <c r="CF4">
-        <v>0.70509999990463257</v>
-      </c>
-      <c r="CG4">
-        <v>0.70179998874664307</v>
-      </c>
-      <c r="CH4">
-        <v>0.70209997892379761</v>
-      </c>
-      <c r="CI4">
-        <v>0.70080000162124634</v>
-      </c>
-      <c r="CJ4">
-        <v>0.70069998502731323</v>
-      </c>
-      <c r="CK4">
-        <v>0.69889998435974121</v>
-      </c>
-      <c r="CL4">
-        <v>0.69819998741149902</v>
-      </c>
-      <c r="CM4">
-        <v>0.69660001993179321</v>
-      </c>
-      <c r="CN4">
-        <v>0.696399986743927</v>
-      </c>
-      <c r="CO4">
-        <v>0.69480001926422119</v>
-      </c>
-      <c r="CP4">
-        <v>0.69349998235702515</v>
-      </c>
-      <c r="CQ4">
-        <v>0.69220000505447388</v>
-      </c>
-      <c r="CR4">
-        <v>0.6930999755859375</v>
-      </c>
-      <c r="CS4">
-        <v>0.6908000111579895</v>
-      </c>
-      <c r="CT4">
-        <v>0.6898999810218811</v>
-      </c>
-    </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>8.82839519559592E-2</v>
-      </c>
-      <c r="C5">
-        <v>8.7310669017710493E-2</v>
-      </c>
-      <c r="D5">
-        <v>8.7397228650451395E-2</v>
-      </c>
-      <c r="E5">
-        <v>8.7295458386105307E-2</v>
-      </c>
-      <c r="F5">
-        <v>8.6735370372639106E-2</v>
-      </c>
-      <c r="G5">
-        <v>8.8002775375697798E-2</v>
-      </c>
-      <c r="H5">
-        <v>8.8340155988715405E-2</v>
-      </c>
-      <c r="I5">
-        <v>8.85941191619809E-2</v>
-      </c>
-      <c r="J5">
-        <v>8.8704853352321894E-2</v>
-      </c>
-      <c r="K5">
-        <v>8.9810370312413207E-2</v>
-      </c>
-      <c r="L5">
-        <v>9.0380409986574206E-2</v>
-      </c>
-      <c r="M5">
-        <v>9.2778377582295499E-2</v>
-      </c>
-      <c r="N5">
-        <v>9.3806942312546604E-2</v>
-      </c>
-      <c r="O5">
-        <v>9.6950993311244807E-2</v>
-      </c>
-      <c r="P5">
-        <v>9.7917133726512395E-2</v>
-      </c>
-      <c r="Q5">
-        <v>0.10151283915595601</v>
-      </c>
-      <c r="R5">
-        <v>0.10464951269472</v>
-      </c>
-      <c r="S5">
-        <v>0.108098831176798</v>
-      </c>
-      <c r="T5">
-        <v>0.114818783822877</v>
-      </c>
-      <c r="U5">
-        <v>0.119103230099317</v>
-      </c>
-      <c r="V5">
-        <v>0.127744284974666</v>
-      </c>
-      <c r="W5">
-        <v>0.136793547419578</v>
-      </c>
-      <c r="X5">
-        <v>0.14753972742416199</v>
-      </c>
-      <c r="Y5">
-        <v>0.16107390761288401</v>
-      </c>
-      <c r="Z5">
-        <v>0.17671142141778701</v>
-      </c>
-      <c r="AA5">
-        <v>0.19322607578464601</v>
-      </c>
-      <c r="AB5">
-        <v>0.21471848671778199</v>
-      </c>
-      <c r="AC5">
-        <v>0.23135097764877</v>
-      </c>
-      <c r="AD5">
-        <v>0.24911615009719201</v>
-      </c>
-      <c r="AE5">
-        <v>0.25732137925839799</v>
-      </c>
-      <c r="AF5">
-        <v>0.26821499255396303</v>
-      </c>
-      <c r="AG5">
-        <v>0.28393208856163499</v>
-      </c>
-      <c r="AH5">
-        <v>0.293286432921259</v>
-      </c>
-      <c r="AI5">
-        <v>0.30900193378016499</v>
-      </c>
-      <c r="AJ5">
-        <v>0.321245060889087</v>
-      </c>
-      <c r="AK5">
-        <v>0.33339338735708202</v>
-      </c>
-      <c r="AL5">
-        <v>0.35105941172203498</v>
-      </c>
-      <c r="AM5">
-        <v>0.365524992107223</v>
-      </c>
-      <c r="AN5">
-        <v>0.386171738425508</v>
-      </c>
-      <c r="AO5">
-        <v>0.39830611752220602</v>
-      </c>
-      <c r="AP5">
-        <v>0.41495185018079001</v>
-      </c>
-      <c r="AQ5">
-        <v>0.43061702726690698</v>
-      </c>
-      <c r="AR5">
-        <v>0.43526426021433201</v>
-      </c>
-      <c r="AS5">
-        <v>0.45502212066846298</v>
-      </c>
-      <c r="AT5">
-        <v>0.45567122934784499</v>
-      </c>
-      <c r="AU5">
-        <v>0.46985300780407402</v>
-      </c>
-      <c r="AV5">
-        <v>0.47555072925275499</v>
-      </c>
-      <c r="AW5">
-        <v>0.48333116687182898</v>
-      </c>
-      <c r="AX5">
-        <v>0.49957766993094599</v>
-      </c>
-      <c r="AY5">
-        <v>0.50252432183775797</v>
-      </c>
-      <c r="AZ5">
-        <v>0.51160681885159298</v>
-      </c>
-      <c r="BA5">
-        <v>0.51500024191346705</v>
-      </c>
-      <c r="BB5">
-        <v>0.51382613493873097</v>
-      </c>
-      <c r="BC5">
-        <v>0.51955338599791401</v>
-      </c>
-      <c r="BD5">
-        <v>0.52500147565012401</v>
-      </c>
-      <c r="BE5">
-        <v>0.52748463649014099</v>
-      </c>
-      <c r="BF5">
-        <v>0.52676643603659301</v>
-      </c>
-      <c r="BG5">
-        <v>0.52967626390359801</v>
-      </c>
-      <c r="BH5">
-        <v>0.52978127679762399</v>
-      </c>
-      <c r="BI5">
-        <v>0.52456323730061605</v>
-      </c>
-      <c r="BJ5">
-        <v>0.52091687545433896</v>
-      </c>
-      <c r="BK5">
-        <v>0.52121817597253295</v>
-      </c>
-      <c r="BL5">
-        <v>0.52510424831706903</v>
-      </c>
-      <c r="BM5">
-        <v>0.51896993777344202</v>
-      </c>
-      <c r="BN5">
-        <v>0.52198670380007495</v>
-      </c>
-      <c r="BO5">
-        <v>0.52060295953761404</v>
-      </c>
-      <c r="BP5">
-        <v>0.512926686976099</v>
-      </c>
-      <c r="BQ5">
-        <v>0.51177663140364005</v>
-      </c>
-      <c r="BR5">
-        <v>0.520275720717568</v>
-      </c>
-      <c r="BS5">
-        <v>0.52044965970238799</v>
-      </c>
-      <c r="BT5">
-        <v>0.51706081638066603</v>
-      </c>
-      <c r="BU5">
-        <v>0.51145062612059999</v>
-      </c>
-      <c r="BV5">
-        <v>0.51183415473353799</v>
-      </c>
-      <c r="BW5">
-        <v>0.51675552013651405</v>
-      </c>
-      <c r="BX5">
-        <v>0.51211054600206296</v>
-      </c>
-      <c r="BY5">
-        <v>0.51515989518288596</v>
-      </c>
-      <c r="BZ5">
-        <v>0.51234654073033903</v>
-      </c>
-      <c r="CA5">
-        <v>0.50872884573303101</v>
-      </c>
-      <c r="CB5">
-        <v>0.51020732783337497</v>
-      </c>
-      <c r="CC5">
-        <v>0.51488164900776101</v>
-      </c>
-      <c r="CD5">
-        <v>0.50997954439464899</v>
-      </c>
-      <c r="CE5">
-        <v>0.50827849692565796</v>
-      </c>
-      <c r="CF5">
-        <v>0.51128087887279206</v>
-      </c>
-      <c r="CG5">
-        <v>0.51098958426755303</v>
-      </c>
-      <c r="CH5">
-        <v>0.51063103737936899</v>
-      </c>
-      <c r="CI5">
-        <v>0.51253464036243601</v>
-      </c>
-      <c r="CJ5">
-        <v>0.516127095687269</v>
-      </c>
-      <c r="CK5">
-        <v>0.51268713273500899</v>
-      </c>
-      <c r="CL5">
-        <v>0.512094632066176</v>
-      </c>
-      <c r="CM5">
-        <v>0.51355813846645304</v>
-      </c>
-      <c r="CN5">
-        <v>0.51059459130403695</v>
-      </c>
-      <c r="CO5">
-        <v>0.51674486402937303</v>
-      </c>
-      <c r="CP5">
-        <v>0.51394285550456598</v>
-      </c>
-      <c r="CQ5">
-        <v>0.51309257315571</v>
-      </c>
-      <c r="CR5">
-        <v>0.51475955431933196</v>
-      </c>
-      <c r="CS5">
-        <v>0.52151380492744104</v>
-      </c>
-      <c r="CT5">
-        <v>0.51659291375156102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>8.7999999523162842E-2</v>
-      </c>
-      <c r="C6">
-        <v>8.6999997496604919E-2</v>
-      </c>
-      <c r="D6">
-        <v>8.6900003254413605E-2</v>
-      </c>
-      <c r="E6">
-        <v>8.6900003254413605E-2</v>
-      </c>
-      <c r="F6">
-        <v>8.7399996817111969E-2</v>
-      </c>
-      <c r="G6">
-        <v>8.7600000202655792E-2</v>
-      </c>
-      <c r="H6">
-        <v>8.8100001215934753E-2</v>
-      </c>
-      <c r="I6">
-        <v>8.8500000536441803E-2</v>
-      </c>
-      <c r="J6">
-        <v>8.9100003242492676E-2</v>
-      </c>
-      <c r="K6">
-        <v>8.9299999177455902E-2</v>
-      </c>
-      <c r="L6">
-        <v>9.0800002217292786E-2</v>
-      </c>
-      <c r="M6">
-        <v>9.1899998486042023E-2</v>
-      </c>
-      <c r="N6">
-        <v>9.3599997460842133E-2</v>
-      </c>
-      <c r="O6">
-        <v>9.6100002527236938E-2</v>
-      </c>
-      <c r="P6">
-        <v>9.7499996423721313E-2</v>
-      </c>
-      <c r="Q6">
-        <v>0.1005999967455864</v>
-      </c>
-      <c r="R6">
-        <v>0.10429999977350235</v>
-      </c>
-      <c r="S6">
-        <v>0.10790000110864639</v>
-      </c>
-      <c r="T6">
-        <v>0.11370000243186951</v>
-      </c>
-      <c r="U6">
-        <v>0.11959999799728394</v>
-      </c>
-      <c r="V6">
-        <v>0.12729999423027039</v>
-      </c>
-      <c r="W6">
-        <v>0.13600000739097595</v>
-      </c>
-      <c r="X6">
-        <v>0.148499995470047</v>
-      </c>
-      <c r="Y6">
-        <v>0.16130000352859497</v>
-      </c>
-      <c r="Z6">
-        <v>0.17749999463558197</v>
-      </c>
-      <c r="AA6">
-        <v>0.19449999928474426</v>
-      </c>
-      <c r="AB6">
-        <v>0.21410000324249268</v>
-      </c>
-      <c r="AC6">
-        <v>0.23109999299049377</v>
-      </c>
-      <c r="AD6">
-        <v>0.24670000374317169</v>
-      </c>
-      <c r="AE6">
-        <v>0.25909999012947083</v>
-      </c>
-      <c r="AF6">
-        <v>0.27020001411437988</v>
-      </c>
-      <c r="AG6">
-        <v>0.28159999847412109</v>
-      </c>
-      <c r="AH6">
-        <v>0.29580000042915344</v>
-      </c>
-      <c r="AI6">
-        <v>0.30840000510215759</v>
-      </c>
-      <c r="AJ6">
-        <v>0.31839999556541443</v>
-      </c>
-      <c r="AK6">
-        <v>0.33199998736381531</v>
-      </c>
-      <c r="AL6">
-        <v>0.34799998998641968</v>
-      </c>
-      <c r="AM6">
-        <v>0.36599999666213989</v>
-      </c>
-      <c r="AN6">
-        <v>0.38319998979568481</v>
-      </c>
-      <c r="AO6">
-        <v>0.39779999852180481</v>
-      </c>
-      <c r="AP6">
-        <v>0.41670000553131104</v>
-      </c>
-      <c r="AQ6">
-        <v>0.43329998850822449</v>
-      </c>
-      <c r="AR6">
-        <v>0.43939998745918274</v>
-      </c>
-      <c r="AS6">
-        <v>0.45399999618530273</v>
-      </c>
-      <c r="AT6">
-        <v>0.45829999446868896</v>
-      </c>
-      <c r="AU6">
-        <v>0.4666999876499176</v>
-      </c>
-      <c r="AV6">
-        <v>0.47609999775886536</v>
-      </c>
-      <c r="AW6">
-        <v>0.48629999160766602</v>
-      </c>
-      <c r="AX6">
-        <v>0.49529999494552612</v>
-      </c>
-      <c r="AY6">
-        <v>0.50110000371932983</v>
-      </c>
-      <c r="AZ6">
-        <v>0.50690001249313354</v>
-      </c>
-      <c r="BA6">
-        <v>0.51139998435974121</v>
-      </c>
-      <c r="BB6">
-        <v>0.51459997892379761</v>
-      </c>
-      <c r="BC6">
-        <v>0.51910001039505005</v>
-      </c>
-      <c r="BD6">
-        <v>0.52079999446868896</v>
-      </c>
-      <c r="BE6">
-        <v>0.52439999580383301</v>
-      </c>
-      <c r="BF6">
-        <v>0.5252000093460083</v>
-      </c>
-      <c r="BG6">
-        <v>0.52560001611709595</v>
-      </c>
-      <c r="BH6">
-        <v>0.52549999952316284</v>
-      </c>
-      <c r="BI6">
-        <v>0.52499997615814209</v>
-      </c>
-      <c r="BJ6">
-        <v>0.52230000495910645</v>
-      </c>
-      <c r="BK6">
-        <v>0.52249997854232788</v>
-      </c>
-      <c r="BL6">
-        <v>0.52219998836517334</v>
-      </c>
-      <c r="BM6">
-        <v>0.5218999981880188</v>
-      </c>
-      <c r="BN6">
-        <v>0.51969999074935913</v>
-      </c>
-      <c r="BO6">
-        <v>0.51829999685287476</v>
-      </c>
-      <c r="BP6">
-        <v>0.51709997653961182</v>
-      </c>
-      <c r="BQ6">
-        <v>0.5163000226020813</v>
-      </c>
-      <c r="BR6">
-        <v>0.51639997959136963</v>
-      </c>
-      <c r="BS6">
-        <v>0.5153999924659729</v>
-      </c>
-      <c r="BT6">
-        <v>0.51459997892379761</v>
-      </c>
-      <c r="BU6">
-        <v>0.51440000534057617</v>
-      </c>
-      <c r="BV6">
-        <v>0.5130000114440918</v>
-      </c>
-      <c r="BW6">
-        <v>0.51359999179840088</v>
-      </c>
-      <c r="BX6">
-        <v>0.51260000467300415</v>
-      </c>
-      <c r="BY6">
-        <v>0.51179999113082886</v>
-      </c>
-      <c r="BZ6">
-        <v>0.51200002431869507</v>
-      </c>
-      <c r="CA6">
-        <v>0.51239997148513794</v>
-      </c>
-      <c r="CB6">
-        <v>0.51200002431869507</v>
-      </c>
-      <c r="CC6">
-        <v>0.51200002431869507</v>
-      </c>
-      <c r="CD6">
-        <v>0.51260000467300415</v>
-      </c>
-      <c r="CE6">
-        <v>0.51239997148513794</v>
-      </c>
-      <c r="CF6">
-        <v>0.5121999979019165</v>
-      </c>
-      <c r="CG6">
-        <v>0.51330000162124634</v>
-      </c>
-      <c r="CH6">
-        <v>0.51289999485015869</v>
-      </c>
-      <c r="CI6">
-        <v>0.5130000114440918</v>
-      </c>
-      <c r="CJ6">
-        <v>0.51279997825622559</v>
-      </c>
-      <c r="CK6">
-        <v>0.51389998197555542</v>
-      </c>
-      <c r="CL6">
-        <v>0.51440000534057617</v>
-      </c>
-      <c r="CM6">
-        <v>0.51490002870559692</v>
-      </c>
-      <c r="CN6">
-        <v>0.51560002565383911</v>
-      </c>
-      <c r="CO6">
-        <v>0.5163000226020813</v>
-      </c>
-      <c r="CP6">
-        <v>0.51690000295639038</v>
-      </c>
-      <c r="CQ6">
-        <v>0.51800000667572021</v>
-      </c>
-      <c r="CR6">
-        <v>0.51789999008178711</v>
-      </c>
-      <c r="CS6">
-        <v>0.51829999685287476</v>
-      </c>
-      <c r="CT6">
-        <v>0.5187000036239624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>8.7499998509883881E-2</v>
-      </c>
-      <c r="C7">
-        <v>8.7200000882148743E-2</v>
-      </c>
-      <c r="D7">
-        <v>8.6900003254413605E-2</v>
-      </c>
-      <c r="E7">
-        <v>8.7399996817111969E-2</v>
-      </c>
-      <c r="F7">
-        <v>8.7700001895427704E-2</v>
-      </c>
-      <c r="G7">
-        <v>8.789999783039093E-2</v>
-      </c>
-      <c r="H7">
-        <v>8.8200002908706665E-2</v>
-      </c>
-      <c r="I7">
-        <v>8.9400000870227814E-2</v>
-      </c>
-      <c r="J7">
-        <v>9.0300001204013824E-2</v>
-      </c>
-      <c r="K7">
-        <v>9.0300001204013824E-2</v>
-      </c>
-      <c r="L7">
-        <v>9.1300003230571747E-2</v>
-      </c>
-      <c r="M7">
-        <v>9.2200003564357758E-2</v>
-      </c>
-      <c r="N7">
-        <v>9.4300001859664917E-2</v>
-      </c>
-      <c r="O7">
-        <v>9.6199996769428253E-2</v>
-      </c>
-      <c r="P7">
-        <v>9.8800003528594971E-2</v>
-      </c>
-      <c r="Q7">
-        <v>0.10220000147819519</v>
-      </c>
-      <c r="R7">
-        <v>0.10580000281333923</v>
-      </c>
-      <c r="S7">
-        <v>0.11150000244379044</v>
-      </c>
-      <c r="T7">
-        <v>0.11829999834299088</v>
-      </c>
-      <c r="U7">
-        <v>0.12690000236034393</v>
-      </c>
-      <c r="V7">
-        <v>0.13770000636577606</v>
-      </c>
-      <c r="W7">
-        <v>0.15049999952316284</v>
-      </c>
-      <c r="X7">
-        <v>0.16329999268054962</v>
-      </c>
-      <c r="Y7">
-        <v>0.17730000615119934</v>
-      </c>
-      <c r="Z7">
-        <v>0.19380000233650208</v>
-      </c>
-      <c r="AA7">
-        <v>0.21119999885559082</v>
-      </c>
-      <c r="AB7">
-        <v>0.23059999942779541</v>
-      </c>
-      <c r="AC7">
-        <v>0.25630000233650208</v>
-      </c>
-      <c r="AD7">
-        <v>0.27009999752044678</v>
-      </c>
-      <c r="AE7">
-        <v>0.28810000419616699</v>
-      </c>
-      <c r="AF7">
-        <v>0.30799999833106995</v>
-      </c>
-      <c r="AG7">
-        <v>0.3345000147819519</v>
-      </c>
-      <c r="AH7">
-        <v>0.351500004529953</v>
-      </c>
-      <c r="AI7">
-        <v>0.35989999771118164</v>
-      </c>
-      <c r="AJ7">
-        <v>0.37979999184608459</v>
-      </c>
-      <c r="AK7">
-        <v>0.39169999957084656</v>
-      </c>
-      <c r="AL7">
-        <v>0.39640000462532043</v>
-      </c>
-      <c r="AM7">
-        <v>0.41589999198913574</v>
-      </c>
-      <c r="AN7">
-        <v>0.4375</v>
-      </c>
-      <c r="AO7">
-        <v>0.44609999656677246</v>
-      </c>
-      <c r="AP7">
-        <v>0.45219999551773071</v>
-      </c>
-      <c r="AQ7">
-        <v>0.4625999927520752</v>
-      </c>
-      <c r="AR7">
-        <v>0.49250000715255737</v>
-      </c>
-      <c r="AS7">
-        <v>0.5065000057220459</v>
-      </c>
-      <c r="AT7">
-        <v>0.5098000168800354</v>
-      </c>
-      <c r="AU7">
-        <v>0.51940000057220459</v>
-      </c>
-      <c r="AV7">
-        <v>0.52549999952316284</v>
-      </c>
-      <c r="AW7">
-        <v>0.5339999794960022</v>
-      </c>
-      <c r="AX7">
-        <v>0.53700000047683716</v>
-      </c>
-      <c r="AY7">
-        <v>0.54490000009536743</v>
-      </c>
-      <c r="AZ7">
-        <v>0.55199998617172241</v>
-      </c>
-      <c r="BA7">
-        <v>0.55489999055862427</v>
-      </c>
-      <c r="BB7">
-        <v>0.55529999732971191</v>
-      </c>
-      <c r="BC7">
-        <v>0.5591999888420105</v>
-      </c>
-      <c r="BD7">
-        <v>0.56160002946853638</v>
-      </c>
-      <c r="BE7">
-        <v>0.56290000677108765</v>
-      </c>
-      <c r="BF7">
-        <v>0.56519997119903564</v>
-      </c>
-      <c r="BG7">
-        <v>0.5648999810218811</v>
-      </c>
-      <c r="BH7">
-        <v>0.56529998779296875</v>
-      </c>
-      <c r="BI7">
-        <v>0.56559997797012329</v>
-      </c>
-      <c r="BJ7">
-        <v>0.56400001049041748</v>
-      </c>
-      <c r="BK7">
-        <v>0.56279999017715454</v>
-      </c>
-      <c r="BL7">
-        <v>0.56190001964569092</v>
-      </c>
-      <c r="BM7">
-        <v>0.56150001287460327</v>
-      </c>
-      <c r="BN7">
-        <v>0.55959999561309814</v>
-      </c>
-      <c r="BO7">
-        <v>0.55870002508163452</v>
-      </c>
-      <c r="BP7">
-        <v>0.55669999122619629</v>
-      </c>
-      <c r="BQ7">
-        <v>0.555899977684021</v>
-      </c>
-      <c r="BR7">
-        <v>0.55500000715255737</v>
-      </c>
-      <c r="BS7">
-        <v>0.55330002307891846</v>
-      </c>
-      <c r="BT7">
-        <v>0.55290001630783081</v>
-      </c>
-      <c r="BU7">
-        <v>0.55250000953674316</v>
-      </c>
-      <c r="BV7">
-        <v>0.55110001564025879</v>
-      </c>
-      <c r="BW7">
-        <v>0.55119997262954712</v>
-      </c>
-      <c r="BX7">
-        <v>0.5504000186920166</v>
-      </c>
-      <c r="BY7">
-        <v>0.54869997501373291</v>
-      </c>
-      <c r="BZ7">
-        <v>0.54860001802444458</v>
-      </c>
-      <c r="CA7">
-        <v>0.54869997501373291</v>
-      </c>
-      <c r="CB7">
-        <v>0.54769998788833618</v>
-      </c>
-      <c r="CC7">
-        <v>0.54729998111724854</v>
-      </c>
-      <c r="CD7">
-        <v>0.54680001735687256</v>
-      </c>
-      <c r="CE7">
-        <v>0.5471000075340271</v>
-      </c>
-      <c r="CF7">
-        <v>0.54549998044967651</v>
-      </c>
-      <c r="CG7">
-        <v>0.54579997062683105</v>
-      </c>
-      <c r="CH7">
-        <v>0.54579997062683105</v>
-      </c>
-      <c r="CI7">
-        <v>0.54420000314712524</v>
-      </c>
-      <c r="CJ7">
-        <v>0.54479998350143433</v>
-      </c>
-      <c r="CK7">
-        <v>0.54400002956390381</v>
-      </c>
-      <c r="CL7">
-        <v>0.54559999704360962</v>
-      </c>
-      <c r="CM7">
-        <v>0.54439997673034668</v>
-      </c>
-      <c r="CN7">
-        <v>0.54360002279281616</v>
-      </c>
-      <c r="CO7">
-        <v>0.54460000991821289</v>
-      </c>
-      <c r="CP7">
-        <v>0.54409998655319214</v>
-      </c>
-      <c r="CQ7">
-        <v>0.54439997673034668</v>
-      </c>
-      <c r="CR7">
-        <v>0.5439000129699707</v>
-      </c>
-      <c r="CS7">
-        <v>0.5429999828338623</v>
-      </c>
-      <c r="CT7">
-        <v>0.54220002889633179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>8.5506204088299106E-2</v>
-      </c>
-      <c r="C8">
-        <v>8.65686175607467E-2</v>
-      </c>
-      <c r="D8">
-        <v>8.5591475043957393E-2</v>
-      </c>
-      <c r="E8">
-        <v>8.5362497968314202E-2</v>
-      </c>
-      <c r="F8">
-        <v>8.6099932695316794E-2</v>
-      </c>
-      <c r="G8">
-        <v>8.5590097130438594E-2</v>
-      </c>
-      <c r="H8">
-        <v>8.5841833558841396E-2</v>
-      </c>
-      <c r="I8">
-        <v>8.5822008007843703E-2</v>
-      </c>
-      <c r="J8">
-        <v>8.5945091376078003E-2</v>
-      </c>
-      <c r="K8">
-        <v>8.6720877743096003E-2</v>
-      </c>
-      <c r="L8">
-        <v>8.7098560190669999E-2</v>
-      </c>
-      <c r="M8">
-        <v>8.82948398518731E-2</v>
-      </c>
-      <c r="N8">
-        <v>8.9090313253800499E-2</v>
-      </c>
-      <c r="O8">
-        <v>8.9678852881527493E-2</v>
-      </c>
-      <c r="P8">
-        <v>9.0203976326511795E-2</v>
-      </c>
-      <c r="Q8">
-        <v>9.2398461092046802E-2</v>
-      </c>
-      <c r="R8">
-        <v>9.1872925724544405E-2</v>
-      </c>
-      <c r="S8">
-        <v>9.4371053502414398E-2</v>
-      </c>
-      <c r="T8">
-        <v>9.5273507310525196E-2</v>
-      </c>
-      <c r="U8">
-        <v>9.6085560253980601E-2</v>
-      </c>
-      <c r="V8">
-        <v>9.8753596772813895E-2</v>
-      </c>
-      <c r="W8">
-        <v>0.10209362498149201</v>
-      </c>
-      <c r="X8">
-        <v>0.104290494728314</v>
-      </c>
-      <c r="Y8">
-        <v>0.107199939405384</v>
-      </c>
-      <c r="Z8">
-        <v>0.10972974183412899</v>
-      </c>
-      <c r="AA8">
-        <v>0.115627254506626</v>
-      </c>
-      <c r="AB8">
-        <v>0.121225922003008</v>
-      </c>
-      <c r="AC8">
-        <v>0.12710871969667301</v>
-      </c>
-      <c r="AD8">
-        <v>0.13338056705565099</v>
-      </c>
-      <c r="AE8">
-        <v>0.14115309359945999</v>
-      </c>
-      <c r="AF8">
-        <v>0.147063163418231</v>
-      </c>
-      <c r="AG8">
-        <v>0.15432755719261099</v>
-      </c>
-      <c r="AH8">
-        <v>0.16001434731348099</v>
-      </c>
-      <c r="AI8">
-        <v>0.168216157575203</v>
-      </c>
-      <c r="AJ8">
-        <v>0.179142542492569</v>
-      </c>
-      <c r="AK8">
-        <v>0.190188319896057</v>
-      </c>
-      <c r="AL8">
-        <v>0.202618444963062</v>
-      </c>
-      <c r="AM8">
-        <v>0.21686212076734299</v>
-      </c>
-      <c r="AN8">
-        <v>0.230342477070654</v>
-      </c>
-      <c r="AO8">
-        <v>0.24924600372293301</v>
-      </c>
-      <c r="AP8">
-        <v>0.26539269797312798</v>
-      </c>
-      <c r="AQ8">
-        <v>0.27817098355639702</v>
-      </c>
-      <c r="AR8">
-        <v>0.29133855267672898</v>
-      </c>
-      <c r="AS8">
-        <v>0.29733177035991099</v>
-      </c>
-      <c r="AT8">
-        <v>0.303874277029276</v>
-      </c>
-      <c r="AU8">
-        <v>0.31771107582408797</v>
-      </c>
-      <c r="AV8">
-        <v>0.32476245607830501</v>
-      </c>
-      <c r="AW8">
-        <v>0.335573888677826</v>
-      </c>
-      <c r="AX8">
-        <v>0.34312845911754197</v>
-      </c>
-      <c r="AY8">
-        <v>0.35173431468806798</v>
-      </c>
-      <c r="AZ8">
-        <v>0.358906999515203</v>
-      </c>
-      <c r="BA8">
-        <v>0.36399861077221202</v>
-      </c>
-      <c r="BB8">
-        <v>0.36469824066673101</v>
-      </c>
-      <c r="BC8">
-        <v>0.38177932881454102</v>
-      </c>
-      <c r="BD8">
-        <v>0.38624200100971201</v>
-      </c>
-      <c r="BE8">
-        <v>0.39594985071736399</v>
-      </c>
-      <c r="BF8">
-        <v>0.408167413772691</v>
-      </c>
-      <c r="BG8">
-        <v>0.41352838624911498</v>
-      </c>
-      <c r="BH8">
-        <v>0.42100995752884601</v>
-      </c>
-      <c r="BI8">
-        <v>0.43085204208765698</v>
-      </c>
-      <c r="BJ8">
-        <v>0.44051369408448798</v>
-      </c>
-      <c r="BK8">
-        <v>0.44573188289768401</v>
-      </c>
-      <c r="BL8">
-        <v>0.45502461793733301</v>
-      </c>
-      <c r="BM8">
-        <v>0.45379658718411803</v>
-      </c>
-      <c r="BN8">
-        <v>0.45733484086621601</v>
-      </c>
-      <c r="BO8">
-        <v>0.46790802034470402</v>
-      </c>
-      <c r="BP8">
-        <v>0.46970010513725702</v>
-      </c>
-      <c r="BQ8">
-        <v>0.46415606888912597</v>
-      </c>
-      <c r="BR8">
-        <v>0.46707403778010798</v>
-      </c>
-      <c r="BS8">
-        <v>0.47233905050765701</v>
-      </c>
-      <c r="BT8">
-        <v>0.47842935790610303</v>
-      </c>
-      <c r="BU8">
-        <v>0.47107602887248201</v>
-      </c>
-      <c r="BV8">
-        <v>0.472346770879291</v>
-      </c>
-      <c r="BW8">
-        <v>0.47790403474347598</v>
-      </c>
-      <c r="BX8">
-        <v>0.48036462987586098</v>
-      </c>
-      <c r="BY8">
-        <v>0.47835854308488401</v>
-      </c>
-      <c r="BZ8">
-        <v>0.47463357312503002</v>
-      </c>
-      <c r="CA8">
-        <v>0.47221289444479703</v>
-      </c>
-      <c r="CB8">
-        <v>0.47688175702150698</v>
-      </c>
-      <c r="CC8">
-        <v>0.46908873528505002</v>
-      </c>
-      <c r="CD8">
-        <v>0.46816715275753801</v>
-      </c>
-      <c r="CE8">
-        <v>0.46826351904846403</v>
-      </c>
-      <c r="CF8">
-        <v>0.47084361115146001</v>
-      </c>
-      <c r="CG8">
-        <v>0.47336016197294201</v>
-      </c>
-      <c r="CH8">
-        <v>0.46918776451329802</v>
-      </c>
-      <c r="CI8">
-        <v>0.46634461840609398</v>
-      </c>
-      <c r="CJ8">
-        <v>0.46638890699819502</v>
-      </c>
-      <c r="CK8">
-        <v>0.46008109410381798</v>
-      </c>
-      <c r="CL8">
-        <v>0.46769481377267902</v>
-      </c>
-      <c r="CM8">
-        <v>0.45951059345956802</v>
-      </c>
-      <c r="CN8">
-        <v>0.45661081200236098</v>
-      </c>
-      <c r="CO8">
-        <v>0.46559463230604098</v>
-      </c>
-      <c r="CP8">
-        <v>0.46352445405876802</v>
-      </c>
-      <c r="CQ8">
-        <v>0.46086084579353098</v>
-      </c>
-      <c r="CR8">
-        <v>0.45879950929385899</v>
-      </c>
-      <c r="CS8">
-        <v>0.459127408926293</v>
-      </c>
-      <c r="CT8">
-        <v>0.45888111500178302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>8.5100002586841583E-2</v>
-      </c>
-      <c r="C9">
-        <v>8.6900003254413605E-2</v>
-      </c>
-      <c r="D9">
-        <v>8.5900001227855682E-2</v>
-      </c>
-      <c r="E9">
-        <v>8.5799999535083771E-2</v>
-      </c>
-      <c r="F9">
-        <v>8.5699997842311859E-2</v>
-      </c>
-      <c r="G9">
-        <v>8.619999885559082E-2</v>
-      </c>
-      <c r="H9">
-        <v>8.6499996483325958E-2</v>
-      </c>
-      <c r="I9">
-        <v>8.659999817609787E-2</v>
-      </c>
-      <c r="J9">
-        <v>8.6800001561641693E-2</v>
-      </c>
-      <c r="K9">
-        <v>8.7099999189376831E-2</v>
-      </c>
-      <c r="L9">
-        <v>8.789999783039093E-2</v>
-      </c>
-      <c r="M9">
-        <v>8.8200002908706665E-2</v>
-      </c>
-      <c r="N9">
-        <v>8.9100003242492676E-2</v>
-      </c>
-      <c r="O9">
-        <v>8.9800000190734863E-2</v>
-      </c>
-      <c r="P9">
-        <v>9.0599998831748962E-2</v>
-      </c>
-      <c r="Q9">
-        <v>9.1499999165534973E-2</v>
-      </c>
-      <c r="R9">
-        <v>9.2799998819828033E-2</v>
-      </c>
-      <c r="S9">
-        <v>9.4200000166893005E-2</v>
-      </c>
-      <c r="T9">
-        <v>9.5399998128414154E-2</v>
-      </c>
-      <c r="U9">
-        <v>9.6900001168251038E-2</v>
-      </c>
-      <c r="V9">
-        <v>9.920000284910202E-2</v>
-      </c>
-      <c r="W9">
-        <v>0.10130000114440918</v>
-      </c>
-      <c r="X9">
-        <v>0.10400000214576721</v>
-      </c>
-      <c r="Y9">
-        <v>0.10729999840259552</v>
-      </c>
-      <c r="Z9">
-        <v>0.11069999635219574</v>
-      </c>
-      <c r="AA9">
-        <v>0.11529999971389771</v>
-      </c>
-      <c r="AB9">
-        <v>0.12060000002384186</v>
-      </c>
-      <c r="AC9">
-        <v>0.12639999389648438</v>
-      </c>
-      <c r="AD9">
-        <v>0.13339999318122864</v>
-      </c>
-      <c r="AE9">
-        <v>0.13979999721050262</v>
-      </c>
-      <c r="AF9">
-        <v>0.14650000631809235</v>
-      </c>
-      <c r="AG9">
-        <v>0.15360000729560852</v>
-      </c>
-      <c r="AH9">
-        <v>0.15979999303817749</v>
-      </c>
-      <c r="AI9">
-        <v>0.16990000009536743</v>
-      </c>
-      <c r="AJ9">
-        <v>0.17960000038146973</v>
-      </c>
-      <c r="AK9">
-        <v>0.18940000236034393</v>
-      </c>
-      <c r="AL9">
-        <v>0.20190000534057617</v>
-      </c>
-      <c r="AM9">
-        <v>0.21619999408721924</v>
-      </c>
-      <c r="AN9">
-        <v>0.23109999299049377</v>
-      </c>
-      <c r="AO9">
-        <v>0.25020000338554382</v>
-      </c>
-      <c r="AP9">
-        <v>0.26589998602867126</v>
-      </c>
-      <c r="AQ9">
-        <v>0.28080001473426819</v>
-      </c>
-      <c r="AR9">
-        <v>0.29139998555183411</v>
-      </c>
-      <c r="AS9">
-        <v>0.29929998517036438</v>
-      </c>
-      <c r="AT9">
-        <v>0.30669999122619629</v>
-      </c>
-      <c r="AU9">
-        <v>0.31549999117851257</v>
-      </c>
-      <c r="AV9">
-        <v>0.3246999979019165</v>
-      </c>
-      <c r="AW9">
-        <v>0.33489999175071716</v>
-      </c>
-      <c r="AX9">
-        <v>0.34490001201629639</v>
-      </c>
-      <c r="AY9">
-        <v>0.35210001468658447</v>
-      </c>
-      <c r="AZ9">
-        <v>0.36100000143051147</v>
-      </c>
-      <c r="BA9">
-        <v>0.36320000886917114</v>
-      </c>
-      <c r="BB9">
-        <v>0.36759999394416809</v>
-      </c>
-      <c r="BC9">
-        <v>0.37850001454353333</v>
-      </c>
-      <c r="BD9">
-        <v>0.38679999113082886</v>
-      </c>
-      <c r="BE9">
-        <v>0.39680001139640808</v>
-      </c>
-      <c r="BF9">
-        <v>0.40490001440048218</v>
-      </c>
-      <c r="BG9">
-        <v>0.41440001130104065</v>
-      </c>
-      <c r="BH9">
-        <v>0.42350000143051147</v>
-      </c>
-      <c r="BI9">
-        <v>0.43130001425743103</v>
-      </c>
-      <c r="BJ9">
-        <v>0.43959999084472656</v>
-      </c>
-      <c r="BK9">
-        <v>0.44600000977516174</v>
-      </c>
-      <c r="BL9">
-        <v>0.45219999551773071</v>
-      </c>
-      <c r="BM9">
-        <v>0.45669999718666077</v>
-      </c>
-      <c r="BN9">
-        <v>0.46050000190734863</v>
-      </c>
-      <c r="BO9">
-        <v>0.46549999713897705</v>
-      </c>
-      <c r="BP9">
-        <v>0.46700000762939453</v>
-      </c>
-      <c r="BQ9">
-        <v>0.46869999170303345</v>
-      </c>
-      <c r="BR9">
-        <v>0.47060000896453857</v>
-      </c>
-      <c r="BS9">
-        <v>0.47229999303817749</v>
-      </c>
-      <c r="BT9">
-        <v>0.47420001029968262</v>
-      </c>
-      <c r="BU9">
-        <v>0.47420001029968262</v>
-      </c>
-      <c r="BV9">
-        <v>0.47510001063346863</v>
-      </c>
-      <c r="BW9">
-        <v>0.47569999098777771</v>
-      </c>
-      <c r="BX9">
-        <v>0.47569999098777771</v>
-      </c>
-      <c r="BY9">
-        <v>0.47530001401901245</v>
-      </c>
-      <c r="BZ9">
-        <v>0.47450000047683716</v>
-      </c>
-      <c r="CA9">
-        <v>0.47369998693466187</v>
-      </c>
-      <c r="CB9">
-        <v>0.47299998998641968</v>
-      </c>
-      <c r="CC9">
-        <v>0.47310000658035278</v>
-      </c>
-      <c r="CD9">
-        <v>0.47130000591278076</v>
-      </c>
-      <c r="CE9">
-        <v>0.47099998593330383</v>
-      </c>
-      <c r="CF9">
-        <v>0.47099998593330383</v>
-      </c>
-      <c r="CG9">
-        <v>0.46979999542236328</v>
-      </c>
-      <c r="CH9">
-        <v>0.46840000152587891</v>
-      </c>
-      <c r="CI9">
-        <v>0.4659000039100647</v>
-      </c>
-      <c r="CJ9">
-        <v>0.46560001373291016</v>
-      </c>
-      <c r="CK9">
-        <v>0.4643000066280365</v>
-      </c>
-      <c r="CL9">
-        <v>0.46369999647140503</v>
-      </c>
-      <c r="CM9">
-        <v>0.46189999580383301</v>
-      </c>
-      <c r="CN9">
-        <v>0.460999995470047</v>
-      </c>
-      <c r="CO9">
-        <v>0.460999995470047</v>
-      </c>
-      <c r="CP9">
-        <v>0.46029999852180481</v>
-      </c>
-      <c r="CQ9">
-        <v>0.45919999480247498</v>
-      </c>
-      <c r="CR9">
-        <v>0.45710000395774841</v>
-      </c>
-      <c r="CS9">
-        <v>0.45750001072883606</v>
-      </c>
-      <c r="CT9">
-        <v>0.4562000036239624</v>
-      </c>
-    </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>9.1099999845027924E-2</v>
-      </c>
-      <c r="C10">
-        <v>9.0199999511241913E-2</v>
-      </c>
-      <c r="D10">
-        <v>9.08999964594841E-2</v>
-      </c>
-      <c r="E10">
-        <v>8.9900001883506775E-2</v>
-      </c>
-      <c r="F10">
-        <v>9.0000003576278687E-2</v>
-      </c>
-      <c r="G10">
-        <v>9.0199999511241913E-2</v>
-      </c>
-      <c r="H10">
-        <v>9.0400002896785736E-2</v>
-      </c>
-      <c r="I10">
-        <v>9.0800002217292786E-2</v>
-      </c>
-      <c r="J10">
-        <v>9.0599998831748962E-2</v>
-      </c>
-      <c r="K10">
-        <v>9.1099999845027924E-2</v>
-      </c>
-      <c r="L10">
-        <v>9.2100001871585846E-2</v>
-      </c>
-      <c r="M10">
-        <v>9.1799996793270111E-2</v>
-      </c>
-      <c r="N10">
-        <v>9.2900000512599945E-2</v>
-      </c>
-      <c r="O10">
-        <v>9.3599997460842133E-2</v>
-      </c>
-      <c r="P10">
-        <v>9.4899997115135193E-2</v>
-      </c>
-      <c r="Q10">
-        <v>9.5799997448921204E-2</v>
-      </c>
-      <c r="R10">
-        <v>9.7599998116493225E-2</v>
-      </c>
-      <c r="S10">
-        <v>9.8999999463558197E-2</v>
-      </c>
-      <c r="T10">
-        <v>0.10109999775886536</v>
-      </c>
-      <c r="U10">
-        <v>0.1023000031709671</v>
-      </c>
-      <c r="V10">
-        <v>0.10419999808073044</v>
-      </c>
-      <c r="W10">
-        <v>0.10639999806880951</v>
-      </c>
-      <c r="X10">
-        <v>0.1096000000834465</v>
-      </c>
-      <c r="Y10">
-        <v>0.11209999769926071</v>
-      </c>
-      <c r="Z10">
-        <v>0.11569999903440475</v>
-      </c>
-      <c r="AA10">
-        <v>0.11890000104904175</v>
-      </c>
-      <c r="AB10">
-        <v>0.12319999933242798</v>
-      </c>
-      <c r="AC10">
-        <v>0.12780000269412994</v>
-      </c>
-      <c r="AD10">
-        <v>0.13279999792575836</v>
-      </c>
-      <c r="AE10">
-        <v>0.13680000603199005</v>
-      </c>
-      <c r="AF10">
-        <v>0.14350000023841858</v>
-      </c>
-      <c r="AG10">
-        <v>0.15119999647140503</v>
-      </c>
-      <c r="AH10">
-        <v>0.15620000660419464</v>
-      </c>
-      <c r="AI10">
-        <v>0.16509999334812164</v>
-      </c>
-      <c r="AJ10">
-        <v>0.17389999330043793</v>
-      </c>
-      <c r="AK10">
-        <v>0.18150000274181366</v>
-      </c>
-      <c r="AL10">
-        <v>0.19200000166893005</v>
-      </c>
-      <c r="AM10">
-        <v>0.20080000162124634</v>
-      </c>
-      <c r="AN10">
-        <v>0.21119999885559082</v>
-      </c>
-      <c r="AO10">
-        <v>0.22349999845027924</v>
-      </c>
-      <c r="AP10">
-        <v>0.2354000061750412</v>
-      </c>
-      <c r="AQ10">
-        <v>0.24529999494552612</v>
-      </c>
-      <c r="AR10">
-        <v>0.25929999351501465</v>
-      </c>
-      <c r="AS10">
-        <v>0.26919999718666077</v>
-      </c>
-      <c r="AT10">
-        <v>0.28080001473426819</v>
-      </c>
-      <c r="AU10">
-        <v>0.29039999842643738</v>
-      </c>
-      <c r="AV10">
-        <v>0.30289998650550842</v>
-      </c>
-      <c r="AW10">
-        <v>0.31119999289512634</v>
-      </c>
-      <c r="AX10">
-        <v>0.32100000977516174</v>
-      </c>
-      <c r="AY10">
-        <v>0.33100000023841858</v>
-      </c>
-      <c r="AZ10">
-        <v>0.34110000729560852</v>
-      </c>
-      <c r="BA10">
-        <v>0.35030001401901245</v>
-      </c>
-      <c r="BB10">
-        <v>0.36179998517036438</v>
-      </c>
-      <c r="BC10">
-        <v>0.3716999888420105</v>
-      </c>
-      <c r="BD10">
-        <v>0.3781999945640564</v>
-      </c>
-      <c r="BE10">
-        <v>0.3864000141620636</v>
-      </c>
-      <c r="BF10">
-        <v>0.39509999752044678</v>
-      </c>
-      <c r="BG10">
-        <v>0.40470001101493835</v>
-      </c>
-      <c r="BH10">
-        <v>0.41179999709129333</v>
-      </c>
-      <c r="BI10">
-        <v>0.41929998993873596</v>
-      </c>
-      <c r="BJ10">
-        <v>0.42629998922348022</v>
-      </c>
-      <c r="BK10">
-        <v>0.43410000205039978</v>
-      </c>
-      <c r="BL10">
-        <v>0.43950000405311584</v>
-      </c>
-      <c r="BM10">
-        <v>0.44510000944137573</v>
-      </c>
-      <c r="BN10">
-        <v>0.44940000772476196</v>
-      </c>
-      <c r="BO10">
-        <v>0.45159998536109924</v>
-      </c>
-      <c r="BP10">
-        <v>0.45600000023841858</v>
-      </c>
-      <c r="BQ10">
-        <v>0.45640000700950623</v>
-      </c>
-      <c r="BR10">
-        <v>0.45879998803138733</v>
-      </c>
-      <c r="BS10">
-        <v>0.46180000901222229</v>
-      </c>
-      <c r="BT10">
-        <v>0.4643000066280365</v>
-      </c>
-      <c r="BU10">
-        <v>0.46410000324249268</v>
-      </c>
-      <c r="BV10">
-        <v>0.46459999680519104</v>
-      </c>
-      <c r="BW10">
-        <v>0.4659000039100647</v>
-      </c>
-      <c r="BX10">
-        <v>0.46560001373291016</v>
-      </c>
-      <c r="BY10">
-        <v>0.46619999408721924</v>
-      </c>
-      <c r="BZ10">
-        <v>0.46630001068115234</v>
-      </c>
-      <c r="CA10">
-        <v>0.46520000696182251</v>
-      </c>
-      <c r="CB10">
-        <v>0.46520000696182251</v>
-      </c>
-      <c r="CC10">
-        <v>0.46439999341964722</v>
-      </c>
-      <c r="CD10">
-        <v>0.46419999003410339</v>
-      </c>
-      <c r="CE10">
-        <v>0.46410000324249268</v>
-      </c>
-      <c r="CF10">
-        <v>0.46399998664855957</v>
-      </c>
-      <c r="CG10">
-        <v>0.46279999613761902</v>
-      </c>
-      <c r="CH10">
-        <v>0.46209999918937683</v>
-      </c>
-      <c r="CI10">
-        <v>0.46149998903274536</v>
-      </c>
-      <c r="CJ10">
-        <v>0.45989999175071716</v>
-      </c>
-      <c r="CK10">
-        <v>0.4593999981880188</v>
-      </c>
-      <c r="CL10">
-        <v>0.45809999108314514</v>
-      </c>
-      <c r="CM10">
-        <v>0.45710000395774841</v>
-      </c>
-      <c r="CN10">
-        <v>0.45649999380111694</v>
-      </c>
-      <c r="CO10">
-        <v>0.45600000023841858</v>
-      </c>
-      <c r="CP10">
-        <v>0.45500001311302185</v>
-      </c>
-      <c r="CQ10">
-        <v>0.45429998636245728</v>
-      </c>
-      <c r="CR10">
-        <v>0.45379999279975891</v>
-      </c>
-      <c r="CS10">
-        <v>0.45269998908042908</v>
-      </c>
-      <c r="CT10">
-        <v>0.4528999924659729</v>
-      </c>
-    </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>8.8387876638678295E-2</v>
-      </c>
-      <c r="C11">
-        <v>8.8390650522568504E-2</v>
-      </c>
-      <c r="D11">
-        <v>8.7917740223751997E-2</v>
-      </c>
-      <c r="E11">
-        <v>8.7875682763322402E-2</v>
-      </c>
-      <c r="F11">
-        <v>8.7944326322229996E-2</v>
-      </c>
-      <c r="G11">
-        <v>8.7290697852814597E-2</v>
-      </c>
-      <c r="H11">
-        <v>8.7727461631439699E-2</v>
-      </c>
-      <c r="I11">
-        <v>8.8098808620609301E-2</v>
-      </c>
-      <c r="J11">
-        <v>8.8557555607621505E-2</v>
-      </c>
-      <c r="K11">
-        <v>8.8428486394940997E-2</v>
-      </c>
-      <c r="L11">
-        <v>8.9346600031012996E-2</v>
-      </c>
-      <c r="M11">
-        <v>8.8692180694188799E-2</v>
-      </c>
-      <c r="N11">
-        <v>8.91521413120068E-2</v>
-      </c>
-      <c r="O11">
-        <v>9.0286997221569701E-2</v>
-      </c>
-      <c r="P11">
-        <v>9.0181817629363906E-2</v>
-      </c>
-      <c r="Q11">
-        <v>9.1462827597872595E-2</v>
-      </c>
-      <c r="R11">
-        <v>9.14628420321726E-2</v>
-      </c>
-      <c r="S11">
-        <v>9.1740343711292596E-2</v>
-      </c>
-      <c r="T11">
-        <v>9.2364984706193198E-2</v>
-      </c>
-      <c r="U11">
-        <v>9.2897399853672097E-2</v>
-      </c>
-      <c r="V11">
-        <v>9.4142893222657995E-2</v>
-      </c>
-      <c r="W11">
-        <v>9.4509391423354197E-2</v>
-      </c>
-      <c r="X11">
-        <v>9.3625409871869403E-2</v>
-      </c>
-      <c r="Y11">
-        <v>9.5773347943989798E-2</v>
-      </c>
-      <c r="Z11">
-        <v>9.5687225036322501E-2</v>
-      </c>
-      <c r="AA11">
-        <v>9.6752479117029597E-2</v>
-      </c>
-      <c r="AB11">
-        <v>9.7638343170192904E-2</v>
-      </c>
-      <c r="AC11">
-        <v>9.7427866631701707E-2</v>
-      </c>
-      <c r="AD11">
-        <v>0.10014282330652099</v>
-      </c>
-      <c r="AE11">
-        <v>9.9792406340523707E-2</v>
-      </c>
-      <c r="AF11">
-        <v>0.100850594148504</v>
-      </c>
-      <c r="AG11">
-        <v>0.102393096139979</v>
-      </c>
-      <c r="AH11">
-        <v>0.104721932781144</v>
-      </c>
-      <c r="AI11">
-        <v>0.10546514149003999</v>
-      </c>
-      <c r="AJ11">
-        <v>0.106926446868989</v>
-      </c>
-      <c r="AK11">
-        <v>0.107653189993277</v>
-      </c>
-      <c r="AL11">
-        <v>0.109581633202896</v>
-      </c>
-      <c r="AM11">
-        <v>0.111798555095088</v>
-      </c>
-      <c r="AN11">
-        <v>0.11253381013922099</v>
-      </c>
-      <c r="AO11">
-        <v>0.11393943897511701</v>
-      </c>
-      <c r="AP11">
-        <v>0.116519072001021</v>
-      </c>
-      <c r="AQ11">
-        <v>0.118071397318379</v>
-      </c>
-      <c r="AR11">
-        <v>0.120434460491591</v>
-      </c>
-      <c r="AS11">
-        <v>0.122064008218965</v>
-      </c>
-      <c r="AT11">
-        <v>0.124765378011768</v>
-      </c>
-      <c r="AU11">
-        <v>0.12634480639565299</v>
-      </c>
-      <c r="AV11">
-        <v>0.13043266820788599</v>
-      </c>
-      <c r="AW11">
-        <v>0.13456600053296799</v>
-      </c>
-      <c r="AX11">
-        <v>0.13672665750934099</v>
-      </c>
-      <c r="AY11">
-        <v>0.14097610003351399</v>
-      </c>
-      <c r="AZ11">
-        <v>0.14699940127831301</v>
-      </c>
-      <c r="BA11">
-        <v>0.148433732254242</v>
-      </c>
-      <c r="BB11">
-        <v>0.15495904200092001</v>
-      </c>
-      <c r="BC11">
-        <v>0.16060830800741799</v>
-      </c>
-      <c r="BD11">
-        <v>0.165505165002997</v>
-      </c>
-      <c r="BE11">
-        <v>0.17110567487172501</v>
-      </c>
-      <c r="BF11">
-        <v>0.176857837559351</v>
-      </c>
-      <c r="BG11">
-        <v>0.18545687370342701</v>
-      </c>
-      <c r="BH11">
-        <v>0.191810712874705</v>
-      </c>
-      <c r="BI11">
-        <v>0.198891149883241</v>
-      </c>
-      <c r="BJ11">
-        <v>0.20774376553302601</v>
-      </c>
-      <c r="BK11">
-        <v>0.21252137885994499</v>
-      </c>
-      <c r="BL11">
-        <v>0.2193381082918</v>
-      </c>
-      <c r="BM11">
-        <v>0.226819227798637</v>
-      </c>
-      <c r="BN11">
-        <v>0.23544412651008201</v>
-      </c>
-      <c r="BO11">
-        <v>0.240264904063791</v>
-      </c>
-      <c r="BP11">
-        <v>0.24717555986562101</v>
-      </c>
-      <c r="BQ11">
-        <v>0.25334628313846003</v>
-      </c>
-      <c r="BR11">
-        <v>0.26274701095972702</v>
-      </c>
-      <c r="BS11">
-        <v>0.26758388320079901</v>
-      </c>
-      <c r="BT11">
-        <v>0.274202978853688</v>
-      </c>
-      <c r="BU11">
-        <v>0.27965745305717099</v>
-      </c>
-      <c r="BV11">
-        <v>0.281142308211137</v>
-      </c>
-      <c r="BW11">
-        <v>0.28881574527729098</v>
-      </c>
-      <c r="BX11">
-        <v>0.29243504809513199</v>
-      </c>
-      <c r="BY11">
-        <v>0.30199764460915601</v>
-      </c>
-      <c r="BZ11">
-        <v>0.30686427916690401</v>
-      </c>
-      <c r="CA11">
-        <v>0.30881589411942301</v>
-      </c>
-      <c r="CB11">
-        <v>0.31896600101163403</v>
-      </c>
-      <c r="CC11">
-        <v>0.32257754519224202</v>
-      </c>
-      <c r="CD11">
-        <v>0.33067089703296099</v>
-      </c>
-      <c r="CE11">
-        <v>0.33640533730933597</v>
-      </c>
-      <c r="CF11">
-        <v>0.34075671223064302</v>
-      </c>
-      <c r="CG11">
-        <v>0.34572275705453498</v>
-      </c>
-      <c r="CH11">
-        <v>0.34659177866698898</v>
-      </c>
-      <c r="CI11">
-        <v>0.35336239826666199</v>
-      </c>
-      <c r="CJ11">
-        <v>0.36074575719668001</v>
-      </c>
-      <c r="CK11">
-        <v>0.36442983434755399</v>
-      </c>
-      <c r="CL11">
-        <v>0.36252078328432102</v>
-      </c>
-      <c r="CM11">
-        <v>0.371365211932285</v>
-      </c>
-      <c r="CN11">
-        <v>0.37256241157813802</v>
-      </c>
-      <c r="CO11">
-        <v>0.37113071050302099</v>
-      </c>
-      <c r="CP11">
-        <v>0.37218594819173101</v>
-      </c>
-      <c r="CQ11">
-        <v>0.37247568502949502</v>
-      </c>
-      <c r="CR11">
-        <v>0.37901204696679502</v>
-      </c>
-      <c r="CS11">
-        <v>0.37425598904010199</v>
-      </c>
-      <c r="CT11">
-        <v>0.38124281792159997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>8.8399998843669891E-2</v>
-      </c>
-      <c r="C12">
-        <v>8.8200002908706665E-2</v>
-      </c>
-      <c r="D12">
-        <v>8.7800003588199615E-2</v>
-      </c>
-      <c r="E12">
-        <v>8.7300002574920654E-2</v>
-      </c>
-      <c r="F12">
-        <v>8.7300002574920654E-2</v>
-      </c>
-      <c r="G12">
-        <v>8.7600000202655792E-2</v>
-      </c>
-      <c r="H12">
-        <v>8.7700001895427704E-2</v>
-      </c>
-      <c r="I12">
-        <v>8.7999999523162842E-2</v>
-      </c>
-      <c r="J12">
-        <v>8.8200002908706665E-2</v>
-      </c>
-      <c r="K12">
-        <v>8.8200002908706665E-2</v>
-      </c>
-      <c r="L12">
-        <v>8.8500000536441803E-2</v>
-      </c>
-      <c r="M12">
-        <v>8.8600002229213715E-2</v>
-      </c>
-      <c r="N12">
-        <v>8.9100003242492676E-2</v>
-      </c>
-      <c r="O12">
-        <v>8.9699998497962952E-2</v>
-      </c>
-      <c r="P12">
-        <v>8.9900001883506775E-2</v>
-      </c>
-      <c r="Q12">
-        <v>9.08999964594841E-2</v>
-      </c>
-      <c r="R12">
-        <v>9.0999998152256012E-2</v>
-      </c>
-      <c r="S12">
-        <v>9.1499999165534973E-2</v>
-      </c>
-      <c r="T12">
-        <v>9.2000000178813934E-2</v>
-      </c>
-      <c r="U12">
-        <v>9.2799998819828033E-2</v>
-      </c>
-      <c r="V12">
-        <v>9.3500003218650818E-2</v>
-      </c>
-      <c r="W12">
-        <v>9.3800000846385956E-2</v>
-      </c>
-      <c r="X12">
-        <v>9.4499997794628143E-2</v>
-      </c>
-      <c r="Y12">
-        <v>9.5299996435642242E-2</v>
-      </c>
-      <c r="Z12">
-        <v>9.5799997448921204E-2</v>
-      </c>
-      <c r="AA12">
-        <v>9.6799999475479126E-2</v>
-      </c>
-      <c r="AB12">
-        <v>9.7499996423721313E-2</v>
-      </c>
-      <c r="AC12">
-        <v>9.830000251531601E-2</v>
-      </c>
-      <c r="AD12">
-        <v>9.9399998784065247E-2</v>
-      </c>
-      <c r="AE12">
-        <v>0.10050000250339508</v>
-      </c>
-      <c r="AF12">
-        <v>0.10130000114440918</v>
-      </c>
-      <c r="AG12">
-        <v>0.10289999842643738</v>
-      </c>
-      <c r="AH12">
-        <v>0.10400000214576721</v>
-      </c>
-      <c r="AI12">
-        <v>0.10520000010728836</v>
-      </c>
-      <c r="AJ12">
-        <v>0.1062999963760376</v>
-      </c>
-      <c r="AK12">
-        <v>0.10760000348091125</v>
-      </c>
-      <c r="AL12">
-        <v>0.1096000000834465</v>
-      </c>
-      <c r="AM12">
-        <v>0.11110000312328339</v>
-      </c>
-      <c r="AN12">
-        <v>0.11249999701976776</v>
-      </c>
-      <c r="AO12">
-        <v>0.11410000175237656</v>
-      </c>
-      <c r="AP12">
-        <v>0.1160999983549118</v>
-      </c>
-      <c r="AQ12">
-        <v>0.11779999732971191</v>
-      </c>
-      <c r="AR12">
-        <v>0.12020000070333481</v>
-      </c>
-      <c r="AS12">
-        <v>0.12219999730587006</v>
-      </c>
-      <c r="AT12">
-        <v>0.12470000237226486</v>
-      </c>
-      <c r="AU12">
-        <v>0.12720000743865967</v>
-      </c>
-      <c r="AV12">
-        <v>0.12999999523162842</v>
-      </c>
-      <c r="AW12">
-        <v>0.13349999487400055</v>
-      </c>
-      <c r="AX12">
-        <v>0.13740000128746033</v>
-      </c>
-      <c r="AY12">
-        <v>0.14059999585151672</v>
-      </c>
-      <c r="AZ12">
-        <v>0.14569999277591705</v>
-      </c>
-      <c r="BA12">
-        <v>0.14859999716281891</v>
-      </c>
-      <c r="BB12">
-        <v>0.15389999747276306</v>
-      </c>
-      <c r="BC12">
-        <v>0.15919999778270721</v>
-      </c>
-      <c r="BD12">
-        <v>0.16449999809265137</v>
-      </c>
-      <c r="BE12">
-        <v>0.17069999873638153</v>
-      </c>
-      <c r="BF12">
-        <v>0.17710000276565552</v>
-      </c>
-      <c r="BG12">
-        <v>0.18469999730587006</v>
-      </c>
-      <c r="BH12">
-        <v>0.19059999287128448</v>
-      </c>
-      <c r="BI12">
-        <v>0.1988999992609024</v>
-      </c>
-      <c r="BJ12">
-        <v>0.20600000023841858</v>
-      </c>
-      <c r="BK12">
-        <v>0.21420000493526459</v>
-      </c>
-      <c r="BL12">
-        <v>0.21950000524520874</v>
-      </c>
-      <c r="BM12">
-        <v>0.22619999945163727</v>
-      </c>
-      <c r="BN12">
-        <v>0.23430000245571136</v>
-      </c>
-      <c r="BO12">
-        <v>0.24029999971389771</v>
-      </c>
-      <c r="BP12">
-        <v>0.24660000205039978</v>
-      </c>
-      <c r="BQ12">
-        <v>0.25279998779296875</v>
-      </c>
-      <c r="BR12">
-        <v>0.26039999723434448</v>
-      </c>
-      <c r="BS12">
-        <v>0.26629999279975891</v>
-      </c>
-      <c r="BT12">
-        <v>0.2718999981880188</v>
-      </c>
-      <c r="BU12">
-        <v>0.27880001068115234</v>
-      </c>
-      <c r="BV12">
-        <v>0.28349998593330383</v>
-      </c>
-      <c r="BW12">
-        <v>0.29010000824928284</v>
-      </c>
-      <c r="BX12">
-        <v>0.29490000009536743</v>
-      </c>
-      <c r="BY12">
-        <v>0.30059999227523804</v>
-      </c>
-      <c r="BZ12">
-        <v>0.30660000443458557</v>
-      </c>
-      <c r="CA12">
-        <v>0.31159999966621399</v>
-      </c>
-      <c r="CB12">
-        <v>0.31679999828338623</v>
-      </c>
-      <c r="CC12">
-        <v>0.32370001077651978</v>
-      </c>
-      <c r="CD12">
-        <v>0.32980000972747803</v>
-      </c>
-      <c r="CE12">
-        <v>0.33390000462532043</v>
-      </c>
-      <c r="CF12">
-        <v>0.33950001001358032</v>
-      </c>
-      <c r="CG12">
-        <v>0.34439998865127563</v>
-      </c>
-      <c r="CH12">
-        <v>0.34920001029968262</v>
-      </c>
-      <c r="CI12">
-        <v>0.35510000586509705</v>
-      </c>
-      <c r="CJ12">
-        <v>0.35850000381469727</v>
-      </c>
-      <c r="CK12">
-        <v>0.36190000176429749</v>
-      </c>
-      <c r="CL12">
-        <v>0.36539998650550842</v>
-      </c>
-      <c r="CM12">
-        <v>0.36820000410079956</v>
-      </c>
-      <c r="CN12">
-        <v>0.37139999866485596</v>
-      </c>
-      <c r="CO12">
-        <v>0.37319999933242798</v>
-      </c>
-      <c r="CP12">
-        <v>0.37439998984336853</v>
-      </c>
-      <c r="CQ12">
-        <v>0.37610000371932983</v>
-      </c>
-      <c r="CR12">
-        <v>0.37799999117851257</v>
-      </c>
-      <c r="CS12">
-        <v>0.37770000100135803</v>
-      </c>
-      <c r="CT12">
-        <v>0.37889999151229858</v>
-      </c>
-    </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>8.789999783039093E-2</v>
-      </c>
-      <c r="C13">
-        <v>8.9800000190734863E-2</v>
-      </c>
-      <c r="D13">
-        <v>8.8699996471405029E-2</v>
-      </c>
-      <c r="E13">
-        <v>8.8200002908706665E-2</v>
-      </c>
-      <c r="F13">
-        <v>8.8200002908706665E-2</v>
-      </c>
-      <c r="G13">
-        <v>8.8600002229213715E-2</v>
-      </c>
-      <c r="H13">
-        <v>8.829999715089798E-2</v>
-      </c>
-      <c r="I13">
-        <v>8.8899999856948853E-2</v>
-      </c>
-      <c r="J13">
-        <v>8.8699996471405029E-2</v>
-      </c>
-      <c r="K13">
-        <v>8.8899999856948853E-2</v>
-      </c>
-      <c r="L13">
-        <v>8.959999680519104E-2</v>
-      </c>
-      <c r="M13">
-        <v>8.959999680519104E-2</v>
-      </c>
-      <c r="N13">
-        <v>9.0099997818470001E-2</v>
-      </c>
-      <c r="O13">
-        <v>9.0700000524520874E-2</v>
-      </c>
-      <c r="P13">
-        <v>9.1300003230571747E-2</v>
-      </c>
-      <c r="Q13">
-        <v>9.2100001871585846E-2</v>
-      </c>
-      <c r="R13">
-        <v>9.2699997127056122E-2</v>
-      </c>
-      <c r="S13">
-        <v>9.3500003218650818E-2</v>
-      </c>
-      <c r="T13">
-        <v>9.4300001859664917E-2</v>
-      </c>
-      <c r="U13">
-        <v>9.5299996435642242E-2</v>
-      </c>
-      <c r="V13">
-        <v>9.6400000154972076E-2</v>
-      </c>
-      <c r="W13">
-        <v>9.6900001168251038E-2</v>
-      </c>
-      <c r="X13">
-        <v>9.8499998450279236E-2</v>
-      </c>
-      <c r="Y13">
-        <v>9.9100001156330109E-2</v>
-      </c>
-      <c r="Z13">
-        <v>0.10069999843835831</v>
-      </c>
-      <c r="AA13">
-        <v>0.10189999639987946</v>
-      </c>
-      <c r="AB13">
-        <v>0.10270000249147415</v>
-      </c>
-      <c r="AC13">
-        <v>0.10429999977350235</v>
-      </c>
-      <c r="AD13">
-        <v>0.10540000349283218</v>
-      </c>
-      <c r="AE13">
-        <v>0.1062999963760376</v>
-      </c>
-      <c r="AF13">
-        <v>0.10809999704360962</v>
-      </c>
-      <c r="AG13">
-        <v>0.10949999839067459</v>
-      </c>
-      <c r="AH13">
-        <v>0.11110000312328339</v>
-      </c>
-      <c r="AI13">
-        <v>0.11259999871253967</v>
-      </c>
-      <c r="AJ13">
-        <v>0.11400000005960464</v>
-      </c>
-      <c r="AK13">
-        <v>0.11599999666213989</v>
-      </c>
-      <c r="AL13">
-        <v>0.11749999970197678</v>
-      </c>
-      <c r="AM13">
-        <v>0.11980000138282776</v>
-      </c>
-      <c r="AN13">
-        <v>0.12080000340938568</v>
-      </c>
-      <c r="AO13">
-        <v>0.12309999763965607</v>
-      </c>
-      <c r="AP13">
-        <v>0.12559999525547028</v>
-      </c>
-      <c r="AQ13">
-        <v>0.1273999959230423</v>
-      </c>
-      <c r="AR13">
-        <v>0.13079999387264252</v>
-      </c>
-      <c r="AS13">
-        <v>0.13349999487400055</v>
-      </c>
-      <c r="AT13">
-        <v>0.1363999992609024</v>
-      </c>
-      <c r="AU13">
-        <v>0.13910000026226044</v>
-      </c>
-      <c r="AV13">
-        <v>0.14180000126361847</v>
-      </c>
-      <c r="AW13">
-        <v>0.14579999446868896</v>
-      </c>
-      <c r="AX13">
-        <v>0.15099999308586121</v>
-      </c>
-      <c r="AY13">
-        <v>0.15350000560283661</v>
-      </c>
-      <c r="AZ13">
-        <v>0.15919999778270721</v>
-      </c>
-      <c r="BA13">
-        <v>0.16230000555515289</v>
-      </c>
-      <c r="BB13">
-        <v>0.16789999604225159</v>
-      </c>
-      <c r="BC13">
-        <v>0.17280000448226929</v>
-      </c>
-      <c r="BD13">
-        <v>0.17829999327659607</v>
-      </c>
-      <c r="BE13">
-        <v>0.18379999697208405</v>
-      </c>
-      <c r="BF13">
-        <v>0.19009999930858612</v>
-      </c>
-      <c r="BG13">
-        <v>0.19689999520778656</v>
-      </c>
-      <c r="BH13">
-        <v>0.20260000228881836</v>
-      </c>
-      <c r="BI13">
-        <v>0.20870000123977661</v>
-      </c>
-      <c r="BJ13">
-        <v>0.21469999849796295</v>
-      </c>
-      <c r="BK13">
-        <v>0.22050000727176666</v>
-      </c>
-      <c r="BL13">
-        <v>0.22679999470710754</v>
-      </c>
-      <c r="BM13">
-        <v>0.23280000686645508</v>
-      </c>
-      <c r="BN13">
-        <v>0.23950000107288361</v>
-      </c>
-      <c r="BO13">
-        <v>0.24400000274181366</v>
-      </c>
-      <c r="BP13">
-        <v>0.25040000677108765</v>
-      </c>
-      <c r="BQ13">
-        <v>0.25380000472068787</v>
-      </c>
-      <c r="BR13">
-        <v>0.26199999451637268</v>
-      </c>
-      <c r="BS13">
-        <v>0.26750001311302185</v>
-      </c>
-      <c r="BT13">
-        <v>0.27419999241828918</v>
-      </c>
-      <c r="BU13">
-        <v>0.28119999170303345</v>
-      </c>
-      <c r="BV13">
-        <v>0.28400000929832458</v>
-      </c>
-      <c r="BW13">
-        <v>0.29269999265670776</v>
-      </c>
-      <c r="BX13">
-        <v>0.29769998788833618</v>
-      </c>
-      <c r="BY13">
-        <v>0.30239999294281006</v>
-      </c>
-      <c r="BZ13">
-        <v>0.30790001153945923</v>
-      </c>
-      <c r="CA13">
-        <v>0.31349998712539673</v>
-      </c>
-      <c r="CB13">
-        <v>0.31779998540878296</v>
-      </c>
-      <c r="CC13">
-        <v>0.32370001077651978</v>
-      </c>
-      <c r="CD13">
-        <v>0.32989999651908875</v>
-      </c>
-      <c r="CE13">
-        <v>0.33430001139640808</v>
-      </c>
-      <c r="CF13">
-        <v>0.34029999375343323</v>
-      </c>
-      <c r="CG13">
-        <v>0.34450000524520874</v>
-      </c>
-      <c r="CH13">
-        <v>0.34940001368522644</v>
-      </c>
-      <c r="CI13">
-        <v>0.35449999570846558</v>
-      </c>
-      <c r="CJ13">
-        <v>0.35899999737739563</v>
-      </c>
-      <c r="CK13">
-        <v>0.36059999465942383</v>
-      </c>
-      <c r="CL13">
-        <v>0.36539998650550842</v>
-      </c>
-      <c r="CM13">
-        <v>0.36719998717308044</v>
-      </c>
-      <c r="CN13">
-        <v>0.37110000848770142</v>
-      </c>
-      <c r="CO13">
-        <v>0.37229999899864197</v>
-      </c>
-      <c r="CP13">
-        <v>0.37520000338554382</v>
-      </c>
-      <c r="CQ13">
-        <v>0.37610000371932983</v>
-      </c>
-      <c r="CR13">
-        <v>0.37630000710487366</v>
-      </c>
-      <c r="CS13">
-        <v>0.37860000133514404</v>
-      </c>
-      <c r="CT13">
-        <v>0.37900000810623169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>8.6580055373555898E-2</v>
-      </c>
-      <c r="C14">
-        <v>8.6445274249254703E-2</v>
-      </c>
-      <c r="D14">
-        <v>8.6159950662911294E-2</v>
-      </c>
-      <c r="E14">
-        <v>8.56272670047631E-2</v>
-      </c>
-      <c r="F14">
-        <v>8.7057819190269795E-2</v>
-      </c>
-      <c r="G14">
-        <v>8.7088164422367803E-2</v>
-      </c>
-      <c r="H14">
-        <v>8.7573225607382704E-2</v>
-      </c>
-      <c r="I14">
-        <v>8.7363123045290106E-2</v>
-      </c>
-      <c r="J14">
-        <v>8.7331560160773203E-2</v>
-      </c>
-      <c r="K14">
-        <v>8.9071173170888696E-2</v>
-      </c>
-      <c r="L14">
-        <v>9.0076103723410794E-2</v>
-      </c>
-      <c r="M14">
-        <v>8.9317136529254604E-2</v>
-      </c>
-      <c r="N14">
-        <v>8.9948073833884507E-2</v>
-      </c>
-      <c r="O14">
-        <v>9.1207905545638596E-2</v>
-      </c>
-      <c r="P14">
-        <v>9.1528772489208904E-2</v>
-      </c>
-      <c r="Q14">
-        <v>9.2765868406670393E-2</v>
-      </c>
-      <c r="R14">
-        <v>9.4836586579324395E-2</v>
-      </c>
-      <c r="S14">
-        <v>9.5104063350434406E-2</v>
-      </c>
-      <c r="T14">
-        <v>9.7103562669507204E-2</v>
-      </c>
-      <c r="U14">
-        <v>9.79441635294728E-2</v>
-      </c>
-      <c r="V14">
-        <v>9.9742658441095797E-2</v>
-      </c>
-      <c r="W14">
-        <v>0.102421575217786</v>
-      </c>
-      <c r="X14">
-        <v>0.104848273482658</v>
-      </c>
-      <c r="Y14">
-        <v>0.104973718472165</v>
-      </c>
-      <c r="Z14">
-        <v>0.107272746277066</v>
-      </c>
-      <c r="AA14">
-        <v>0.111807112257402</v>
-      </c>
-      <c r="AB14">
-        <v>0.115100846400049</v>
-      </c>
-      <c r="AC14">
-        <v>0.117854755234043</v>
-      </c>
-      <c r="AD14">
-        <v>0.122858564756938</v>
-      </c>
-      <c r="AE14">
-        <v>0.12538109161198299</v>
-      </c>
-      <c r="AF14">
-        <v>0.130663547804513</v>
-      </c>
-      <c r="AG14">
-        <v>0.13747398462358801</v>
-      </c>
-      <c r="AH14">
-        <v>0.146174114855596</v>
-      </c>
-      <c r="AI14">
-        <v>0.15569605674922499</v>
-      </c>
-      <c r="AJ14">
-        <v>0.16611725581863601</v>
-      </c>
-      <c r="AK14">
-        <v>0.17766748631589599</v>
-      </c>
-      <c r="AL14">
-        <v>0.18886368499255099</v>
-      </c>
-      <c r="AM14">
-        <v>0.206705363636985</v>
-      </c>
-      <c r="AN14">
-        <v>0.212642169729926</v>
-      </c>
-      <c r="AO14">
-        <v>0.23135823227386601</v>
-      </c>
-      <c r="AP14">
-        <v>0.24124585978470001</v>
-      </c>
-      <c r="AQ14">
-        <v>0.252193511914098</v>
-      </c>
-      <c r="AR14">
-        <v>0.26190095244457701</v>
-      </c>
-      <c r="AS14">
-        <v>0.27981727107467602</v>
-      </c>
-      <c r="AT14">
-        <v>0.28570388782015699</v>
-      </c>
-      <c r="AU14">
-        <v>0.29456376206156398</v>
-      </c>
-      <c r="AV14">
-        <v>0.301078880798058</v>
-      </c>
-      <c r="AW14">
-        <v>0.31545852274426001</v>
-      </c>
-      <c r="AX14">
-        <v>0.32090364738045501</v>
-      </c>
-      <c r="AY14">
-        <v>0.33248613919068698</v>
-      </c>
-      <c r="AZ14">
-        <v>0.34129943655407802</v>
-      </c>
-      <c r="BA14">
-        <v>0.34844093046333202</v>
-      </c>
-      <c r="BB14">
-        <v>0.35859323017517902</v>
-      </c>
-      <c r="BC14">
-        <v>0.37160307517114899</v>
-      </c>
-      <c r="BD14">
-        <v>0.38209943439240301</v>
-      </c>
-      <c r="BE14">
-        <v>0.38831639700119902</v>
-      </c>
-      <c r="BF14">
-        <v>0.39479980029495698</v>
-      </c>
-      <c r="BG14">
-        <v>0.39759474529201899</v>
-      </c>
-      <c r="BH14">
-        <v>0.40402800975690201</v>
-      </c>
-      <c r="BI14">
-        <v>0.410472574190485</v>
-      </c>
-      <c r="BJ14">
-        <v>0.41928101933754602</v>
-      </c>
-      <c r="BK14">
-        <v>0.42505246158847598</v>
-      </c>
-      <c r="BL14">
-        <v>0.42240538300427</v>
-      </c>
-      <c r="BM14">
-        <v>0.43098993294822902</v>
-      </c>
-      <c r="BN14">
-        <v>0.43071189884573802</v>
-      </c>
-      <c r="BO14">
-        <v>0.43851512521561797</v>
-      </c>
-      <c r="BP14">
-        <v>0.43629796504000601</v>
-      </c>
-      <c r="BQ14">
-        <v>0.43580708099579601</v>
-      </c>
-      <c r="BR14">
-        <v>0.44077257096383599</v>
-      </c>
-      <c r="BS14">
-        <v>0.44031849391529698</v>
-      </c>
-      <c r="BT14">
-        <v>0.438986827009616</v>
-      </c>
-      <c r="BU14">
-        <v>0.43938133877104701</v>
-      </c>
-      <c r="BV14">
-        <v>0.44267762072645001</v>
-      </c>
-      <c r="BW14">
-        <v>0.43846775732048898</v>
-      </c>
-      <c r="BX14">
-        <v>0.442315196245614</v>
-      </c>
-      <c r="BY14">
-        <v>0.43760638133938501</v>
-      </c>
-      <c r="BZ14">
-        <v>0.43935168106954198</v>
-      </c>
-      <c r="CA14">
-        <v>0.445102021664183</v>
-      </c>
-      <c r="CB14">
-        <v>0.43891502447210401</v>
-      </c>
-      <c r="CC14">
-        <v>0.43605042332775501</v>
-      </c>
-      <c r="CD14">
-        <v>0.43385652134164099</v>
-      </c>
-      <c r="CE14">
-        <v>0.43279702271006598</v>
-      </c>
-      <c r="CF14">
-        <v>0.43613588326770197</v>
-      </c>
-      <c r="CG14">
-        <v>0.43117419884407998</v>
-      </c>
-      <c r="CH14">
-        <v>0.430191236127692</v>
-      </c>
-      <c r="CI14">
-        <v>0.42856032226459301</v>
-      </c>
-      <c r="CJ14">
-        <v>0.435729651305309</v>
-      </c>
-      <c r="CK14">
-        <v>0.42815661032041802</v>
-      </c>
-      <c r="CL14">
-        <v>0.43277391346129102</v>
-      </c>
-      <c r="CM14">
-        <v>0.42992931343152002</v>
-      </c>
-      <c r="CN14">
-        <v>0.429990962884301</v>
-      </c>
-      <c r="CO14">
-        <v>0.42898928841073902</v>
-      </c>
-      <c r="CP14">
-        <v>0.42837793637462301</v>
-      </c>
-      <c r="CQ14">
-        <v>0.42423584247699198</v>
-      </c>
-      <c r="CR14">
-        <v>0.42825549231414201</v>
-      </c>
-      <c r="CS14">
-        <v>0.42211339571496198</v>
-      </c>
-      <c r="CT14">
-        <v>0.42290705256602401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>8.6400002241134644E-2</v>
-      </c>
-      <c r="C15">
-        <v>8.619999885559082E-2</v>
-      </c>
-      <c r="D15">
-        <v>8.6800001561641693E-2</v>
-      </c>
-      <c r="E15">
-        <v>8.619999885559082E-2</v>
-      </c>
-      <c r="F15">
-        <v>8.6900003254413605E-2</v>
-      </c>
-      <c r="G15">
-        <v>8.6999997496604919E-2</v>
-      </c>
-      <c r="H15">
-        <v>8.7499998509883881E-2</v>
-      </c>
-      <c r="I15">
-        <v>8.789999783039093E-2</v>
-      </c>
-      <c r="J15">
-        <v>8.8200002908706665E-2</v>
-      </c>
-      <c r="K15">
-        <v>8.8600002229213715E-2</v>
-      </c>
-      <c r="L15">
-        <v>8.9299999177455902E-2</v>
-      </c>
-      <c r="M15">
-        <v>8.9500002562999725E-2</v>
-      </c>
-      <c r="N15">
-        <v>9.0400002896785736E-2</v>
-      </c>
-      <c r="O15">
-        <v>9.1600000858306885E-2</v>
-      </c>
-      <c r="P15">
-        <v>9.2200003564357758E-2</v>
-      </c>
-      <c r="Q15">
-        <v>9.3000002205371857E-2</v>
-      </c>
-      <c r="R15">
-        <v>9.4300001859664917E-2</v>
-      </c>
-      <c r="S15">
-        <v>9.5299996435642242E-2</v>
-      </c>
-      <c r="T15">
-        <v>9.6799999475479126E-2</v>
-      </c>
-      <c r="U15">
-        <v>9.8700001835823059E-2</v>
-      </c>
-      <c r="V15">
-        <v>0.10029999911785126</v>
-      </c>
-      <c r="W15">
-        <v>0.10189999639987946</v>
-      </c>
-      <c r="X15">
-        <v>0.10400000214576721</v>
-      </c>
-      <c r="Y15">
-        <v>0.10570000112056732</v>
-      </c>
-      <c r="Z15">
-        <v>0.10819999873638153</v>
-      </c>
-      <c r="AA15">
-        <v>0.11140000075101852</v>
-      </c>
-      <c r="AB15">
-        <v>0.11439999938011169</v>
-      </c>
-      <c r="AC15">
-        <v>0.11779999732971191</v>
-      </c>
-      <c r="AD15">
-        <v>0.12210000306367874</v>
-      </c>
-      <c r="AE15">
-        <v>0.12649999558925629</v>
-      </c>
-      <c r="AF15">
-        <v>0.1315000057220459</v>
-      </c>
-      <c r="AG15">
-        <v>0.13850000500679016</v>
-      </c>
-      <c r="AH15">
-        <v>0.14749999344348907</v>
-      </c>
-      <c r="AI15">
-        <v>0.15530000627040863</v>
-      </c>
-      <c r="AJ15">
-        <v>0.16570000350475311</v>
-      </c>
-      <c r="AK15">
-        <v>0.17870000004768372</v>
-      </c>
-      <c r="AL15">
-        <v>0.19040000438690186</v>
-      </c>
-      <c r="AM15">
-        <v>0.20600000023841858</v>
-      </c>
-      <c r="AN15">
-        <v>0.21420000493526459</v>
-      </c>
-      <c r="AO15">
-        <v>0.23059999942779541</v>
-      </c>
-      <c r="AP15">
-        <v>0.24060000479221344</v>
-      </c>
-      <c r="AQ15">
-        <v>0.25279998779296875</v>
-      </c>
-      <c r="AR15">
-        <v>0.26420000195503235</v>
-      </c>
-      <c r="AS15">
-        <v>0.27730000019073486</v>
-      </c>
-      <c r="AT15">
-        <v>0.28369998931884766</v>
-      </c>
-      <c r="AU15">
-        <v>0.29670000076293945</v>
-      </c>
-      <c r="AV15">
-        <v>0.30390000343322754</v>
-      </c>
-      <c r="AW15">
-        <v>0.31369999051094055</v>
-      </c>
-      <c r="AX15">
-        <v>0.32199999690055847</v>
-      </c>
-      <c r="AY15">
-        <v>0.33160001039505005</v>
-      </c>
-      <c r="AZ15">
-        <v>0.34209999442100525</v>
-      </c>
-      <c r="BA15">
-        <v>0.34869998693466187</v>
-      </c>
-      <c r="BB15">
-        <v>0.36070001125335693</v>
-      </c>
-      <c r="BC15">
-        <v>0.37149998545646667</v>
-      </c>
-      <c r="BD15">
-        <v>0.37940001487731934</v>
-      </c>
-      <c r="BE15">
-        <v>0.3864000141620636</v>
-      </c>
-      <c r="BF15">
-        <v>0.39410001039505005</v>
-      </c>
-      <c r="BG15">
-        <v>0.40119999647140503</v>
-      </c>
-      <c r="BH15">
-        <v>0.40459999442100525</v>
-      </c>
-      <c r="BI15">
-        <v>0.41040000319480896</v>
-      </c>
-      <c r="BJ15">
-        <v>0.4171999990940094</v>
-      </c>
-      <c r="BK15">
-        <v>0.42550000548362732</v>
-      </c>
-      <c r="BL15">
-        <v>0.4253000020980835</v>
-      </c>
-      <c r="BM15">
-        <v>0.43040001392364502</v>
-      </c>
-      <c r="BN15">
-        <v>0.43180000782012939</v>
-      </c>
-      <c r="BO15">
-        <v>0.43639999628067017</v>
-      </c>
-      <c r="BP15">
-        <v>0.43799999356269836</v>
-      </c>
-      <c r="BQ15">
-        <v>0.43990001082420349</v>
-      </c>
-      <c r="BR15">
-        <v>0.43849998712539673</v>
-      </c>
-      <c r="BS15">
-        <v>0.44200000166893005</v>
-      </c>
-      <c r="BT15">
-        <v>0.44190001487731934</v>
-      </c>
-      <c r="BU15">
-        <v>0.44179999828338623</v>
-      </c>
-      <c r="BV15">
-        <v>0.44209998846054077</v>
-      </c>
-      <c r="BW15">
-        <v>0.44159999489784241</v>
-      </c>
-      <c r="BX15">
-        <v>0.44369998574256897</v>
-      </c>
-      <c r="BY15">
-        <v>0.44119998812675476</v>
-      </c>
-      <c r="BZ15">
-        <v>0.44249999523162842</v>
-      </c>
-      <c r="CA15">
-        <v>0.44159999489784241</v>
-      </c>
-      <c r="CB15">
-        <v>0.44130000472068787</v>
-      </c>
-      <c r="CC15">
-        <v>0.43819999694824219</v>
-      </c>
-      <c r="CD15">
-        <v>0.43810001015663147</v>
-      </c>
-      <c r="CE15">
-        <v>0.43619999289512634</v>
-      </c>
-      <c r="CF15">
-        <v>0.43659999966621399</v>
-      </c>
-      <c r="CG15">
-        <v>0.43360000848770142</v>
-      </c>
-      <c r="CH15">
-        <v>0.43250000476837158</v>
-      </c>
-      <c r="CI15">
-        <v>0.43050000071525574</v>
-      </c>
-      <c r="CJ15">
-        <v>0.43160000443458557</v>
-      </c>
-      <c r="CK15">
-        <v>0.43040001392364502</v>
-      </c>
-      <c r="CL15">
-        <v>0.42910000681877136</v>
-      </c>
-      <c r="CM15">
-        <v>0.42770001292228699</v>
-      </c>
-      <c r="CN15">
-        <v>0.42950001358985901</v>
-      </c>
-      <c r="CO15">
-        <v>0.42719998955726624</v>
-      </c>
-      <c r="CP15">
-        <v>0.42739999294281006</v>
-      </c>
-      <c r="CQ15">
-        <v>0.42689999938011169</v>
-      </c>
-      <c r="CR15">
-        <v>0.42669999599456787</v>
-      </c>
-      <c r="CS15">
-        <v>0.42539998888969421</v>
-      </c>
-      <c r="CT15">
-        <v>0.42379999160766602</v>
-      </c>
-    </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>8.789999783039093E-2</v>
-      </c>
-      <c r="C16">
-        <v>8.6900003254413605E-2</v>
-      </c>
-      <c r="D16">
-        <v>8.7700001895427704E-2</v>
-      </c>
-      <c r="E16">
-        <v>8.7200000882148743E-2</v>
-      </c>
-      <c r="F16">
-        <v>8.7200000882148743E-2</v>
-      </c>
-      <c r="G16">
-        <v>8.7300002574920654E-2</v>
-      </c>
-      <c r="H16">
-        <v>8.7499998509883881E-2</v>
-      </c>
-      <c r="I16">
-        <v>8.7700001895427704E-2</v>
-      </c>
-      <c r="J16">
-        <v>8.8200002908706665E-2</v>
-      </c>
-      <c r="K16">
-        <v>8.8399998843669891E-2</v>
-      </c>
-      <c r="L16">
-        <v>8.919999748468399E-2</v>
-      </c>
-      <c r="M16">
-        <v>8.9299999177455902E-2</v>
-      </c>
-      <c r="N16">
-        <v>9.0199999511241913E-2</v>
-      </c>
-      <c r="O16">
-        <v>9.0700000524520874E-2</v>
-      </c>
-      <c r="P16">
-        <v>9.1899998486042023E-2</v>
-      </c>
-      <c r="Q16">
-        <v>9.2799998819828033E-2</v>
-      </c>
-      <c r="R16">
-        <v>9.4200000166893005E-2</v>
-      </c>
-      <c r="S16">
-        <v>9.5399998128414154E-2</v>
-      </c>
-      <c r="T16">
-        <v>9.7000002861022949E-2</v>
-      </c>
-      <c r="U16">
-        <v>9.830000251531601E-2</v>
-      </c>
-      <c r="V16">
-        <v>0.10010000318288803</v>
-      </c>
-      <c r="W16">
-        <v>0.10209999978542328</v>
-      </c>
-      <c r="X16">
-        <v>0.10459999740123749</v>
-      </c>
-      <c r="Y16">
-        <v>0.10710000246763229</v>
-      </c>
-      <c r="Z16">
-        <v>0.10999999940395355</v>
-      </c>
-      <c r="AA16">
-        <v>0.11309999972581863</v>
-      </c>
-      <c r="AB16">
-        <v>0.1160999983549118</v>
-      </c>
-      <c r="AC16">
-        <v>0.11919999867677689</v>
-      </c>
-      <c r="AD16">
-        <v>0.12300000339746475</v>
-      </c>
-      <c r="AE16">
-        <v>0.12780000269412994</v>
-      </c>
-      <c r="AF16">
-        <v>0.13230000436306</v>
-      </c>
-      <c r="AG16">
-        <v>0.13840000331401825</v>
-      </c>
-      <c r="AH16">
-        <v>0.14409999549388885</v>
-      </c>
-      <c r="AI16">
-        <v>0.15070000290870667</v>
-      </c>
-      <c r="AJ16">
-        <v>0.15770000219345093</v>
-      </c>
-      <c r="AK16">
-        <v>0.16570000350475311</v>
-      </c>
-      <c r="AL16">
-        <v>0.17319999635219574</v>
-      </c>
-      <c r="AM16">
-        <v>0.18310000002384186</v>
-      </c>
-      <c r="AN16">
-        <v>0.19259999692440033</v>
-      </c>
-      <c r="AO16">
-        <v>0.20389999449253082</v>
-      </c>
-      <c r="AP16">
-        <v>0.21639999747276306</v>
-      </c>
-      <c r="AQ16">
-        <v>0.22759999334812164</v>
-      </c>
-      <c r="AR16">
-        <v>0.23890000581741333</v>
-      </c>
-      <c r="AS16">
-        <v>0.24959999322891235</v>
-      </c>
-      <c r="AT16">
-        <v>0.25909999012947083</v>
-      </c>
-      <c r="AU16">
-        <v>0.27000001072883606</v>
-      </c>
-      <c r="AV16">
-        <v>0.28279998898506165</v>
-      </c>
-      <c r="AW16">
-        <v>0.29150000214576721</v>
-      </c>
-      <c r="AX16">
-        <v>0.30149999260902405</v>
-      </c>
-      <c r="AY16">
-        <v>0.31209999322891235</v>
-      </c>
-      <c r="AZ16">
-        <v>0.32220000028610229</v>
-      </c>
-      <c r="BA16">
-        <v>0.3343999981880188</v>
-      </c>
-      <c r="BB16">
-        <v>0.34380000829696655</v>
-      </c>
-      <c r="BC16">
-        <v>0.35330000519752502</v>
-      </c>
-      <c r="BD16">
-        <v>0.36050000786781311</v>
-      </c>
-      <c r="BE16">
-        <v>0.37059998512268066</v>
-      </c>
-      <c r="BF16">
-        <v>0.37810000777244568</v>
-      </c>
-      <c r="BG16">
-        <v>0.38820001482963562</v>
-      </c>
-      <c r="BH16">
-        <v>0.39440000057220459</v>
-      </c>
-      <c r="BI16">
-        <v>0.40209999680519104</v>
-      </c>
-      <c r="BJ16">
-        <v>0.40689998865127563</v>
-      </c>
-      <c r="BK16">
-        <v>0.41299998760223389</v>
-      </c>
-      <c r="BL16">
-        <v>0.41909998655319214</v>
-      </c>
-      <c r="BM16">
-        <v>0.42309999465942383</v>
-      </c>
-      <c r="BN16">
-        <v>0.42660000920295715</v>
-      </c>
-      <c r="BO16">
-        <v>0.42969998717308044</v>
-      </c>
-      <c r="BP16">
-        <v>0.43250000476837158</v>
-      </c>
-      <c r="BQ16">
-        <v>0.43450000882148743</v>
-      </c>
-      <c r="BR16">
-        <v>0.43720000982284546</v>
-      </c>
-      <c r="BS16">
-        <v>0.4359000027179718</v>
-      </c>
-      <c r="BT16">
-        <v>0.43799999356269836</v>
-      </c>
-      <c r="BU16">
-        <v>0.43990001082420349</v>
-      </c>
-      <c r="BV16">
-        <v>0.44049999117851257</v>
-      </c>
-      <c r="BW16">
-        <v>0.44179999828338623</v>
-      </c>
-      <c r="BX16">
-        <v>0.44139999151229858</v>
-      </c>
-      <c r="BY16">
-        <v>0.4408000111579895</v>
-      </c>
-      <c r="BZ16">
-        <v>0.43849998712539673</v>
-      </c>
-      <c r="CA16">
-        <v>0.43830001354217529</v>
-      </c>
-      <c r="CB16">
-        <v>0.43779999017715454</v>
-      </c>
-      <c r="CC16">
-        <v>0.43849998712539673</v>
-      </c>
-      <c r="CD16">
-        <v>0.43799999356269836</v>
-      </c>
-      <c r="CE16">
-        <v>0.43840000033378601</v>
-      </c>
-      <c r="CF16">
-        <v>0.4341999888420105</v>
-      </c>
-      <c r="CG16">
-        <v>0.43509998917579651</v>
-      </c>
-      <c r="CH16">
-        <v>0.4343000054359436</v>
-      </c>
-      <c r="CI16">
-        <v>0.43399998545646667</v>
-      </c>
-      <c r="CJ16">
-        <v>0.43200001120567322</v>
-      </c>
-      <c r="CK16">
-        <v>0.43029999732971191</v>
-      </c>
-      <c r="CL16">
-        <v>0.43140000104904175</v>
-      </c>
-      <c r="CM16">
-        <v>0.43050000071525574</v>
-      </c>
-      <c r="CN16">
-        <v>0.42829999327659607</v>
-      </c>
-      <c r="CO16">
-        <v>0.42910000681877136</v>
-      </c>
-      <c r="CP16">
-        <v>0.428600013256073</v>
-      </c>
-      <c r="CQ16">
-        <v>0.42800000309944153</v>
-      </c>
-      <c r="CR16">
-        <v>0.42620000243186951</v>
-      </c>
-      <c r="CS16">
-        <v>0.42590001225471497</v>
-      </c>
-      <c r="CT16">
-        <v>0.42559999227523804</v>
-      </c>
-    </row>
-    <row r="17" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>8.6961912040598402E-2</v>
-      </c>
-      <c r="C17">
-        <v>8.7580114296155406E-2</v>
-      </c>
-      <c r="D17">
-        <v>8.8202729143825306E-2</v>
-      </c>
-      <c r="E17">
-        <v>8.7736214866256296E-2</v>
-      </c>
-      <c r="F17">
-        <v>8.7448971756335203E-2</v>
-      </c>
-      <c r="G17">
-        <v>8.7384677651815096E-2</v>
-      </c>
-      <c r="H17">
-        <v>8.7198227822147298E-2</v>
-      </c>
-      <c r="I17">
-        <v>8.7655388871836201E-2</v>
-      </c>
-      <c r="J17">
-        <v>8.7765676607558504E-2</v>
-      </c>
-      <c r="K17">
-        <v>8.7918326638172103E-2</v>
-      </c>
-      <c r="L17">
-        <v>8.7744057412818099E-2</v>
-      </c>
-      <c r="M17">
-        <v>8.7269944207117603E-2</v>
-      </c>
-      <c r="N17">
-        <v>8.8548164071556898E-2</v>
-      </c>
-      <c r="O17">
-        <v>8.84837554470011E-2</v>
-      </c>
-      <c r="P17">
-        <v>8.8219091681256107E-2</v>
-      </c>
-      <c r="Q17">
-        <v>8.8449204217728006E-2</v>
-      </c>
-      <c r="R17">
-        <v>8.8769491385111296E-2</v>
-      </c>
-      <c r="S17">
-        <v>8.9917918327771601E-2</v>
-      </c>
-      <c r="T17">
-        <v>8.9151847438795798E-2</v>
-      </c>
-      <c r="U17">
-        <v>8.9535087011594502E-2</v>
-      </c>
-      <c r="V17">
-        <v>9.0632492354842803E-2</v>
-      </c>
-      <c r="W17">
-        <v>9.0758378454910901E-2</v>
-      </c>
-      <c r="X17">
-        <v>8.9903272844852195E-2</v>
-      </c>
-      <c r="Y17">
-        <v>9.0784113686742093E-2</v>
-      </c>
-      <c r="Z17">
-        <v>9.0560364793121503E-2</v>
-      </c>
-      <c r="AA17">
-        <v>9.1148061102428499E-2</v>
-      </c>
-      <c r="AB17">
-        <v>9.1440701682138803E-2</v>
-      </c>
-      <c r="AC17">
-        <v>9.0078410330131198E-2</v>
-      </c>
-      <c r="AD17">
-        <v>9.0350487764265103E-2</v>
-      </c>
-      <c r="AE17">
-        <v>9.0762519222522195E-2</v>
-      </c>
-      <c r="AF17">
-        <v>9.07679788396515E-2</v>
-      </c>
-      <c r="AG17">
-        <v>9.1521715117682104E-2</v>
-      </c>
-      <c r="AH17">
-        <v>9.1027421988350593E-2</v>
-      </c>
-      <c r="AI17">
-        <v>9.1230737256855501E-2</v>
-      </c>
-      <c r="AJ17">
-        <v>9.1178144071099504E-2</v>
-      </c>
-      <c r="AK17">
-        <v>9.2406965773782004E-2</v>
-      </c>
-      <c r="AL17">
-        <v>9.1432677356070594E-2</v>
-      </c>
-      <c r="AM17">
-        <v>9.2365577571346905E-2</v>
-      </c>
-      <c r="AN17">
-        <v>9.2780472499676803E-2</v>
-      </c>
-      <c r="AO17">
-        <v>9.2160430540098898E-2</v>
-      </c>
-      <c r="AP17">
-        <v>9.3161114127063696E-2</v>
-      </c>
-      <c r="AQ17">
-        <v>9.1764921550647902E-2</v>
-      </c>
-      <c r="AR17">
-        <v>9.2095761169318002E-2</v>
-      </c>
-      <c r="AS17">
-        <v>9.3251383488485495E-2</v>
-      </c>
-      <c r="AT17">
-        <v>9.3473622689306701E-2</v>
-      </c>
-      <c r="AU17">
-        <v>9.2822766741057494E-2</v>
-      </c>
-      <c r="AV17">
-        <v>9.2316673434078497E-2</v>
-      </c>
-      <c r="AW17">
-        <v>9.3034755284571002E-2</v>
-      </c>
-      <c r="AX17">
-        <v>9.2374346635229407E-2</v>
-      </c>
-      <c r="AY17">
-        <v>9.4007591262593407E-2</v>
-      </c>
-      <c r="AZ17">
-        <v>9.4104463782687803E-2</v>
-      </c>
-      <c r="BA17">
-        <v>9.3598410550129699E-2</v>
-      </c>
-      <c r="BB17">
-        <v>9.3958514477774702E-2</v>
-      </c>
-      <c r="BC17">
-        <v>9.2712475353652998E-2</v>
-      </c>
-      <c r="BD17">
-        <v>9.3789426009546997E-2</v>
-      </c>
-      <c r="BE17">
-        <v>9.3365741223141299E-2</v>
-      </c>
-      <c r="BF17">
-        <v>9.4862381506173904E-2</v>
-      </c>
-      <c r="BG17">
-        <v>9.4089600515970206E-2</v>
-      </c>
-      <c r="BH17">
-        <v>9.4436269385212407E-2</v>
-      </c>
-      <c r="BI17">
-        <v>9.4499965789164697E-2</v>
-      </c>
-      <c r="BJ17">
-        <v>9.4015871528081302E-2</v>
-      </c>
-      <c r="BK17">
-        <v>9.51320469962261E-2</v>
-      </c>
-      <c r="BL17">
-        <v>9.55596497642201E-2</v>
-      </c>
-      <c r="BM17">
-        <v>9.4693686769903501E-2</v>
-      </c>
-      <c r="BN17">
-        <v>9.4802962228171306E-2</v>
-      </c>
-      <c r="BO17">
-        <v>9.5374678169794697E-2</v>
-      </c>
-      <c r="BP17">
-        <v>9.4187712273130206E-2</v>
-      </c>
-      <c r="BQ17">
-        <v>9.4630763623825304E-2</v>
-      </c>
-      <c r="BR17">
-        <v>9.5310988860361101E-2</v>
-      </c>
-      <c r="BS17">
-        <v>9.5984630224051903E-2</v>
-      </c>
-      <c r="BT17">
-        <v>9.47316610174741E-2</v>
-      </c>
-      <c r="BU17">
-        <v>9.4433372160276696E-2</v>
-      </c>
-      <c r="BV17">
-        <v>9.54665586268688E-2</v>
-      </c>
-      <c r="BW17">
-        <v>9.5599683247855602E-2</v>
-      </c>
-      <c r="BX17">
-        <v>9.5410888716937106E-2</v>
-      </c>
-      <c r="BY17">
-        <v>9.5220425785684196E-2</v>
-      </c>
-      <c r="BZ17">
-        <v>9.5830909532532593E-2</v>
-      </c>
-      <c r="CA17">
-        <v>9.5504689191407199E-2</v>
-      </c>
-      <c r="CB17">
-        <v>9.5463998680850398E-2</v>
-      </c>
-      <c r="CC17">
-        <v>9.5417725940543402E-2</v>
-      </c>
-      <c r="CD17">
-        <v>9.6309307874171093E-2</v>
-      </c>
-      <c r="CE17">
-        <v>9.4696832626767299E-2</v>
-      </c>
-      <c r="CF17">
-        <v>9.5796537539316606E-2</v>
-      </c>
-      <c r="CG17">
-        <v>9.58926185944214E-2</v>
-      </c>
-      <c r="CH17">
-        <v>9.5207014826626996E-2</v>
-      </c>
-      <c r="CI17">
-        <v>9.6279541267293101E-2</v>
-      </c>
-      <c r="CJ17">
-        <v>9.56154231683468E-2</v>
-      </c>
-      <c r="CK17">
-        <v>9.5924571910726397E-2</v>
-      </c>
-      <c r="CL17">
-        <v>9.5057034975187901E-2</v>
-      </c>
-      <c r="CM17">
-        <v>9.6139193827946501E-2</v>
-      </c>
-      <c r="CN17">
-        <v>9.5435181347769404E-2</v>
-      </c>
-      <c r="CO17">
-        <v>9.5890082483770095E-2</v>
-      </c>
-      <c r="CP17">
-        <v>9.5680335114861695E-2</v>
-      </c>
-      <c r="CQ17">
-        <v>9.5930842601114605E-2</v>
-      </c>
-      <c r="CR17">
-        <v>9.5044146246768699E-2</v>
-      </c>
-      <c r="CS17">
-        <v>9.6090218597472202E-2</v>
-      </c>
-      <c r="CT17">
-        <v>9.5687686963499996E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>8.6300000548362732E-2</v>
-      </c>
-      <c r="C18">
-        <v>8.5799999535083771E-2</v>
-      </c>
-      <c r="D18">
-        <v>8.5600003600120544E-2</v>
-      </c>
-      <c r="E18">
-        <v>8.5699997842311859E-2</v>
-      </c>
-      <c r="F18">
-        <v>8.6000002920627594E-2</v>
-      </c>
-      <c r="G18">
-        <v>8.6300000548362732E-2</v>
-      </c>
-      <c r="H18">
-        <v>8.6499996483325958E-2</v>
-      </c>
-      <c r="I18">
-        <v>8.6699999868869781E-2</v>
-      </c>
-      <c r="J18">
-        <v>8.6699999868869781E-2</v>
-      </c>
-      <c r="K18">
-        <v>8.6699999868869781E-2</v>
-      </c>
-      <c r="L18">
-        <v>8.7399996817111969E-2</v>
-      </c>
-      <c r="M18">
-        <v>8.7300002574920654E-2</v>
-      </c>
-      <c r="N18">
-        <v>8.7700001895427704E-2</v>
-      </c>
-      <c r="O18">
-        <v>8.7999999523162842E-2</v>
-      </c>
-      <c r="P18">
-        <v>8.8200002908706665E-2</v>
-      </c>
-      <c r="Q18">
-        <v>8.8799998164176941E-2</v>
-      </c>
-      <c r="R18">
-        <v>8.9000001549720764E-2</v>
-      </c>
-      <c r="S18">
-        <v>8.9400000870227814E-2</v>
-      </c>
-      <c r="T18">
-        <v>8.9400000870227814E-2</v>
-      </c>
-      <c r="U18">
-        <v>8.9699998497962952E-2</v>
-      </c>
-      <c r="V18">
-        <v>8.9900001883506775E-2</v>
-      </c>
-      <c r="W18">
-        <v>9.0199999511241913E-2</v>
-      </c>
-      <c r="X18">
-        <v>9.0599998831748962E-2</v>
-      </c>
-      <c r="Y18">
-        <v>9.1200001537799835E-2</v>
-      </c>
-      <c r="Z18">
-        <v>9.1399997472763062E-2</v>
-      </c>
-      <c r="AA18">
-        <v>9.1600000858306885E-2</v>
-      </c>
-      <c r="AB18">
-        <v>9.2200003564357758E-2</v>
-      </c>
-      <c r="AC18">
-        <v>9.2399999499320984E-2</v>
-      </c>
-      <c r="AD18">
-        <v>9.2399999499320984E-2</v>
-      </c>
-      <c r="AE18">
-        <v>9.2699997127056122E-2</v>
-      </c>
-      <c r="AF18">
-        <v>9.3400001525878906E-2</v>
-      </c>
-      <c r="AG18">
-        <v>9.3599997460842133E-2</v>
-      </c>
-      <c r="AH18">
-        <v>9.3800000846385956E-2</v>
-      </c>
-      <c r="AI18">
-        <v>9.4300001859664917E-2</v>
-      </c>
-      <c r="AJ18">
-        <v>9.4700001180171967E-2</v>
-      </c>
-      <c r="AK18">
-        <v>9.5100000500679016E-2</v>
-      </c>
-      <c r="AL18">
-        <v>9.4999998807907104E-2</v>
-      </c>
-      <c r="AM18">
-        <v>9.5600001513957977E-2</v>
-      </c>
-      <c r="AN18">
-        <v>9.5499999821186066E-2</v>
-      </c>
-      <c r="AO18">
-        <v>9.6000000834465027E-2</v>
-      </c>
-      <c r="AP18">
-        <v>9.6199996769428253E-2</v>
-      </c>
-      <c r="AQ18">
-        <v>9.6299998462200165E-2</v>
-      </c>
-      <c r="AR18">
-        <v>9.6799999475479126E-2</v>
-      </c>
-      <c r="AS18">
-        <v>9.6699997782707214E-2</v>
-      </c>
-      <c r="AT18">
-        <v>9.7400002181529999E-2</v>
-      </c>
-      <c r="AU18">
-        <v>9.7199998795986176E-2</v>
-      </c>
-      <c r="AV18">
-        <v>9.7699999809265137E-2</v>
-      </c>
-      <c r="AW18">
-        <v>9.830000251531601E-2</v>
-      </c>
-      <c r="AX18">
-        <v>9.8700001835823059E-2</v>
-      </c>
-      <c r="AY18">
-        <v>9.9100001156330109E-2</v>
-      </c>
-      <c r="AZ18">
-        <v>9.9299997091293335E-2</v>
-      </c>
-      <c r="BA18">
-        <v>9.9100001156330109E-2</v>
-      </c>
-      <c r="BB18">
-        <v>9.9500000476837158E-2</v>
-      </c>
-      <c r="BC18">
-        <v>9.9299997091293335E-2</v>
-      </c>
-      <c r="BD18">
-        <v>9.9500000476837158E-2</v>
-      </c>
-      <c r="BE18">
-        <v>9.9799998104572296E-2</v>
-      </c>
-      <c r="BF18">
-        <v>0.10019999742507935</v>
-      </c>
-      <c r="BG18">
-        <v>0.10040000081062317</v>
-      </c>
-      <c r="BH18">
-        <v>0.10050000250339508</v>
-      </c>
-      <c r="BI18">
-        <v>0.10080000013113022</v>
-      </c>
-      <c r="BJ18">
-        <v>0.10040000081062317</v>
-      </c>
-      <c r="BK18">
-        <v>0.10140000283718109</v>
-      </c>
-      <c r="BL18">
-        <v>0.10149999707937241</v>
-      </c>
-      <c r="BM18">
-        <v>0.10119999945163727</v>
-      </c>
-      <c r="BN18">
-        <v>0.10130000114440918</v>
-      </c>
-      <c r="BO18">
-        <v>0.10149999707937241</v>
-      </c>
-      <c r="BP18">
-        <v>0.10180000215768814</v>
-      </c>
-      <c r="BQ18">
-        <v>0.10189999639987946</v>
-      </c>
-      <c r="BR18">
-        <v>0.10189999639987946</v>
-      </c>
-      <c r="BS18">
-        <v>0.10220000147819519</v>
-      </c>
-      <c r="BT18">
-        <v>0.10220000147819519</v>
-      </c>
-      <c r="BU18">
-        <v>0.10220000147819519</v>
-      </c>
-      <c r="BV18">
-        <v>0.10199999809265137</v>
-      </c>
-      <c r="BW18">
-        <v>0.10260000079870224</v>
-      </c>
-      <c r="BX18">
-        <v>0.10249999910593033</v>
-      </c>
-      <c r="BY18">
-        <v>0.10260000079870224</v>
-      </c>
-      <c r="BZ18">
-        <v>0.10270000249147415</v>
-      </c>
-      <c r="CA18">
-        <v>0.10279999673366547</v>
-      </c>
-      <c r="CB18">
-        <v>0.10279999673366547</v>
-      </c>
-      <c r="CC18">
-        <v>0.1031000018119812</v>
-      </c>
-      <c r="CD18">
-        <v>0.1031000018119812</v>
-      </c>
-      <c r="CE18">
-        <v>0.1031000018119812</v>
-      </c>
-      <c r="CF18">
-        <v>0.10329999774694443</v>
-      </c>
-      <c r="CG18">
-        <v>0.10320000350475311</v>
-      </c>
-      <c r="CH18">
-        <v>0.1031000018119812</v>
-      </c>
-      <c r="CI18">
-        <v>0.10350000113248825</v>
-      </c>
-      <c r="CJ18">
-        <v>0.10339999943971634</v>
-      </c>
-      <c r="CK18">
-        <v>0.10339999943971634</v>
-      </c>
-      <c r="CL18">
-        <v>0.10350000113248825</v>
-      </c>
-      <c r="CM18">
-        <v>0.10339999943971634</v>
-      </c>
-      <c r="CN18">
-        <v>0.10329999774694443</v>
-      </c>
-      <c r="CO18">
-        <v>0.10360000282526016</v>
-      </c>
-      <c r="CP18">
-        <v>0.10339999943971634</v>
-      </c>
-      <c r="CQ18">
-        <v>0.10360000282526016</v>
-      </c>
-      <c r="CR18">
-        <v>0.10350000113248825</v>
-      </c>
-      <c r="CS18">
-        <v>0.10369999706745148</v>
-      </c>
-      <c r="CT18">
-        <v>0.10339999943971634</v>
-      </c>
-    </row>
-    <row r="19" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>8.6999997496604919E-2</v>
-      </c>
-      <c r="C19">
-        <v>8.7200000882148743E-2</v>
-      </c>
-      <c r="D19">
-        <v>8.7399996817111969E-2</v>
-      </c>
-      <c r="E19">
-        <v>8.7600000202655792E-2</v>
-      </c>
-      <c r="F19">
-        <v>8.7499998509883881E-2</v>
-      </c>
-      <c r="G19">
-        <v>8.7600000202655792E-2</v>
-      </c>
-      <c r="H19">
-        <v>8.7999999523162842E-2</v>
-      </c>
-      <c r="I19">
-        <v>8.7700001895427704E-2</v>
-      </c>
-      <c r="J19">
-        <v>8.7600000202655792E-2</v>
-      </c>
-      <c r="K19">
-        <v>8.7700001895427704E-2</v>
-      </c>
-      <c r="L19">
-        <v>8.7999999523162842E-2</v>
-      </c>
-      <c r="M19">
-        <v>8.789999783039093E-2</v>
-      </c>
-      <c r="N19">
-        <v>8.829999715089798E-2</v>
-      </c>
-      <c r="O19">
-        <v>8.8399998843669891E-2</v>
-      </c>
-      <c r="P19">
-        <v>8.8699996471405029E-2</v>
-      </c>
-      <c r="Q19">
-        <v>8.8799998164176941E-2</v>
-      </c>
-      <c r="R19">
-        <v>8.9000001549720764E-2</v>
-      </c>
-      <c r="S19">
-        <v>8.9100003242492676E-2</v>
-      </c>
-      <c r="T19">
-        <v>8.9400000870227814E-2</v>
-      </c>
-      <c r="U19">
-        <v>8.9500002562999725E-2</v>
-      </c>
-      <c r="V19">
-        <v>8.9800000190734863E-2</v>
-      </c>
-      <c r="W19">
-        <v>9.0000003576278687E-2</v>
-      </c>
-      <c r="X19">
-        <v>8.9900001883506775E-2</v>
-      </c>
-      <c r="Y19">
-        <v>9.0300001204013824E-2</v>
-      </c>
-      <c r="Z19">
-        <v>9.0400002896785736E-2</v>
-      </c>
-      <c r="AA19">
-        <v>9.0400002896785736E-2</v>
-      </c>
-      <c r="AB19">
-        <v>9.0599998831748962E-2</v>
-      </c>
-      <c r="AC19">
-        <v>9.0800002217292786E-2</v>
-      </c>
-      <c r="AD19">
-        <v>9.0700000524520874E-2</v>
-      </c>
-      <c r="AE19">
-        <v>9.1099999845027924E-2</v>
-      </c>
-      <c r="AF19">
-        <v>9.1399997472763062E-2</v>
-      </c>
-      <c r="AG19">
-        <v>9.1499999165534973E-2</v>
-      </c>
-      <c r="AH19">
-        <v>9.1399997472763062E-2</v>
-      </c>
-      <c r="AI19">
-        <v>9.1399997472763062E-2</v>
-      </c>
-      <c r="AJ19">
-        <v>9.1700002551078796E-2</v>
-      </c>
-      <c r="AK19">
-        <v>9.1799996793270111E-2</v>
-      </c>
-      <c r="AL19">
-        <v>9.2100001871585846E-2</v>
-      </c>
-      <c r="AM19">
-        <v>9.2100001871585846E-2</v>
-      </c>
-      <c r="AN19">
-        <v>9.1899998486042023E-2</v>
-      </c>
-      <c r="AO19">
-        <v>9.2299997806549072E-2</v>
-      </c>
-      <c r="AP19">
-        <v>9.2399999499320984E-2</v>
-      </c>
-      <c r="AQ19">
-        <v>9.2100001871585846E-2</v>
-      </c>
-      <c r="AR19">
-        <v>9.2500001192092896E-2</v>
-      </c>
-      <c r="AS19">
-        <v>9.2699997127056122E-2</v>
-      </c>
-      <c r="AT19">
-        <v>9.2799998819828033E-2</v>
-      </c>
-      <c r="AU19">
-        <v>9.2600002884864807E-2</v>
-      </c>
-      <c r="AV19">
-        <v>9.3000002205371857E-2</v>
-      </c>
-      <c r="AW19">
-        <v>9.3099996447563171E-2</v>
-      </c>
-      <c r="AX19">
-        <v>9.3299999833106995E-2</v>
-      </c>
-      <c r="AY19">
-        <v>9.3400001525878906E-2</v>
-      </c>
-      <c r="AZ19">
-        <v>9.3500003218650818E-2</v>
-      </c>
-      <c r="BA19">
-        <v>9.3599997460842133E-2</v>
-      </c>
-      <c r="BB19">
-        <v>9.3599997460842133E-2</v>
-      </c>
-      <c r="BC19">
-        <v>9.3500003218650818E-2</v>
-      </c>
-      <c r="BD19">
-        <v>9.3500003218650818E-2</v>
-      </c>
-      <c r="BE19">
-        <v>9.3800000846385956E-2</v>
-      </c>
-      <c r="BF19">
-        <v>9.4200000166893005E-2</v>
-      </c>
-      <c r="BG19">
-        <v>9.4300001859664917E-2</v>
-      </c>
-      <c r="BH19">
-        <v>9.4400003552436829E-2</v>
-      </c>
-      <c r="BI19">
-        <v>9.4400003552436829E-2</v>
-      </c>
-      <c r="BJ19">
-        <v>9.4300001859664917E-2</v>
-      </c>
-      <c r="BK19">
-        <v>9.4700001180171967E-2</v>
-      </c>
-      <c r="BL19">
-        <v>9.4700001180171967E-2</v>
-      </c>
-      <c r="BM19">
-        <v>9.4899997115135193E-2</v>
-      </c>
-      <c r="BN19">
-        <v>9.4700001180171967E-2</v>
-      </c>
-      <c r="BO19">
-        <v>9.4999998807907104E-2</v>
-      </c>
-      <c r="BP19">
-        <v>9.5100000500679016E-2</v>
-      </c>
-      <c r="BQ19">
-        <v>9.5200002193450928E-2</v>
-      </c>
-      <c r="BR19">
-        <v>9.5299996435642242E-2</v>
-      </c>
-      <c r="BS19">
-        <v>9.5200002193450928E-2</v>
-      </c>
-      <c r="BT19">
-        <v>9.5299996435642242E-2</v>
-      </c>
-      <c r="BU19">
-        <v>9.5200002193450928E-2</v>
-      </c>
-      <c r="BV19">
-        <v>9.5299996435642242E-2</v>
-      </c>
-      <c r="BW19">
-        <v>9.5700003206729889E-2</v>
-      </c>
-      <c r="BX19">
-        <v>9.5700003206729889E-2</v>
-      </c>
-      <c r="BY19">
-        <v>9.5600001513957977E-2</v>
-      </c>
-      <c r="BZ19">
-        <v>9.5600001513957977E-2</v>
-      </c>
-      <c r="CA19">
-        <v>9.5600001513957977E-2</v>
-      </c>
-      <c r="CB19">
-        <v>9.5299996435642242E-2</v>
-      </c>
-      <c r="CC19">
-        <v>9.5799997448921204E-2</v>
-      </c>
-      <c r="CD19">
-        <v>9.5499999821186066E-2</v>
-      </c>
-      <c r="CE19">
-        <v>9.5399998128414154E-2</v>
-      </c>
-      <c r="CF19">
-        <v>9.5700003206729889E-2</v>
-      </c>
-      <c r="CG19">
-        <v>9.5700003206729889E-2</v>
-      </c>
-      <c r="CH19">
-        <v>9.5499999821186066E-2</v>
-      </c>
-      <c r="CI19">
-        <v>9.5700003206729889E-2</v>
-      </c>
-      <c r="CJ19">
-        <v>9.5499999821186066E-2</v>
-      </c>
-      <c r="CK19">
-        <v>9.5499999821186066E-2</v>
-      </c>
-      <c r="CL19">
-        <v>9.5499999821186066E-2</v>
-      </c>
-      <c r="CM19">
-        <v>9.5399998128414154E-2</v>
-      </c>
-      <c r="CN19">
-        <v>9.5200002193450928E-2</v>
-      </c>
-      <c r="CO19">
-        <v>9.5600001513957977E-2</v>
-      </c>
-      <c r="CP19">
-        <v>9.5200002193450928E-2</v>
-      </c>
-      <c r="CQ19">
-        <v>9.5200002193450928E-2</v>
-      </c>
-      <c r="CR19">
-        <v>9.4899997115135193E-2</v>
-      </c>
-      <c r="CS19">
-        <v>9.5299996435642242E-2</v>
-      </c>
-      <c r="CT19">
-        <v>9.4999998807907104E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>8.8219775220461302E-2</v>
-      </c>
-      <c r="C20">
-        <v>8.6722635356207806E-2</v>
-      </c>
-      <c r="D20">
-        <v>8.6765525146555195E-2</v>
-      </c>
-      <c r="E20">
-        <v>8.7270674736391093E-2</v>
-      </c>
-      <c r="F20">
-        <v>8.8533965918115701E-2</v>
-      </c>
-      <c r="G20">
-        <v>8.8362229710576404E-2</v>
-      </c>
-      <c r="H20">
-        <v>8.8764996667284199E-2</v>
-      </c>
-      <c r="I20">
-        <v>8.8758635936866198E-2</v>
-      </c>
-      <c r="J20">
-        <v>8.8742995271941197E-2</v>
-      </c>
-      <c r="K20">
-        <v>8.90018046222881E-2</v>
-      </c>
-      <c r="L20">
-        <v>8.8269364063185501E-2</v>
-      </c>
-      <c r="M20">
-        <v>8.86521246594449E-2</v>
-      </c>
-      <c r="N20">
-        <v>8.8964000109396799E-2</v>
-      </c>
-      <c r="O20">
-        <v>8.8929199301788303E-2</v>
-      </c>
-      <c r="P20">
-        <v>8.8859508557218997E-2</v>
-      </c>
-      <c r="Q20">
-        <v>9.03544844429401E-2</v>
-      </c>
-      <c r="R20">
-        <v>8.9896684869376395E-2</v>
-      </c>
-      <c r="S20">
-        <v>8.92010666075162E-2</v>
-      </c>
-      <c r="T20">
-        <v>9.0143422396026504E-2</v>
-      </c>
-      <c r="U20">
-        <v>9.0999147865681806E-2</v>
-      </c>
-      <c r="V20">
-        <v>8.9951523622811502E-2</v>
-      </c>
-      <c r="W20">
-        <v>9.0587599387591394E-2</v>
-      </c>
-      <c r="X20">
-        <v>9.0469050494054695E-2</v>
-      </c>
-      <c r="Y20">
-        <v>9.0091851878503604E-2</v>
-      </c>
-      <c r="Z20">
-        <v>9.1674019664519296E-2</v>
-      </c>
-      <c r="AA20">
-        <v>9.0607351219530494E-2</v>
-      </c>
-      <c r="AB20">
-        <v>9.1237908236330906E-2</v>
-      </c>
-      <c r="AC20">
-        <v>9.0405351415453E-2</v>
-      </c>
-      <c r="AD20">
-        <v>9.1304923304547994E-2</v>
-      </c>
-      <c r="AE20">
-        <v>9.0840439612392104E-2</v>
-      </c>
-      <c r="AF20">
-        <v>9.0906624784936996E-2</v>
-      </c>
-      <c r="AG20">
-        <v>9.1473063471835606E-2</v>
-      </c>
-      <c r="AH20">
-        <v>9.1120090624341704E-2</v>
-      </c>
-      <c r="AI20">
-        <v>9.1069133886092501E-2</v>
-      </c>
-      <c r="AJ20">
-        <v>9.1244115250072602E-2</v>
-      </c>
-      <c r="AK20">
-        <v>9.1644696787849297E-2</v>
-      </c>
-      <c r="AL20">
-        <v>9.0713932609707698E-2</v>
-      </c>
-      <c r="AM20">
-        <v>9.0429609875055897E-2</v>
-      </c>
-      <c r="AN20">
-        <v>9.0899046402392006E-2</v>
-      </c>
-      <c r="AO20">
-        <v>9.1232266772437703E-2</v>
-      </c>
-      <c r="AP20">
-        <v>9.0669385203142897E-2</v>
-      </c>
-      <c r="AQ20">
-        <v>9.0616801521583898E-2</v>
-      </c>
-      <c r="AR20">
-        <v>9.1126501077157501E-2</v>
-      </c>
-      <c r="AS20">
-        <v>9.1738082771560397E-2</v>
-      </c>
-      <c r="AT20">
-        <v>9.1709724508565404E-2</v>
-      </c>
-      <c r="AU20">
-        <v>9.0153107817416894E-2</v>
-      </c>
-      <c r="AV20">
-        <v>9.0438717616174197E-2</v>
-      </c>
-      <c r="AW20">
-        <v>9.0883335369120397E-2</v>
-      </c>
-      <c r="AX20">
-        <v>9.03337262794464E-2</v>
-      </c>
-      <c r="AY20">
-        <v>9.1641580207204296E-2</v>
-      </c>
-      <c r="AZ20">
-        <v>9.1333675599759398E-2</v>
-      </c>
-      <c r="BA20">
-        <v>9.0724146222113597E-2</v>
-      </c>
-      <c r="BB20">
-        <v>9.0220864044218793E-2</v>
-      </c>
-      <c r="BC20">
-        <v>9.0429265976802897E-2</v>
-      </c>
-      <c r="BD20">
-        <v>9.0112172916333597E-2</v>
-      </c>
-      <c r="BE20">
-        <v>9.1780069830425803E-2</v>
-      </c>
-      <c r="BF20">
-        <v>9.1294877499069602E-2</v>
-      </c>
-      <c r="BG20">
-        <v>9.05207387310554E-2</v>
-      </c>
-      <c r="BH20">
-        <v>9.0905560691660101E-2</v>
-      </c>
-      <c r="BI20">
-        <v>9.0766976551892406E-2</v>
-      </c>
-      <c r="BJ20">
-        <v>9.0704957494184293E-2</v>
-      </c>
-      <c r="BK20">
-        <v>9.0601227784625704E-2</v>
-      </c>
-      <c r="BL20">
-        <v>9.1240122274356697E-2</v>
-      </c>
-      <c r="BM20">
-        <v>9.1208663923929095E-2</v>
-      </c>
-      <c r="BN20">
-        <v>9.1145174379414204E-2</v>
-      </c>
-      <c r="BO20">
-        <v>9.1366978791190601E-2</v>
-      </c>
-      <c r="BP20">
-        <v>8.9870980989950194E-2</v>
-      </c>
-      <c r="BQ20">
-        <v>9.0449812358972995E-2</v>
-      </c>
-      <c r="BR20">
-        <v>9.0835955175198393E-2</v>
-      </c>
-      <c r="BS20">
-        <v>9.0332292554252597E-2</v>
-      </c>
-      <c r="BT20">
-        <v>9.1054080558210099E-2</v>
-      </c>
-      <c r="BU20">
-        <v>9.0754475758192996E-2</v>
-      </c>
-      <c r="BV20">
-        <v>9.0753495838565804E-2</v>
-      </c>
-      <c r="BW20">
-        <v>8.9995999528212606E-2</v>
-      </c>
-      <c r="BX20">
-        <v>8.9584201334197006E-2</v>
-      </c>
-      <c r="BY20">
-        <v>9.0631667298550406E-2</v>
-      </c>
-      <c r="BZ20">
-        <v>8.9918408591286705E-2</v>
-      </c>
-      <c r="CA20">
-        <v>9.0753101899494898E-2</v>
-      </c>
-      <c r="CB20">
-        <v>8.9899109622049098E-2</v>
-      </c>
-      <c r="CC20">
-        <v>9.0753988625879495E-2</v>
-      </c>
-      <c r="CD20">
-        <v>8.9773099430155004E-2</v>
-      </c>
-      <c r="CE20">
-        <v>9.0838919605272905E-2</v>
-      </c>
-      <c r="CF20">
-        <v>8.9570149323791301E-2</v>
-      </c>
-      <c r="CG20">
-        <v>8.9842574273739803E-2</v>
-      </c>
-      <c r="CH20">
-        <v>8.9876314233396704E-2</v>
-      </c>
-      <c r="CI20">
-        <v>8.9690393660562098E-2</v>
-      </c>
-      <c r="CJ20">
-        <v>8.9764798765110607E-2</v>
-      </c>
-      <c r="CK20">
-        <v>9.0239122583379405E-2</v>
-      </c>
-      <c r="CL20">
-        <v>9.0571954020264606E-2</v>
-      </c>
-      <c r="CM20">
-        <v>8.9552266195524602E-2</v>
-      </c>
-      <c r="CN20">
-        <v>9.0027146079854903E-2</v>
-      </c>
-      <c r="CO20">
-        <v>8.9513800647216604E-2</v>
-      </c>
-      <c r="CP20">
-        <v>8.8865837448850502E-2</v>
-      </c>
-      <c r="CQ20">
-        <v>8.95170193049378E-2</v>
-      </c>
-      <c r="CR20">
-        <v>8.9009650957607697E-2</v>
-      </c>
-      <c r="CS20">
-        <v>8.9359403141111293E-2</v>
-      </c>
-      <c r="CT20">
-        <v>9.0188396661092393E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>8.8100001215934753E-2</v>
-      </c>
-      <c r="C21">
-        <v>8.7399996817111969E-2</v>
-      </c>
-      <c r="D21">
-        <v>8.7600000202655792E-2</v>
-      </c>
-      <c r="E21">
-        <v>8.7700001895427704E-2</v>
-      </c>
-      <c r="F21">
-        <v>8.789999783039093E-2</v>
-      </c>
-      <c r="G21">
-        <v>8.8200002908706665E-2</v>
-      </c>
-      <c r="H21">
-        <v>8.8100001215934753E-2</v>
-      </c>
-      <c r="I21">
-        <v>8.829999715089798E-2</v>
-      </c>
-      <c r="J21">
-        <v>8.8600002229213715E-2</v>
-      </c>
-      <c r="K21">
-        <v>8.829999715089798E-2</v>
-      </c>
-      <c r="L21">
-        <v>8.8799998164176941E-2</v>
-      </c>
-      <c r="M21">
-        <v>8.8699996471405029E-2</v>
-      </c>
-      <c r="N21">
-        <v>8.9000001549720764E-2</v>
-      </c>
-      <c r="O21">
-        <v>8.919999748468399E-2</v>
-      </c>
-      <c r="P21">
-        <v>8.959999680519104E-2</v>
-      </c>
-      <c r="Q21">
-        <v>8.9900001883506775E-2</v>
-      </c>
-      <c r="R21">
-        <v>8.9900001883506775E-2</v>
-      </c>
-      <c r="S21">
-        <v>9.0099997818470001E-2</v>
-      </c>
-      <c r="T21">
-        <v>9.0199999511241913E-2</v>
-      </c>
-      <c r="U21">
-        <v>9.0499997138977051E-2</v>
-      </c>
-      <c r="V21">
-        <v>9.0499997138977051E-2</v>
-      </c>
-      <c r="W21">
-        <v>9.0700000524520874E-2</v>
-      </c>
-      <c r="X21">
-        <v>9.0800002217292786E-2</v>
-      </c>
-      <c r="Y21">
-        <v>9.0700000524520874E-2</v>
-      </c>
-      <c r="Z21">
-        <v>9.0800002217292786E-2</v>
-      </c>
-      <c r="AA21">
-        <v>9.0800002217292786E-2</v>
-      </c>
-      <c r="AB21">
-        <v>9.08999964594841E-2</v>
-      </c>
-      <c r="AC21">
-        <v>9.1099999845027924E-2</v>
-      </c>
-      <c r="AD21">
-        <v>9.0999998152256012E-2</v>
-      </c>
-      <c r="AE21">
-        <v>9.0999998152256012E-2</v>
-      </c>
-      <c r="AF21">
-        <v>9.1300003230571747E-2</v>
-      </c>
-      <c r="AG21">
-        <v>9.1099999845027924E-2</v>
-      </c>
-      <c r="AH21">
-        <v>9.1200001537799835E-2</v>
-      </c>
-      <c r="AI21">
-        <v>9.1399997472763062E-2</v>
-      </c>
-      <c r="AJ21">
-        <v>9.1300003230571747E-2</v>
-      </c>
-      <c r="AK21">
-        <v>9.0999998152256012E-2</v>
-      </c>
-      <c r="AL21">
-        <v>9.1399997472763062E-2</v>
-      </c>
-      <c r="AM21">
-        <v>9.1300003230571747E-2</v>
-      </c>
-      <c r="AN21">
-        <v>9.1200001537799835E-2</v>
-      </c>
-      <c r="AO21">
-        <v>9.1399997472763062E-2</v>
-      </c>
-      <c r="AP21">
-        <v>9.1200001537799835E-2</v>
-      </c>
-      <c r="AQ21">
-        <v>9.08999964594841E-2</v>
-      </c>
-      <c r="AR21">
-        <v>9.1300003230571747E-2</v>
-      </c>
-      <c r="AS21">
-        <v>9.1300003230571747E-2</v>
-      </c>
-      <c r="AT21">
-        <v>9.1099999845027924E-2</v>
-      </c>
-      <c r="AU21">
-        <v>9.0999998152256012E-2</v>
-      </c>
-      <c r="AV21">
-        <v>9.0999998152256012E-2</v>
-      </c>
-      <c r="AW21">
-        <v>9.1099999845027924E-2</v>
-      </c>
-      <c r="AX21">
-        <v>9.0999998152256012E-2</v>
-      </c>
-      <c r="AY21">
-        <v>9.0999998152256012E-2</v>
-      </c>
-      <c r="AZ21">
-        <v>9.1099999845027924E-2</v>
-      </c>
-      <c r="BA21">
-        <v>9.08999964594841E-2</v>
-      </c>
-      <c r="BB21">
-        <v>9.1099999845027924E-2</v>
-      </c>
-      <c r="BC21">
-        <v>9.0800002217292786E-2</v>
-      </c>
-      <c r="BD21">
-        <v>9.0700000524520874E-2</v>
-      </c>
-      <c r="BE21">
-        <v>9.08999964594841E-2</v>
-      </c>
-      <c r="BF21">
-        <v>9.0999998152256012E-2</v>
-      </c>
-      <c r="BG21">
-        <v>9.0800002217292786E-2</v>
-      </c>
-      <c r="BH21">
-        <v>9.08999964594841E-2</v>
-      </c>
-      <c r="BI21">
-        <v>9.0700000524520874E-2</v>
-      </c>
-      <c r="BJ21">
-        <v>9.0400002896785736E-2</v>
-      </c>
-      <c r="BK21">
-        <v>9.0700000524520874E-2</v>
-      </c>
-      <c r="BL21">
-        <v>9.0800002217292786E-2</v>
-      </c>
-      <c r="BM21">
-        <v>9.0700000524520874E-2</v>
-      </c>
-      <c r="BN21">
-        <v>9.0499997138977051E-2</v>
-      </c>
-      <c r="BO21">
-        <v>9.0599998831748962E-2</v>
-      </c>
-      <c r="BP21">
-        <v>9.0499997138977051E-2</v>
-      </c>
-      <c r="BQ21">
-        <v>9.0800002217292786E-2</v>
-      </c>
-      <c r="BR21">
-        <v>9.0400002896785736E-2</v>
-      </c>
-      <c r="BS21">
-        <v>9.0400002896785736E-2</v>
-      </c>
-      <c r="BT21">
-        <v>9.0300001204013824E-2</v>
-      </c>
-      <c r="BU21">
-        <v>9.0300001204013824E-2</v>
-      </c>
-      <c r="BV21">
-        <v>9.0099997818470001E-2</v>
-      </c>
-      <c r="BW21">
-        <v>9.0499997138977051E-2</v>
-      </c>
-      <c r="BX21">
-        <v>9.0300001204013824E-2</v>
-      </c>
-      <c r="BY21">
-        <v>9.0300001204013824E-2</v>
-      </c>
-      <c r="BZ21">
-        <v>9.0099997818470001E-2</v>
-      </c>
-      <c r="CA21">
-        <v>9.0099997818470001E-2</v>
-      </c>
-      <c r="CB21">
-        <v>9.0199999511241913E-2</v>
-      </c>
-      <c r="CC21">
-        <v>9.0400002896785736E-2</v>
-      </c>
-      <c r="CD21">
-        <v>9.0300001204013824E-2</v>
-      </c>
-      <c r="CE21">
-        <v>9.0099997818470001E-2</v>
-      </c>
-      <c r="CF21">
-        <v>9.0199999511241913E-2</v>
-      </c>
-      <c r="CG21">
-        <v>9.0099997818470001E-2</v>
-      </c>
-      <c r="CH21">
-        <v>9.0000003576278687E-2</v>
-      </c>
-      <c r="CI21">
-        <v>9.0199999511241913E-2</v>
-      </c>
-      <c r="CJ21">
-        <v>9.0000003576278687E-2</v>
-      </c>
-      <c r="CK21">
-        <v>8.9900001883506775E-2</v>
-      </c>
-      <c r="CL21">
-        <v>8.9800000190734863E-2</v>
-      </c>
-      <c r="CM21">
-        <v>8.9900001883506775E-2</v>
-      </c>
-      <c r="CN21">
-        <v>8.9900001883506775E-2</v>
-      </c>
-      <c r="CO21">
-        <v>9.0000003576278687E-2</v>
-      </c>
-      <c r="CP21">
-        <v>8.9699998497962952E-2</v>
-      </c>
-      <c r="CQ21">
-        <v>8.9900001883506775E-2</v>
-      </c>
-      <c r="CR21">
-        <v>8.9800000190734863E-2</v>
-      </c>
-      <c r="CS21">
-        <v>8.959999680519104E-2</v>
-      </c>
-      <c r="CT21">
-        <v>8.959999680519104E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>8.7800003588199615E-2</v>
-      </c>
-      <c r="C22">
-        <v>8.8200002908706665E-2</v>
-      </c>
-      <c r="D22">
-        <v>8.789999783039093E-2</v>
-      </c>
-      <c r="E22">
-        <v>8.8799998164176941E-2</v>
-      </c>
-      <c r="F22">
-        <v>8.8500000536441803E-2</v>
-      </c>
-      <c r="G22">
-        <v>8.8500000536441803E-2</v>
-      </c>
-      <c r="H22">
-        <v>8.8399998843669891E-2</v>
-      </c>
-      <c r="I22">
-        <v>8.8399998843669891E-2</v>
-      </c>
-      <c r="J22">
-        <v>8.8799998164176941E-2</v>
-      </c>
-      <c r="K22">
-        <v>8.8600002229213715E-2</v>
-      </c>
-      <c r="L22">
-        <v>8.9100003242492676E-2</v>
-      </c>
-      <c r="M22">
-        <v>8.8699996471405029E-2</v>
-      </c>
-      <c r="N22">
-        <v>8.919999748468399E-2</v>
-      </c>
-      <c r="O22">
-        <v>8.9400000870227814E-2</v>
-      </c>
-      <c r="P22">
-        <v>8.959999680519104E-2</v>
-      </c>
-      <c r="Q22">
-        <v>9.0099997818470001E-2</v>
-      </c>
-      <c r="R22">
-        <v>9.0300001204013824E-2</v>
-      </c>
-      <c r="S22">
-        <v>9.0099997818470001E-2</v>
-      </c>
-      <c r="T22">
-        <v>9.0400002896785736E-2</v>
-      </c>
-      <c r="U22">
-        <v>9.0800002217292786E-2</v>
-      </c>
-      <c r="V22">
-        <v>9.0800002217292786E-2</v>
-      </c>
-      <c r="W22">
-        <v>9.08999964594841E-2</v>
-      </c>
-      <c r="X22">
-        <v>9.1200001537799835E-2</v>
-      </c>
-      <c r="Y22">
-        <v>9.1300003230571747E-2</v>
-      </c>
-      <c r="Z22">
-        <v>9.1499999165534973E-2</v>
-      </c>
-      <c r="AA22">
-        <v>9.1700002551078796E-2</v>
-      </c>
-      <c r="AB22">
-        <v>9.1700002551078796E-2</v>
-      </c>
-      <c r="AC22">
-        <v>9.1799996793270111E-2</v>
-      </c>
-      <c r="AD22">
-        <v>9.1899998486042023E-2</v>
-      </c>
-      <c r="AE22">
-        <v>9.2100001871585846E-2</v>
-      </c>
-      <c r="AF22">
-        <v>9.2399999499320984E-2</v>
-      </c>
-      <c r="AG22">
-        <v>9.2399999499320984E-2</v>
-      </c>
-      <c r="AH22">
-        <v>9.2699997127056122E-2</v>
-      </c>
-      <c r="AI22">
-        <v>9.2699997127056122E-2</v>
-      </c>
-      <c r="AJ22">
-        <v>9.3000002205371857E-2</v>
-      </c>
-      <c r="AK22">
-        <v>9.2900000512599945E-2</v>
-      </c>
-      <c r="AL22">
-        <v>9.3099996447563171E-2</v>
-      </c>
-      <c r="AM22">
-        <v>9.3199998140335083E-2</v>
-      </c>
-      <c r="AN22">
-        <v>9.3199998140335083E-2</v>
-      </c>
-      <c r="AO22">
-        <v>9.3599997460842133E-2</v>
-      </c>
-      <c r="AP22">
-        <v>9.3599997460842133E-2</v>
-      </c>
-      <c r="AQ22">
-        <v>9.3299999833106995E-2</v>
-      </c>
-      <c r="AR22">
-        <v>9.3900002539157867E-2</v>
-      </c>
-      <c r="AS22">
-        <v>9.3999996781349182E-2</v>
-      </c>
-      <c r="AT22">
-        <v>9.4300001859664917E-2</v>
-      </c>
-      <c r="AU22">
-        <v>9.4200000166893005E-2</v>
-      </c>
-      <c r="AV22">
-        <v>9.4300001859664917E-2</v>
-      </c>
-      <c r="AW22">
-        <v>9.4499997794628143E-2</v>
-      </c>
-      <c r="AX22">
-        <v>9.4599999487400055E-2</v>
-      </c>
-      <c r="AY22">
-        <v>9.4700001180171967E-2</v>
-      </c>
-      <c r="AZ22">
-        <v>9.4899997115135193E-2</v>
-      </c>
-      <c r="BA22">
-        <v>9.4999998807907104E-2</v>
-      </c>
-      <c r="BB22">
-        <v>9.5200002193450928E-2</v>
-      </c>
-      <c r="BC22">
-        <v>9.5200002193450928E-2</v>
-      </c>
-      <c r="BD22">
-        <v>9.4999998807907104E-2</v>
-      </c>
-      <c r="BE22">
-        <v>9.5299996435642242E-2</v>
-      </c>
-      <c r="BF22">
-        <v>9.5700003206729889E-2</v>
-      </c>
-      <c r="BG22">
-        <v>9.5700003206729889E-2</v>
-      </c>
-      <c r="BH22">
-        <v>9.5600001513957977E-2</v>
-      </c>
-      <c r="BI22">
-        <v>9.5600001513957977E-2</v>
-      </c>
-      <c r="BJ22">
-        <v>9.5399998128414154E-2</v>
-      </c>
-      <c r="BK22">
-        <v>9.5899999141693115E-2</v>
-      </c>
-      <c r="BL22">
-        <v>9.6199996769428253E-2</v>
-      </c>
-      <c r="BM22">
-        <v>9.6199996769428253E-2</v>
-      </c>
-      <c r="BN22">
-        <v>9.6100002527236938E-2</v>
-      </c>
-      <c r="BO22">
-        <v>9.6400000154972076E-2</v>
-      </c>
-      <c r="BP22">
-        <v>9.6699997782707214E-2</v>
-      </c>
-      <c r="BQ22">
-        <v>9.6699997782707214E-2</v>
-      </c>
-      <c r="BR22">
-        <v>9.66000035405159E-2</v>
-      </c>
-      <c r="BS22">
-        <v>9.6799999475479126E-2</v>
-      </c>
-      <c r="BT22">
-        <v>9.6799999475479126E-2</v>
-      </c>
-      <c r="BU22">
-        <v>9.6799999475479126E-2</v>
-      </c>
-      <c r="BV22">
-        <v>9.6799999475479126E-2</v>
-      </c>
-      <c r="BW22">
-        <v>9.7199998795986176E-2</v>
-      </c>
-      <c r="BX22">
-        <v>9.7199998795986176E-2</v>
-      </c>
-      <c r="BY22">
-        <v>9.7300000488758087E-2</v>
-      </c>
-      <c r="BZ22">
-        <v>9.7300000488758087E-2</v>
-      </c>
-      <c r="CA22">
-        <v>9.7300000488758087E-2</v>
-      </c>
-      <c r="CB22">
-        <v>9.7499996423721313E-2</v>
-      </c>
-      <c r="CC22">
-        <v>9.7599998116493225E-2</v>
-      </c>
-      <c r="CD22">
-        <v>9.7499996423721313E-2</v>
-      </c>
-      <c r="CE22">
-        <v>9.7599998116493225E-2</v>
-      </c>
-      <c r="CF22">
-        <v>9.7999997437000275E-2</v>
-      </c>
-      <c r="CG22">
-        <v>9.7699999809265137E-2</v>
-      </c>
-      <c r="CH22">
-        <v>9.8099999129772186E-2</v>
-      </c>
-      <c r="CI22">
-        <v>9.830000251531601E-2</v>
-      </c>
-      <c r="CJ22">
-        <v>9.8200000822544098E-2</v>
-      </c>
-      <c r="CK22">
-        <v>9.830000251531601E-2</v>
-      </c>
-      <c r="CL22">
-        <v>9.8099999129772186E-2</v>
-      </c>
-      <c r="CM22">
-        <v>9.8200000822544098E-2</v>
-      </c>
-      <c r="CN22">
-        <v>9.830000251531601E-2</v>
-      </c>
-      <c r="CO22">
-        <v>9.8499998450279236E-2</v>
-      </c>
-      <c r="CP22">
-        <v>9.8200000822544098E-2</v>
-      </c>
-      <c r="CQ22">
-        <v>9.8499998450279236E-2</v>
-      </c>
-      <c r="CR22">
-        <v>9.8399996757507324E-2</v>
-      </c>
-      <c r="CS22">
-        <v>9.8399996757507324E-2</v>
-      </c>
-      <c r="CT22">
-        <v>9.8499998450279236E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>8.9386657257793004E-2</v>
-      </c>
-      <c r="C23">
-        <v>8.7472987676239206E-2</v>
-      </c>
-      <c r="D23">
-        <v>8.7500024888756495E-2</v>
-      </c>
-      <c r="E23">
-        <v>8.7614160988947296E-2</v>
-      </c>
-      <c r="F23">
-        <v>8.7187793116394893E-2</v>
-      </c>
-      <c r="G23">
-        <v>8.6818264368390699E-2</v>
-      </c>
-      <c r="H23">
-        <v>8.6907327746691201E-2</v>
-      </c>
-      <c r="I23">
-        <v>8.7443349622102706E-2</v>
-      </c>
-      <c r="J23">
-        <v>8.89282322686238E-2</v>
-      </c>
-      <c r="K23">
-        <v>8.7747223875976901E-2</v>
-      </c>
-      <c r="L23">
-        <v>8.9009723706740304E-2</v>
-      </c>
-      <c r="M23">
-        <v>8.7381513615583606E-2</v>
-      </c>
-      <c r="N23">
-        <v>8.8927610539286203E-2</v>
-      </c>
-      <c r="O23">
-        <v>8.75850808087629E-2</v>
-      </c>
-      <c r="P23">
-        <v>8.93799353989332E-2</v>
-      </c>
-      <c r="Q23">
-        <v>8.8651631974405204E-2</v>
-      </c>
-      <c r="R23">
-        <v>8.9139901079032899E-2</v>
-      </c>
-      <c r="S23">
-        <v>8.8465282481283394E-2</v>
-      </c>
-      <c r="T23">
-        <v>8.8017226389272896E-2</v>
-      </c>
-      <c r="U23">
-        <v>8.8986280293563896E-2</v>
-      </c>
-      <c r="V23">
-        <v>8.9744618775221094E-2</v>
-      </c>
-      <c r="W23">
-        <v>8.9901132753911595E-2</v>
-      </c>
-      <c r="X23">
-        <v>8.8589769127653095E-2</v>
-      </c>
-      <c r="Y23">
-        <v>8.9155773667695198E-2</v>
-      </c>
-      <c r="Z23">
-        <v>8.97175638734065E-2</v>
-      </c>
-      <c r="AA23">
-        <v>8.9001321348618601E-2</v>
-      </c>
-      <c r="AB23">
-        <v>8.8567430137138803E-2</v>
-      </c>
-      <c r="AC23">
-        <v>8.99758035278342E-2</v>
-      </c>
-      <c r="AD23">
-        <v>8.9345291906911997E-2</v>
-      </c>
-      <c r="AE23">
-        <v>8.8775178516703801E-2</v>
-      </c>
-      <c r="AF23">
-        <v>8.9105815689872497E-2</v>
-      </c>
-      <c r="AG23">
-        <v>8.9185932837585399E-2</v>
-      </c>
-      <c r="AH23">
-        <v>8.9465887349282E-2</v>
-      </c>
-      <c r="AI23">
-        <v>8.8926415011611096E-2</v>
-      </c>
-      <c r="AJ23">
-        <v>8.8651378798049296E-2</v>
-      </c>
-      <c r="AK23">
-        <v>8.9351969043978297E-2</v>
-      </c>
-      <c r="AL23">
-        <v>8.9574274870672793E-2</v>
-      </c>
-      <c r="AM23">
-        <v>8.9207100858968699E-2</v>
-      </c>
-      <c r="AN23">
-        <v>8.9914960787922493E-2</v>
-      </c>
-      <c r="AO23">
-        <v>8.9144445721769203E-2</v>
-      </c>
-      <c r="AP23">
-        <v>8.88780048137916E-2</v>
-      </c>
-      <c r="AQ23">
-        <v>9.0063624907242901E-2</v>
-      </c>
-      <c r="AR23">
-        <v>8.9122838783525699E-2</v>
-      </c>
-      <c r="AS23">
-        <v>8.9355365713244303E-2</v>
-      </c>
-      <c r="AT23">
-        <v>8.9663350140381404E-2</v>
-      </c>
-      <c r="AU23">
-        <v>8.9482912284152602E-2</v>
-      </c>
-      <c r="AV23">
-        <v>9.0153343145030498E-2</v>
-      </c>
-      <c r="AW23">
-        <v>8.9583414168341993E-2</v>
-      </c>
-      <c r="AX23">
-        <v>8.9153012517748403E-2</v>
-      </c>
-      <c r="AY23">
-        <v>8.9007671080220493E-2</v>
-      </c>
-      <c r="AZ23">
-        <v>8.99300852726167E-2</v>
-      </c>
-      <c r="BA23">
-        <v>8.9178278229959995E-2</v>
-      </c>
-      <c r="BB23">
-        <v>8.9866254658469896E-2</v>
-      </c>
-      <c r="BC23">
-        <v>8.9980942272627706E-2</v>
-      </c>
-      <c r="BD23">
-        <v>9.0295391228361305E-2</v>
-      </c>
-      <c r="BE23">
-        <v>8.9368259482117102E-2</v>
-      </c>
-      <c r="BF23">
-        <v>8.9605958562826493E-2</v>
-      </c>
-      <c r="BG23">
-        <v>8.94807423418362E-2</v>
-      </c>
-      <c r="BH23">
-        <v>8.9158219394134999E-2</v>
-      </c>
-      <c r="BI23">
-        <v>8.8606641857618504E-2</v>
-      </c>
-      <c r="BJ23">
-        <v>8.8936786252078001E-2</v>
-      </c>
-      <c r="BK23">
-        <v>8.91826510270783E-2</v>
-      </c>
-      <c r="BL23">
-        <v>8.9850955417180703E-2</v>
-      </c>
-      <c r="BM23">
-        <v>8.8243429390251704E-2</v>
-      </c>
-      <c r="BN23">
-        <v>8.8043152294856902E-2</v>
-      </c>
-      <c r="BO23">
-        <v>8.8928079044230293E-2</v>
-      </c>
-      <c r="BP23">
-        <v>8.8031079029702794E-2</v>
-      </c>
-      <c r="BQ23">
-        <v>8.8850678594607199E-2</v>
-      </c>
-      <c r="BR23">
-        <v>8.8612759471372801E-2</v>
-      </c>
-      <c r="BS23">
-        <v>8.7573842393122603E-2</v>
-      </c>
-      <c r="BT23">
-        <v>8.7635665279764394E-2</v>
-      </c>
-      <c r="BU23">
-        <v>8.7330606591539003E-2</v>
-      </c>
-      <c r="BV23">
-        <v>8.7930501714605799E-2</v>
-      </c>
-      <c r="BW23">
-        <v>8.80627057037522E-2</v>
-      </c>
-      <c r="BX23">
-        <v>8.7961892388784296E-2</v>
-      </c>
-      <c r="BY23">
-        <v>8.7266627806759894E-2</v>
-      </c>
-      <c r="BZ23">
-        <v>8.6913101435012699E-2</v>
-      </c>
-      <c r="CA23">
-        <v>8.7357398756729696E-2</v>
-      </c>
-      <c r="CB23">
-        <v>8.6454971990525598E-2</v>
-      </c>
-      <c r="CC23">
-        <v>8.6561609060031297E-2</v>
-      </c>
-      <c r="CD23">
-        <v>8.7424759133217303E-2</v>
-      </c>
-      <c r="CE23">
-        <v>8.6379406997266095E-2</v>
-      </c>
-      <c r="CF23">
-        <v>8.6889344360903398E-2</v>
-      </c>
-      <c r="CG23">
-        <v>8.7218753136347194E-2</v>
-      </c>
-      <c r="CH23">
-        <v>8.7748358683498603E-2</v>
-      </c>
-      <c r="CI23">
-        <v>8.6571365186735097E-2</v>
-      </c>
-      <c r="CJ23">
-        <v>8.7295367730198803E-2</v>
-      </c>
-      <c r="CK23">
-        <v>8.7014420081359997E-2</v>
-      </c>
-      <c r="CL23">
-        <v>8.7030979345967596E-2</v>
-      </c>
-      <c r="CM23">
-        <v>8.7278102675590594E-2</v>
-      </c>
-      <c r="CN23">
-        <v>8.7262796290644901E-2</v>
-      </c>
-      <c r="CO23">
-        <v>8.7029283610867494E-2</v>
-      </c>
-      <c r="CP23">
-        <v>8.6118309951247807E-2</v>
-      </c>
-      <c r="CQ23">
-        <v>8.7356227361769401E-2</v>
-      </c>
-      <c r="CR23">
-        <v>8.6807342125473294E-2</v>
-      </c>
-      <c r="CS23">
-        <v>8.7436321172720197E-2</v>
-      </c>
-      <c r="CT23">
-        <v>8.72647643041327E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>8.5000000894069672E-2</v>
-      </c>
-      <c r="C24">
-        <v>8.449999988079071E-2</v>
-      </c>
-      <c r="D24">
-        <v>8.4700003266334534E-2</v>
-      </c>
-      <c r="E24">
-        <v>8.5000000894069672E-2</v>
-      </c>
-      <c r="F24">
-        <v>8.5199996829032898E-2</v>
-      </c>
-      <c r="G24">
-        <v>8.5500001907348633E-2</v>
-      </c>
-      <c r="H24">
-        <v>8.5799999535083771E-2</v>
-      </c>
-      <c r="I24">
-        <v>8.5799999535083771E-2</v>
-      </c>
-      <c r="J24">
-        <v>8.6099997162818909E-2</v>
-      </c>
-      <c r="K24">
-        <v>8.5900001227855682E-2</v>
-      </c>
-      <c r="L24">
-        <v>8.6000002920627594E-2</v>
-      </c>
-      <c r="M24">
-        <v>8.6000002920627594E-2</v>
-      </c>
-      <c r="N24">
-        <v>8.6400002241134644E-2</v>
-      </c>
-      <c r="O24">
-        <v>8.6499996483325958E-2</v>
-      </c>
-      <c r="P24">
-        <v>8.6699999868869781E-2</v>
-      </c>
-      <c r="Q24">
-        <v>8.6900003254413605E-2</v>
-      </c>
-      <c r="R24">
-        <v>8.7099999189376831E-2</v>
-      </c>
-      <c r="S24">
-        <v>8.7099999189376831E-2</v>
-      </c>
-      <c r="T24">
-        <v>8.7099999189376831E-2</v>
-      </c>
-      <c r="U24">
-        <v>8.7300002574920654E-2</v>
-      </c>
-      <c r="V24">
-        <v>8.7300002574920654E-2</v>
-      </c>
-      <c r="W24">
-        <v>8.7300002574920654E-2</v>
-      </c>
-      <c r="X24">
-        <v>8.7200000882148743E-2</v>
-      </c>
-      <c r="Y24">
-        <v>8.7200000882148743E-2</v>
-      </c>
-      <c r="Z24">
-        <v>8.7499998509883881E-2</v>
-      </c>
-      <c r="AA24">
-        <v>8.7499998509883881E-2</v>
-      </c>
-      <c r="AB24">
-        <v>8.7300002574920654E-2</v>
-      </c>
-      <c r="AC24">
-        <v>8.7300002574920654E-2</v>
-      </c>
-      <c r="AD24">
-        <v>8.7499998509883881E-2</v>
-      </c>
-      <c r="AE24">
-        <v>8.7300002574920654E-2</v>
-      </c>
-      <c r="AF24">
-        <v>8.7300002574920654E-2</v>
-      </c>
-      <c r="AG24">
-        <v>8.7399996817111969E-2</v>
-      </c>
-      <c r="AH24">
-        <v>8.6999997496604919E-2</v>
-      </c>
-      <c r="AI24">
-        <v>8.7300002574920654E-2</v>
-      </c>
-      <c r="AJ24">
-        <v>8.7600000202655792E-2</v>
-      </c>
-      <c r="AK24">
-        <v>8.6999997496604919E-2</v>
-      </c>
-      <c r="AL24">
-        <v>8.7399996817111969E-2</v>
-      </c>
-      <c r="AM24">
-        <v>8.7099999189376831E-2</v>
-      </c>
-      <c r="AN24">
-        <v>8.6900003254413605E-2</v>
-      </c>
-      <c r="AO24">
-        <v>8.7099999189376831E-2</v>
-      </c>
-      <c r="AP24">
-        <v>8.7099999189376831E-2</v>
-      </c>
-      <c r="AQ24">
-        <v>8.6699999868869781E-2</v>
-      </c>
-      <c r="AR24">
-        <v>8.6800001561641693E-2</v>
-      </c>
-      <c r="AS24">
-        <v>8.7099999189376831E-2</v>
-      </c>
-      <c r="AT24">
-        <v>8.6800001561641693E-2</v>
-      </c>
-      <c r="AU24">
-        <v>8.6800001561641693E-2</v>
-      </c>
-      <c r="AV24">
-        <v>8.6800001561641693E-2</v>
-      </c>
-      <c r="AW24">
-        <v>8.6800001561641693E-2</v>
-      </c>
-      <c r="AX24">
-        <v>8.6699999868869781E-2</v>
-      </c>
-      <c r="AY24">
-        <v>8.659999817609787E-2</v>
-      </c>
-      <c r="AZ24">
-        <v>8.6800001561641693E-2</v>
-      </c>
-      <c r="BA24">
-        <v>8.6800001561641693E-2</v>
-      </c>
-      <c r="BB24">
-        <v>8.6900003254413605E-2</v>
-      </c>
-      <c r="BC24">
-        <v>8.659999817609787E-2</v>
-      </c>
-      <c r="BD24">
-        <v>8.6400002241134644E-2</v>
-      </c>
-      <c r="BE24">
-        <v>8.6499996483325958E-2</v>
-      </c>
-      <c r="BF24">
-        <v>8.6699999868869781E-2</v>
-      </c>
-      <c r="BG24">
-        <v>8.6499996483325958E-2</v>
-      </c>
-      <c r="BH24">
-        <v>8.6400002241134644E-2</v>
-      </c>
-      <c r="BI24">
-        <v>8.6499996483325958E-2</v>
-      </c>
-      <c r="BJ24">
-        <v>8.619999885559082E-2</v>
-      </c>
-      <c r="BK24">
-        <v>8.6499996483325958E-2</v>
-      </c>
-      <c r="BL24">
-        <v>8.6400002241134644E-2</v>
-      </c>
-      <c r="BM24">
-        <v>8.6400002241134644E-2</v>
-      </c>
-      <c r="BN24">
-        <v>8.6300000548362732E-2</v>
-      </c>
-      <c r="BO24">
-        <v>8.6400002241134644E-2</v>
-      </c>
-      <c r="BP24">
-        <v>8.6400002241134644E-2</v>
-      </c>
-      <c r="BQ24">
-        <v>8.6400002241134644E-2</v>
-      </c>
-      <c r="BR24">
-        <v>8.6300000548362732E-2</v>
-      </c>
-      <c r="BS24">
-        <v>8.6300000548362732E-2</v>
-      </c>
-      <c r="BT24">
-        <v>8.6099997162818909E-2</v>
-      </c>
-      <c r="BU24">
-        <v>8.619999885559082E-2</v>
-      </c>
-      <c r="BV24">
-        <v>8.6000002920627594E-2</v>
-      </c>
-      <c r="BW24">
-        <v>8.6300000548362732E-2</v>
-      </c>
-      <c r="BX24">
-        <v>8.619999885559082E-2</v>
-      </c>
-      <c r="BY24">
-        <v>8.619999885559082E-2</v>
-      </c>
-      <c r="BZ24">
-        <v>8.6099997162818909E-2</v>
-      </c>
-      <c r="CA24">
-        <v>8.6099997162818909E-2</v>
-      </c>
-      <c r="CB24">
-        <v>8.6099997162818909E-2</v>
-      </c>
-      <c r="CC24">
-        <v>8.6099997162818909E-2</v>
-      </c>
-      <c r="CD24">
-        <v>8.6300000548362732E-2</v>
-      </c>
-      <c r="CE24">
-        <v>8.619999885559082E-2</v>
-      </c>
-      <c r="CF24">
-        <v>8.619999885559082E-2</v>
-      </c>
-      <c r="CG24">
-        <v>8.619999885559082E-2</v>
-      </c>
-      <c r="CH24">
-        <v>8.6300000548362732E-2</v>
-      </c>
-      <c r="CI24">
-        <v>8.6300000548362732E-2</v>
-      </c>
-      <c r="CJ24">
-        <v>8.619999885559082E-2</v>
-      </c>
-      <c r="CK24">
-        <v>8.6300000548362732E-2</v>
-      </c>
-      <c r="CL24">
-        <v>8.619999885559082E-2</v>
-      </c>
-      <c r="CM24">
-        <v>8.619999885559082E-2</v>
-      </c>
-      <c r="CN24">
-        <v>8.6099997162818909E-2</v>
-      </c>
-      <c r="CO24">
-        <v>8.6300000548362732E-2</v>
-      </c>
-      <c r="CP24">
-        <v>8.6099997162818909E-2</v>
-      </c>
-      <c r="CQ24">
-        <v>8.619999885559082E-2</v>
-      </c>
-      <c r="CR24">
-        <v>8.619999885559082E-2</v>
-      </c>
-      <c r="CS24">
-        <v>8.6099997162818909E-2</v>
-      </c>
-      <c r="CT24">
-        <v>8.619999885559082E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>8.8899999856948853E-2</v>
-      </c>
-      <c r="C25">
-        <v>8.7499998509883881E-2</v>
-      </c>
-      <c r="D25">
-        <v>8.7099999189376831E-2</v>
-      </c>
-      <c r="E25">
-        <v>8.7300002574920654E-2</v>
-      </c>
-      <c r="F25">
-        <v>8.7399996817111969E-2</v>
-      </c>
-      <c r="G25">
-        <v>8.7600000202655792E-2</v>
-      </c>
-      <c r="H25">
-        <v>8.7600000202655792E-2</v>
-      </c>
-      <c r="I25">
-        <v>8.789999783039093E-2</v>
-      </c>
-      <c r="J25">
-        <v>8.8200002908706665E-2</v>
-      </c>
-      <c r="K25">
-        <v>8.8100001215934753E-2</v>
-      </c>
-      <c r="L25">
-        <v>8.829999715089798E-2</v>
-      </c>
-      <c r="M25">
-        <v>8.8100001215934753E-2</v>
-      </c>
-      <c r="N25">
-        <v>8.8699996471405029E-2</v>
-      </c>
-      <c r="O25">
-        <v>8.8399998843669891E-2</v>
-      </c>
-      <c r="P25">
-        <v>8.8600002229213715E-2</v>
-      </c>
-      <c r="Q25">
-        <v>8.8699996471405029E-2</v>
-      </c>
-      <c r="R25">
-        <v>8.8799998164176941E-2</v>
-      </c>
-      <c r="S25">
-        <v>8.9100003242492676E-2</v>
-      </c>
-      <c r="T25">
-        <v>8.8699996471405029E-2</v>
-      </c>
-      <c r="U25">
-        <v>8.8899999856948853E-2</v>
-      </c>
-      <c r="V25">
-        <v>8.9000001549720764E-2</v>
-      </c>
-      <c r="W25">
-        <v>8.9100003242492676E-2</v>
-      </c>
-      <c r="X25">
-        <v>8.9000001549720764E-2</v>
-      </c>
-      <c r="Y25">
-        <v>8.9000001549720764E-2</v>
-      </c>
-      <c r="Z25">
-        <v>8.919999748468399E-2</v>
-      </c>
-      <c r="AA25">
-        <v>8.9100003242492676E-2</v>
-      </c>
-      <c r="AB25">
-        <v>8.919999748468399E-2</v>
-      </c>
-      <c r="AC25">
-        <v>8.919999748468399E-2</v>
-      </c>
-      <c r="AD25">
-        <v>8.9000001549720764E-2</v>
-      </c>
-      <c r="AE25">
-        <v>8.9299999177455902E-2</v>
-      </c>
-      <c r="AF25">
-        <v>8.9299999177455902E-2</v>
-      </c>
-      <c r="AG25">
-        <v>8.919999748468399E-2</v>
-      </c>
-      <c r="AH25">
-        <v>8.919999748468399E-2</v>
-      </c>
-      <c r="AI25">
-        <v>8.919999748468399E-2</v>
-      </c>
-      <c r="AJ25">
-        <v>8.9500002562999725E-2</v>
-      </c>
-      <c r="AK25">
-        <v>8.9299999177455902E-2</v>
-      </c>
-      <c r="AL25">
-        <v>8.9500002562999725E-2</v>
-      </c>
-      <c r="AM25">
-        <v>8.9500002562999725E-2</v>
-      </c>
-      <c r="AN25">
-        <v>8.9299999177455902E-2</v>
-      </c>
-      <c r="AO25">
-        <v>8.9400000870227814E-2</v>
-      </c>
-      <c r="AP25">
-        <v>8.9400000870227814E-2</v>
-      </c>
-      <c r="AQ25">
-        <v>8.9299999177455902E-2</v>
-      </c>
-      <c r="AR25">
-        <v>8.9500002562999725E-2</v>
-      </c>
-      <c r="AS25">
-        <v>8.9800000190734863E-2</v>
-      </c>
-      <c r="AT25">
-        <v>8.9699998497962952E-2</v>
-      </c>
-      <c r="AU25">
-        <v>8.9699998497962952E-2</v>
-      </c>
-      <c r="AV25">
-        <v>8.9699998497962952E-2</v>
-      </c>
-      <c r="AW25">
-        <v>8.9800000190734863E-2</v>
-      </c>
-      <c r="AX25">
-        <v>8.9900001883506775E-2</v>
-      </c>
-      <c r="AY25">
-        <v>8.9800000190734863E-2</v>
-      </c>
-      <c r="AZ25">
-        <v>8.9800000190734863E-2</v>
-      </c>
-      <c r="BA25">
-        <v>8.9699998497962952E-2</v>
-      </c>
-      <c r="BB25">
-        <v>8.9800000190734863E-2</v>
-      </c>
-      <c r="BC25">
-        <v>8.9800000190734863E-2</v>
-      </c>
-      <c r="BD25">
-        <v>8.959999680519104E-2</v>
-      </c>
-      <c r="BE25">
-        <v>8.959999680519104E-2</v>
-      </c>
-      <c r="BF25">
-        <v>8.9699998497962952E-2</v>
-      </c>
-      <c r="BG25">
-        <v>8.9500002562999725E-2</v>
-      </c>
-      <c r="BH25">
-        <v>8.9100003242492676E-2</v>
-      </c>
-      <c r="BI25">
-        <v>8.919999748468399E-2</v>
-      </c>
-      <c r="BJ25">
-        <v>8.8799998164176941E-2</v>
-      </c>
-      <c r="BK25">
-        <v>8.8899999856948853E-2</v>
-      </c>
-      <c r="BL25">
-        <v>8.9000001549720764E-2</v>
-      </c>
-      <c r="BM25">
-        <v>8.8799998164176941E-2</v>
-      </c>
-      <c r="BN25">
-        <v>8.8699996471405029E-2</v>
-      </c>
-      <c r="BO25">
-        <v>8.8500000536441803E-2</v>
-      </c>
-      <c r="BP25">
-        <v>8.8399998843669891E-2</v>
-      </c>
-      <c r="BQ25">
-        <v>8.8200002908706665E-2</v>
-      </c>
-      <c r="BR25">
-        <v>8.8200002908706665E-2</v>
-      </c>
-      <c r="BS25">
-        <v>8.7999999523162842E-2</v>
-      </c>
-      <c r="BT25">
-        <v>8.789999783039093E-2</v>
-      </c>
-      <c r="BU25">
-        <v>8.7800003588199615E-2</v>
-      </c>
-      <c r="BV25">
-        <v>8.7600000202655792E-2</v>
-      </c>
-      <c r="BW25">
-        <v>8.7700001895427704E-2</v>
-      </c>
-      <c r="BX25">
-        <v>8.7700001895427704E-2</v>
-      </c>
-      <c r="BY25">
-        <v>8.7499998509883881E-2</v>
-      </c>
-      <c r="BZ25">
-        <v>8.7399996817111969E-2</v>
-      </c>
-      <c r="CA25">
-        <v>8.7300002574920654E-2</v>
-      </c>
-      <c r="CB25">
-        <v>8.7200000882148743E-2</v>
-      </c>
-      <c r="CC25">
-        <v>8.7200000882148743E-2</v>
-      </c>
-      <c r="CD25">
-        <v>8.7200000882148743E-2</v>
-      </c>
-      <c r="CE25">
-        <v>8.7099999189376831E-2</v>
-      </c>
-      <c r="CF25">
-        <v>8.7200000882148743E-2</v>
-      </c>
-      <c r="CG25">
-        <v>8.7099999189376831E-2</v>
-      </c>
-      <c r="CH25">
-        <v>8.6999997496604919E-2</v>
-      </c>
-      <c r="CI25">
-        <v>8.7099999189376831E-2</v>
-      </c>
-      <c r="CJ25">
-        <v>8.6900003254413605E-2</v>
-      </c>
-      <c r="CK25">
-        <v>8.6900003254413605E-2</v>
-      </c>
-      <c r="CL25">
-        <v>8.6900003254413605E-2</v>
-      </c>
-      <c r="CM25">
-        <v>8.6900003254413605E-2</v>
-      </c>
-      <c r="CN25">
-        <v>8.6800001561641693E-2</v>
-      </c>
-      <c r="CO25">
-        <v>8.6800001561641693E-2</v>
-      </c>
-      <c r="CP25">
-        <v>8.6800001561641693E-2</v>
-      </c>
-      <c r="CQ25">
-        <v>8.6800001561641693E-2</v>
-      </c>
-      <c r="CR25">
-        <v>8.659999817609787E-2</v>
-      </c>
-      <c r="CS25">
-        <v>8.659999817609787E-2</v>
-      </c>
-      <c r="CT25">
-        <v>8.6699999868869781E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BACC7B-9F91-452A-9748-7075B77D451E}">
-  <dimension ref="B2:F73"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D73"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="8">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="8">
-        <v>50</v>
-      </c>
-      <c r="D20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="8">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="8">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="8">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="8">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="8">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="8">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="8">
-        <v>50</v>
-      </c>
-      <c r="D27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="8">
-        <v>50</v>
-      </c>
-      <c r="D28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="8">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="8">
-        <v>50</v>
-      </c>
-      <c r="D30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="8">
-        <v>50</v>
-      </c>
-      <c r="D31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="8">
-        <v>50</v>
-      </c>
-      <c r="D32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="8">
-        <v>50</v>
-      </c>
-      <c r="D33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="8">
-        <v>50</v>
-      </c>
-      <c r="D34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="8">
-        <v>50</v>
-      </c>
-      <c r="D35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="8">
-        <v>50</v>
-      </c>
-      <c r="D36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="8">
-        <v>50</v>
-      </c>
-      <c r="D37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="8">
-        <v>100</v>
-      </c>
-      <c r="D38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="8">
-        <v>100</v>
-      </c>
-      <c r="D39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="8">
-        <v>100</v>
-      </c>
-      <c r="D40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="8">
-        <v>100</v>
-      </c>
-      <c r="D41" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="8">
-        <v>100</v>
-      </c>
-      <c r="D42" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="8">
-        <v>100</v>
-      </c>
-      <c r="D43" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="8">
-        <v>100</v>
-      </c>
-      <c r="D44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="8">
-        <v>100</v>
-      </c>
-      <c r="D45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="8">
-        <v>100</v>
-      </c>
-      <c r="D46" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="8">
-        <v>100</v>
-      </c>
-      <c r="D47" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="8">
-        <v>100</v>
-      </c>
-      <c r="D48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="8">
-        <v>100</v>
-      </c>
-      <c r="D49" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="8">
-        <v>100</v>
-      </c>
-      <c r="D50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="8">
-        <v>100</v>
-      </c>
-      <c r="D51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="8">
-        <v>100</v>
-      </c>
-      <c r="D52" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="8">
-        <v>100</v>
-      </c>
-      <c r="D53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="8">
-        <v>100</v>
-      </c>
-      <c r="D54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="8">
-        <v>100</v>
-      </c>
-      <c r="D55" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="8">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" s="8">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C58" s="8">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="8">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60" s="8">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C61" s="8">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" s="8">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C63" s="8">
-        <v>1</v>
-      </c>
-      <c r="D63" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C64" s="8">
-        <v>1</v>
-      </c>
-      <c r="D64" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" s="8">
-        <v>1</v>
-      </c>
-      <c r="D65" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C66" s="8">
-        <v>1</v>
-      </c>
-      <c r="D66" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="8">
-        <v>1</v>
-      </c>
-      <c r="D67" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" s="8">
-        <v>1</v>
-      </c>
-      <c r="D68" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C69" s="8">
-        <v>1</v>
-      </c>
-      <c r="D69" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C70" s="8">
-        <v>1</v>
-      </c>
-      <c r="D70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C71" s="8">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C72" s="8">
-        <v>1</v>
-      </c>
-      <c r="D72" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C73" s="8">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>